--- a/pythonproject/src/realtime.xlsx
+++ b/pythonproject/src/realtime.xlsx
@@ -440,11 +440,11 @@
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I409" si="1">SWITCH(B2, 
- "D9", CHOOSE(RANDBETWEEN(1,3), 80,85,90),
+ "D9", CHOOSE(RANDBETWEEN(1,3), 10,15,30),
  "D8", CHOOSE(RANDBETWEEN(1,3), 10,15,20),
  "")
 </f>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>0.0</v>
@@ -471,7 +471,7 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2">
         <v>0.0</v>
@@ -498,7 +498,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2">
         <v>0.0</v>
@@ -525,7 +525,7 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
         <v>10.0</v>
@@ -552,7 +552,7 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
         <v>10.0</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
         <v>10.0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
         <v>10.0</v>
@@ -633,7 +633,7 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2">
         <v>10.0</v>
@@ -660,7 +660,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
         <v>10.0</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2">
         <v>10.0</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>0.0</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
         <v>0.0</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2">
         <v>0.0</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2">
         <v>0.0</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2">
         <v>0.0</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
         <v>0.0</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J19" s="2">
         <v>0.0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J21" s="2">
         <v>0.0</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2">
         <v>0.0</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J23" s="2">
         <v>0.0</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J24" s="2">
         <v>0.0</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J25" s="2">
         <v>0.0</v>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2">
         <v>0.0</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2">
         <v>0.0</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2">
         <v>0.0</v>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J30" s="2">
         <v>0.0</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J32" s="2">
         <v>0.0</v>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J33" s="2">
         <v>0.0</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J34" s="2">
         <v>0.0</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J35" s="2">
         <v>0.0</v>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J36" s="2">
         <v>0.0</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J38" s="2">
         <v>0.0</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J40" s="2">
         <v>0.0</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J41" s="2">
         <v>0.0</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J42" s="2">
         <v>0.0</v>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J43" s="2">
         <v>0.0</v>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J44" s="2">
         <v>0.0</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I46" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J46" s="2">
         <v>0.0</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I47" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J47" s="2">
         <v>0.0</v>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I48" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J48" s="2">
         <v>0.0</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="I49" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J49" s="2">
         <v>0.0</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="I50" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J50" s="2">
         <v>0.0</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I51" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J51" s="2">
         <v>0.0</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I52" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J52" s="2">
         <v>0.0</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="I53" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J53" s="2">
         <v>0.0</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I54" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J54" s="2">
         <v>0.0</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I55" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J55" s="2">
         <v>0.0</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="I56" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J56" s="2">
         <v>0.0</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="I57" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J57" s="2">
         <v>0.0</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="I58" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J58" s="2">
         <v>0.0</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I59" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J59" s="2">
         <v>0.0</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="I60" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J60" s="2">
         <v>0.0</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I61" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J61" s="2">
         <v>0.0</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="I62" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J62" s="2">
         <v>0.0</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="I64" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J64" s="2">
         <v>0.0</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="I65" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J65" s="2">
         <v>0.0</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="I66" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J66" s="2">
         <v>0.0</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I67" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J67" s="2">
         <v>0.0</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="I68" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J68" s="2">
         <v>0.0</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="I69" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J69" s="2">
         <v>0.0</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I70" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J70" s="2">
         <v>0.0</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="I72" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J72" s="2">
         <v>0.0</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="I74" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J74" s="2">
         <v>0.0</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I75" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J75" s="2">
         <v>0.0</v>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="I76" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J76" s="2">
         <v>0.0</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I77" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J77" s="2">
         <v>0.0</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="I78" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J78" s="2">
         <v>0.0</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="I80" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J80" s="2">
         <v>0.0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="I82" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J82" s="2">
         <v>0.0</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I83" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J83" s="2">
         <v>0.0</v>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="I84" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J84" s="2">
         <v>0.0</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="I85" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J85" s="2">
         <v>0.0</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="I86" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J86" s="2">
         <v>0.0</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I87" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J87" s="2">
         <v>0.0</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="I88" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J88" s="2">
         <v>0.0</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="I90" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J90" s="2">
         <v>0.0</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I91" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J91" s="2">
         <v>20.0</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="I93" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J93" s="2">
         <v>0.0</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="I98" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J98" s="2">
         <v>0.0</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I99" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J99" s="2">
         <v>0.0</v>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="I100" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J100" s="2">
         <v>0.0</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="I101" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J101" s="2">
         <v>0.0</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I103" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J103" s="2">
         <v>0.0</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="I104" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J104" s="2">
         <v>10.0</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="I105" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J105" s="2">
         <v>0.0</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I107" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J107" s="2">
         <v>10.0</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="I108" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J108" s="2">
         <v>0.0</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="I109" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J109" s="2">
         <v>10.0</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I111" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J111" s="2">
         <v>10.0</v>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="I112" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J112" s="2">
         <v>10.0</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I115" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J115" s="2">
         <v>0.0</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="I116" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J116" s="2">
         <v>10.0</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="I118" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J118" s="2">
         <v>10.0</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="I121" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J121" s="2">
         <v>10.0</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I123" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J123" s="2">
         <v>10.0</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="I124" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J124" s="2">
         <v>10.0</v>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="I125" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J125" s="2">
         <v>10.0</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="I126" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J126" s="2">
         <v>10.0</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I127" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J127" s="2">
         <v>10.0</v>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="I129" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J129" s="2">
         <v>10.0</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I131" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J131" s="2">
         <v>10.0</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="I133" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J133" s="2">
         <v>10.0</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I135" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J135" s="2">
         <v>10.0</v>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="I136" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J136" s="2">
         <v>10.0</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I139" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J139" s="2">
         <v>0.0</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="I142" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J142" s="2">
         <v>20.0</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="I144" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J144" s="2">
         <v>20.0</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I145" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J145" s="2">
         <v>20.0</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="I146" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J146" s="2">
         <v>0.0</v>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="I147" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J147" s="2">
         <v>0.0</v>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I148" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J148" s="2">
         <v>10.0</v>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="I149" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J149" s="2">
         <v>0.0</v>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I150" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J150" s="2">
         <v>0.0</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="I151" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J151" s="2">
         <v>10.0</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I152" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J152" s="2">
         <v>10.0</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="I153" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J153" s="2">
         <v>0.0</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="I154" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J154" s="2">
         <v>10.0</v>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="I155" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J155" s="2">
         <v>0.0</v>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="I157" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J157" s="2">
         <v>0.0</v>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="I158" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J158" s="2">
         <v>0.0</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="I159" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J159" s="2">
         <v>0.0</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I160" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J160" s="2">
         <v>0.0</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="I161" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J161" s="2">
         <v>0.0</v>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="I162" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J162" s="2">
         <v>0.0</v>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="I163" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J163" s="2">
         <v>0.0</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I164" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J164" s="2">
         <v>0.0</v>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="I165" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J165" s="2">
         <v>0.0</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I166" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J166" s="2">
         <v>0.0</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="I167" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J167" s="2">
         <v>0.0</v>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I168" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J168" s="2">
         <v>0.0</v>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="I169" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J169" s="2">
         <v>0.0</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="I170" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J170" s="2">
         <v>0.0</v>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="I171" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J171" s="2">
         <v>0.0</v>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I172" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J172" s="2">
         <v>0.0</v>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="I173" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J173" s="2">
         <v>0.0</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="I174" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J174" s="2">
         <v>0.0</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="I175" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J175" s="2">
         <v>0.0</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="I177" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J177" s="2">
         <v>20.0</v>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="I178" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J178" s="2">
         <v>0.0</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="I179" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J179" s="2">
         <v>10.0</v>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I180" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J180" s="2">
         <v>30.0</v>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="I181" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J181" s="2">
         <v>10.0</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I182" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J182" s="2">
         <v>0.0</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="I183" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J183" s="2">
         <v>0.0</v>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I184" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J184" s="2">
         <v>0.0</v>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="I185" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J185" s="2">
         <v>0.0</v>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="I186" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J186" s="2">
         <v>0.0</v>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="I187" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J187" s="2">
         <v>0.0</v>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I188" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J188" s="2">
         <v>0.0</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="I189" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J189" s="2">
         <v>0.0</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="I190" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J190" s="2">
         <v>0.0</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="I191" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J191" s="2">
         <v>0.0</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I192" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J192" s="2">
         <v>0.0</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="I194" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J194" s="2">
         <v>0.0</v>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="I195" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J195" s="2">
         <v>0.0</v>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I196" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J196" s="2">
         <v>0.0</v>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="I197" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J197" s="2">
         <v>0.0</v>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I198" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J198" s="2">
         <v>0.0</v>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="I199" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J199" s="2">
         <v>0.0</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I200" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J200" s="2">
         <v>0.0</v>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="I201" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J201" s="2">
         <v>0.0</v>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="I202" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J202" s="2">
         <v>0.0</v>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="I203" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J203" s="2">
         <v>0.0</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I204" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J204" s="2">
         <v>0.0</v>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I205" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J205" s="2">
         <v>0.0</v>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="I206" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J206" s="2">
         <v>0.0</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="I207" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J207" s="2">
         <v>0.0</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I208" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J208" s="2">
         <v>0.0</v>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="I209" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J209" s="2">
         <v>0.0</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="I210" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J210" s="2">
         <v>0.0</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="I211" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J211" s="2">
         <v>0.0</v>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I212" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J212" s="2">
         <v>0.0</v>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="I213" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J213" s="2">
         <v>0.0</v>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I214" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J214" s="2">
         <v>0.0</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="I215" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J215" s="2">
         <v>0.0</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I216" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J216" s="2">
         <v>0.0</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="I217" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J217" s="2">
         <v>0.0</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="I218" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J218" s="2">
         <v>0.0</v>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="I219" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J219" s="2">
         <v>0.0</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I220" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J220" s="2">
         <v>0.0</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="I221" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J221" s="2">
         <v>0.0</v>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="I222" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J222" s="2">
         <v>20.0</v>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="I223" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J223" s="2">
         <v>10.0</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I224" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J224" s="2">
         <v>10.0</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="I225" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J225" s="2">
         <v>10.0</v>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="I226" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J226" s="2">
         <v>0.0</v>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="I227" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J227" s="2">
         <v>0.0</v>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I228" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J228" s="2">
         <v>20.0</v>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="I229" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J229" s="2">
         <v>10.0</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I230" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J230" s="2">
         <v>0.0</v>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="I231" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J231" s="2">
         <v>10.0</v>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I232" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J232" s="2">
         <v>0.0</v>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="I233" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J233" s="2">
         <v>0.0</v>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="I234" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J234" s="2">
         <v>10.0</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="I235" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J235" s="2">
         <v>0.0</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I236" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J236" s="2">
         <v>10.0</v>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="I237" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J237" s="2">
         <v>0.0</v>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="I238" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J238" s="2">
         <v>0.0</v>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="I239" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J239" s="2">
         <v>0.0</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I240" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J240" s="2">
         <v>0.0</v>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="I241" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J241" s="2">
         <v>0.0</v>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="I242" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J242" s="2">
         <v>0.0</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="I243" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J243" s="2">
         <v>0.0</v>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I244" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J244" s="2">
         <v>10.0</v>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="I245" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J245" s="2">
         <v>0.0</v>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I246" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J246" s="2">
         <v>10.0</v>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="I247" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J247" s="2">
         <v>0.0</v>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I248" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J248" s="2">
         <v>0.0</v>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="I249" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J249" s="2">
         <v>20.0</v>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="I250" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J250" s="2">
         <v>0.0</v>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="I251" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J251" s="2">
         <v>0.0</v>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I252" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J252" s="2">
         <v>10.0</v>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="I253" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J253" s="2">
         <v>0.0</v>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="I254" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J254" s="2">
         <v>0.0</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="I255" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J255" s="2">
         <v>0.0</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I256" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J256" s="2">
         <v>0.0</v>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="I257" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J257" s="2">
         <v>0.0</v>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="I258" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J258" s="2">
         <v>10.0</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="I259" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J259" s="2">
         <v>0.0</v>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I260" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J260" s="2">
         <v>0.0</v>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="I261" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J261" s="2">
         <v>0.0</v>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I262" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J262" s="2">
         <v>0.0</v>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="I263" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J263" s="2">
         <v>0.0</v>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I264" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J264" s="2">
         <v>0.0</v>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="I265" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J265" s="2">
         <v>0.0</v>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="I266" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J266" s="2">
         <v>0.0</v>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="I267" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J267" s="2">
         <v>10.0</v>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I268" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J268" s="2">
         <v>0.0</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="I270" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J270" s="2">
         <v>20.0</v>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="I271" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J271" s="2">
         <v>0.0</v>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I272" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J272" s="2">
         <v>0.0</v>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I273" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J273" s="2">
         <v>0.0</v>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="I274" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J274" s="2">
         <v>0.0</v>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="I275" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J275" s="2">
         <v>0.0</v>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I276" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J276" s="2">
         <v>0.0</v>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="I277" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J277" s="2">
         <v>0.0</v>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I278" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J278" s="2">
         <v>0.0</v>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="I279" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J279" s="2">
         <v>10.0</v>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I280" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J280" s="2">
         <v>0.0</v>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="I281" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J281" s="2">
         <v>0.0</v>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="I282" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J282" s="2">
         <v>0.0</v>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="I283" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J283" s="2">
         <v>0.0</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I284" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J284" s="2">
         <v>0.0</v>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="I285" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J285" s="2">
         <v>10.0</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="I286" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J286" s="2">
         <v>0.0</v>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="I287" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J287" s="2">
         <v>10.0</v>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I288" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J288" s="2">
         <v>0.0</v>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="I289" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J289" s="2">
         <v>0.0</v>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="I290" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J290" s="2">
         <v>0.0</v>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="I291" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J291" s="2">
         <v>10.0</v>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I292" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J292" s="2">
         <v>10.0</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I294" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J294" s="2">
         <v>0.0</v>
@@ -8400,7 +8400,7 @@
       </c>
       <c r="I295" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J295" s="2">
         <v>0.0</v>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I296" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J296" s="2">
         <v>0.0</v>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="I297" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J297" s="2">
         <v>0.0</v>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="I298" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J298" s="2">
         <v>0.0</v>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="I299" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J299" s="2">
         <v>0.0</v>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I300" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J300" s="2">
         <v>0.0</v>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="I301" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J301" s="2">
         <v>0.0</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="I302" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J302" s="2">
         <v>0.0</v>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="I303" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J303" s="2">
         <v>0.0</v>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I304" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J304" s="2">
         <v>0.0</v>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="I305" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J305" s="2">
         <v>0.0</v>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="I306" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J306" s="2">
         <v>0.0</v>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="I307" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J307" s="2">
         <v>0.0</v>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I308" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J308" s="2">
         <v>0.0</v>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="I309" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J309" s="2">
         <v>0.0</v>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I310" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J310" s="2">
         <v>0.0</v>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="I311" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J311" s="2">
         <v>0.0</v>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I312" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J312" s="2">
         <v>0.0</v>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="I313" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J313" s="2">
         <v>0.0</v>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="I314" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J314" s="2">
         <v>0.0</v>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="I315" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J315" s="2">
         <v>0.0</v>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I316" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J316" s="2">
         <v>0.0</v>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="I317" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J317" s="2">
         <v>0.0</v>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="I318" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J318" s="2">
         <v>0.0</v>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="I319" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J319" s="2">
         <v>0.0</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I320" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J320" s="2">
         <v>0.0</v>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="I321" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J321" s="2">
         <v>0.0</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="I322" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J322" s="2">
         <v>0.0</v>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="I323" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J323" s="2">
         <v>0.0</v>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I324" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J324" s="2">
         <v>0.0</v>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="I325" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J325" s="2">
         <v>0.0</v>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I326" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J326" s="2">
         <v>0.0</v>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="I327" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J327" s="2">
         <v>0.0</v>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I328" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J328" s="2">
         <v>0.0</v>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="I329" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J329" s="2">
         <v>0.0</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="I330" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J330" s="2">
         <v>0.0</v>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="I331" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J331" s="2">
         <v>0.0</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I332" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J332" s="2">
         <v>0.0</v>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="I333" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J333" s="2">
         <v>0.0</v>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="I334" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J334" s="2">
         <v>0.0</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="I335" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J335" s="2">
         <v>0.0</v>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I336" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J336" s="2">
         <v>0.0</v>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="I337" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J337" s="2">
         <v>0.0</v>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="I338" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J338" s="2">
         <v>0.0</v>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="I339" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J339" s="2">
         <v>0.0</v>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="I340" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J340" s="2">
         <v>0.0</v>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I342" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J342" s="2">
         <v>0.0</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="I343" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J343" s="2">
         <v>0.0</v>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="I344" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J344" s="2">
         <v>0.0</v>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="I345" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J345" s="2">
         <v>0.0</v>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="I346" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J346" s="2">
         <v>0.0</v>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="I347" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J347" s="2">
         <v>0.0</v>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="I348" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J348" s="2">
         <v>0.0</v>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="I349" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J349" s="2">
         <v>0.0</v>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="I350" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J350" s="2">
         <v>0.0</v>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="I351" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J351" s="2">
         <v>0.0</v>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="I352" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J352" s="2">
         <v>0.0</v>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="I353" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J353" s="2">
         <v>0.0</v>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="I354" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J354" s="2">
         <v>0.0</v>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="I356" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J356" s="2">
         <v>0.0</v>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="I357" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J357" s="2">
         <v>0.0</v>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I358" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J358" s="2">
         <v>0.0</v>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="I359" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J359" s="2">
         <v>0.0</v>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="I360" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J360" s="2">
         <v>0.0</v>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="I361" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J361" s="2">
         <v>0.0</v>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="I362" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J362" s="2">
         <v>0.0</v>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="I363" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J363" s="2">
         <v>0.0</v>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="I364" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J364" s="2">
         <v>0.0</v>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="I365" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J365" s="2">
         <v>0.0</v>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="I366" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J366" s="2">
         <v>0.0</v>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="I367" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J367" s="2">
         <v>0.0</v>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="I368" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J368" s="2">
         <v>0.0</v>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="I369" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J369" s="2">
         <v>0.0</v>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="I370" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J370" s="2">
         <v>0.0</v>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I371" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J371" s="2">
         <v>0.0</v>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="I372" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J372" s="2">
         <v>0.0</v>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="I373" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J373" s="2">
         <v>0.0</v>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I374" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J374" s="2">
         <v>0.0</v>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="I375" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J375" s="2">
         <v>0.0</v>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="I376" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J376" s="2">
         <v>0.0</v>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="I377" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J377" s="2">
         <v>0.0</v>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="I378" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J378" s="2">
         <v>0.0</v>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="I379" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J379" s="2">
         <v>0.0</v>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="I380" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J380" s="2">
         <v>0.0</v>
@@ -10722,7 +10722,7 @@
       </c>
       <c r="I381" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J381" s="2">
         <v>0.0</v>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="I382" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J382" s="2">
         <v>0.0</v>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="I383" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J383" s="2">
         <v>0.0</v>
@@ -10803,7 +10803,7 @@
       </c>
       <c r="I384" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J384" s="2">
         <v>0.0</v>
@@ -10830,7 +10830,7 @@
       </c>
       <c r="I385" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J385" s="2">
         <v>0.0</v>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="I386" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J386" s="2">
         <v>0.0</v>
@@ -10884,7 +10884,7 @@
       </c>
       <c r="I387" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J387" s="2">
         <v>0.0</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="I388" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J388" s="2">
         <v>0.0</v>
@@ -10938,7 +10938,7 @@
       </c>
       <c r="I389" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J389" s="2">
         <v>0.0</v>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I390" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J390" s="2">
         <v>0.0</v>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="I391" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J391" s="2">
         <v>0.0</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="I392" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J392" s="2">
         <v>0.0</v>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="I393" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J393" s="2">
         <v>0.0</v>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="I394" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J394" s="2">
         <v>0.0</v>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="I395" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J395" s="2">
         <v>0.0</v>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="I396" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J396" s="2">
         <v>0.0</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I397" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J397" s="2">
         <v>0.0</v>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="I398" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J398" s="2">
         <v>0.0</v>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="I399" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J399" s="2">
         <v>0.0</v>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="I400" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J400" s="2">
         <v>0.0</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="I401" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J401" s="2">
         <v>0.0</v>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="I402" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J402" s="2">
         <v>0.0</v>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="I403" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J403" s="2">
         <v>0.0</v>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="I404" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J404" s="2">
         <v>0.0</v>
@@ -11370,7 +11370,7 @@
       </c>
       <c r="I405" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J405" s="2">
         <v>0.0</v>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="I407" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J407" s="2">
         <v>0.0</v>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="I408" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J408" s="2">
         <v>0.0</v>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="I409" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J409" s="2">
         <v>0.0</v>

--- a/pythonproject/src/realtime.xlsx
+++ b/pythonproject/src/realtime.xlsx
@@ -438,95 +438,92 @@
       <c r="H2" s="2">
         <v>4.0</v>
       </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I409" si="1">SWITCH(B2, 
+      <c r="I2" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>4347.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45925.33881944444</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20.41334</v>
+      </c>
+      <c r="F3" s="2">
+        <v>81.07116</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>4348.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45925.33930555556</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20.41342</v>
+      </c>
+      <c r="F4" s="2">
+        <v>81.07114</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4369.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45925.348125</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20.41322</v>
+      </c>
+      <c r="F5" s="2">
+        <v>81.07129</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I409" si="1">SWITCH(B5, 
  "D9", CHOOSE(RANDBETWEEN(1,3), 10,15,30),
  "D8", CHOOSE(RANDBETWEEN(1,3), 10,15,20),
  "")
 </f>
         <v>15</v>
       </c>
-      <c r="J2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>4347.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45925.33881944444</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20.41334</v>
-      </c>
-      <c r="F3" s="2">
-        <v>81.07116</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>4348.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45925.33930555556</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20.41342</v>
-      </c>
-      <c r="F4" s="2">
-        <v>81.07114</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4369.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45925.348125</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20.41322</v>
-      </c>
-      <c r="F5" s="2">
-        <v>81.07129</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="J5" s="2">
         <v>10.0</v>
       </c>
@@ -579,7 +576,7 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2">
         <v>10.0</v>
@@ -606,7 +603,7 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
         <v>10.0</v>
@@ -633,7 +630,7 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2">
         <v>10.0</v>
@@ -660,7 +657,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2">
         <v>10.0</v>
@@ -714,7 +711,7 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2">
         <v>0.0</v>
@@ -741,7 +738,7 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2">
         <v>0.0</v>
@@ -822,7 +819,7 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2">
         <v>0.0</v>
@@ -849,7 +846,7 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
         <v>0.0</v>
@@ -930,7 +927,7 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2">
         <v>0.0</v>
@@ -957,7 +954,7 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2">
         <v>0.0</v>
@@ -984,7 +981,7 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J22" s="2">
         <v>0.0</v>
@@ -1011,7 +1008,7 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2">
         <v>0.0</v>
@@ -1065,7 +1062,7 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J25" s="2">
         <v>0.0</v>
@@ -1092,7 +1089,7 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2">
         <v>0.0</v>
@@ -1146,7 +1143,7 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2">
         <v>0.0</v>
@@ -1227,7 +1224,7 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
         <v>0.0</v>
@@ -1254,7 +1251,7 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J32" s="2">
         <v>0.0</v>
@@ -1281,7 +1278,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J33" s="2">
         <v>0.0</v>
@@ -1308,7 +1305,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J34" s="2">
         <v>0.0</v>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J36" s="2">
         <v>0.0</v>
@@ -1389,7 +1386,7 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2">
         <v>0.0</v>
@@ -1416,7 +1413,7 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J38" s="2">
         <v>0.0</v>
@@ -1443,7 +1440,7 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J39" s="2">
         <v>0.0</v>
@@ -1470,7 +1467,7 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J40" s="2">
         <v>0.0</v>
@@ -1497,7 +1494,7 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J41" s="2">
         <v>0.0</v>
@@ -1551,7 +1548,7 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J43" s="2">
         <v>0.0</v>
@@ -1605,7 +1602,7 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J45" s="2">
         <v>0.0</v>
@@ -1659,7 +1656,7 @@
       </c>
       <c r="I47" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J47" s="2">
         <v>0.0</v>
@@ -1713,7 +1710,7 @@
       </c>
       <c r="I49" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J49" s="2">
         <v>0.0</v>
@@ -1767,7 +1764,7 @@
       </c>
       <c r="I51" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J51" s="2">
         <v>0.0</v>
@@ -1794,7 +1791,7 @@
       </c>
       <c r="I52" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J52" s="2">
         <v>0.0</v>
@@ -1875,7 +1872,7 @@
       </c>
       <c r="I55" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J55" s="2">
         <v>0.0</v>
@@ -1902,7 +1899,7 @@
       </c>
       <c r="I56" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J56" s="2">
         <v>0.0</v>
@@ -1929,7 +1926,7 @@
       </c>
       <c r="I57" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J57" s="2">
         <v>0.0</v>
@@ -1956,7 +1953,7 @@
       </c>
       <c r="I58" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J58" s="2">
         <v>0.0</v>
@@ -2010,7 +2007,7 @@
       </c>
       <c r="I60" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J60" s="2">
         <v>0.0</v>
@@ -2064,7 +2061,7 @@
       </c>
       <c r="I62" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J62" s="2">
         <v>0.0</v>
@@ -2091,7 +2088,7 @@
       </c>
       <c r="I63" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J63" s="2">
         <v>0.0</v>
@@ -2145,7 +2142,7 @@
       </c>
       <c r="I65" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J65" s="2">
         <v>0.0</v>
@@ -2172,7 +2169,7 @@
       </c>
       <c r="I66" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J66" s="2">
         <v>0.0</v>
@@ -2199,7 +2196,7 @@
       </c>
       <c r="I67" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J67" s="2">
         <v>0.0</v>
@@ -2226,7 +2223,7 @@
       </c>
       <c r="I68" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J68" s="2">
         <v>0.0</v>
@@ -2253,7 +2250,7 @@
       </c>
       <c r="I69" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J69" s="2">
         <v>0.0</v>
@@ -2280,7 +2277,7 @@
       </c>
       <c r="I70" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J70" s="2">
         <v>0.0</v>
@@ -2307,7 +2304,7 @@
       </c>
       <c r="I71" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J71" s="2">
         <v>0.0</v>
@@ -2334,7 +2331,7 @@
       </c>
       <c r="I72" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J72" s="2">
         <v>0.0</v>
@@ -2361,7 +2358,7 @@
       </c>
       <c r="I73" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J73" s="2">
         <v>0.0</v>
@@ -2415,7 +2412,7 @@
       </c>
       <c r="I75" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J75" s="2">
         <v>0.0</v>
@@ -2442,7 +2439,7 @@
       </c>
       <c r="I76" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J76" s="2">
         <v>0.0</v>
@@ -2496,7 +2493,7 @@
       </c>
       <c r="I78" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J78" s="2">
         <v>0.0</v>
@@ -2550,7 +2547,7 @@
       </c>
       <c r="I80" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J80" s="2">
         <v>0.0</v>
@@ -2577,7 +2574,7 @@
       </c>
       <c r="I81" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J81" s="2">
         <v>0.0</v>
@@ -2604,7 +2601,7 @@
       </c>
       <c r="I82" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J82" s="2">
         <v>0.0</v>
@@ -2631,7 +2628,7 @@
       </c>
       <c r="I83" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J83" s="2">
         <v>0.0</v>
@@ -2658,7 +2655,7 @@
       </c>
       <c r="I84" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J84" s="2">
         <v>0.0</v>
@@ -2712,7 +2709,7 @@
       </c>
       <c r="I86" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J86" s="2">
         <v>0.0</v>
@@ -2739,7 +2736,7 @@
       </c>
       <c r="I87" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J87" s="2">
         <v>0.0</v>
@@ -2766,7 +2763,7 @@
       </c>
       <c r="I88" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J88" s="2">
         <v>0.0</v>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="I90" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J90" s="2">
         <v>0.0</v>
@@ -2847,7 +2844,7 @@
       </c>
       <c r="I91" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J91" s="2">
         <v>20.0</v>
@@ -2901,7 +2898,7 @@
       </c>
       <c r="I93" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J93" s="2">
         <v>0.0</v>
@@ -2928,7 +2925,7 @@
       </c>
       <c r="I94" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J94" s="2">
         <v>10.0</v>
@@ -2955,7 +2952,7 @@
       </c>
       <c r="I95" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J95" s="2">
         <v>0.0</v>
@@ -2982,7 +2979,7 @@
       </c>
       <c r="I96" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J96" s="2">
         <v>0.0</v>
@@ -3009,7 +3006,7 @@
       </c>
       <c r="I97" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J97" s="2">
         <v>0.0</v>
@@ -3090,7 +3087,7 @@
       </c>
       <c r="I100" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J100" s="2">
         <v>0.0</v>
@@ -3171,7 +3168,7 @@
       </c>
       <c r="I103" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J103" s="2">
         <v>0.0</v>
@@ -3198,7 +3195,7 @@
       </c>
       <c r="I104" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J104" s="2">
         <v>10.0</v>
@@ -3225,7 +3222,7 @@
       </c>
       <c r="I105" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J105" s="2">
         <v>0.0</v>
@@ -3252,7 +3249,7 @@
       </c>
       <c r="I106" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J106" s="2">
         <v>0.0</v>
@@ -3333,7 +3330,7 @@
       </c>
       <c r="I109" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J109" s="2">
         <v>10.0</v>
@@ -3360,7 +3357,7 @@
       </c>
       <c r="I110" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J110" s="2">
         <v>10.0</v>
@@ -3414,7 +3411,7 @@
       </c>
       <c r="I112" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J112" s="2">
         <v>10.0</v>
@@ -3441,7 +3438,7 @@
       </c>
       <c r="I113" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J113" s="2">
         <v>0.0</v>
@@ -3468,7 +3465,7 @@
       </c>
       <c r="I114" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J114" s="2">
         <v>10.0</v>
@@ -3495,7 +3492,7 @@
       </c>
       <c r="I115" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J115" s="2">
         <v>0.0</v>
@@ -3576,7 +3573,7 @@
       </c>
       <c r="I118" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J118" s="2">
         <v>10.0</v>
@@ -3603,7 +3600,7 @@
       </c>
       <c r="I119" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J119" s="2">
         <v>10.0</v>
@@ -3630,7 +3627,7 @@
       </c>
       <c r="I120" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J120" s="2">
         <v>10.0</v>
@@ -3657,7 +3654,7 @@
       </c>
       <c r="I121" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J121" s="2">
         <v>10.0</v>
@@ -3684,7 +3681,7 @@
       </c>
       <c r="I122" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J122" s="2">
         <v>10.0</v>
@@ -3711,7 +3708,7 @@
       </c>
       <c r="I123" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J123" s="2">
         <v>10.0</v>
@@ -3765,7 +3762,7 @@
       </c>
       <c r="I125" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J125" s="2">
         <v>10.0</v>
@@ -3819,7 +3816,7 @@
       </c>
       <c r="I127" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J127" s="2">
         <v>10.0</v>
@@ -3846,7 +3843,7 @@
       </c>
       <c r="I128" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J128" s="2">
         <v>10.0</v>
@@ -3873,7 +3870,7 @@
       </c>
       <c r="I129" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J129" s="2">
         <v>10.0</v>
@@ -3927,7 +3924,7 @@
       </c>
       <c r="I131" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J131" s="2">
         <v>10.0</v>
@@ -3954,7 +3951,7 @@
       </c>
       <c r="I132" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J132" s="2">
         <v>10.0</v>
@@ -4089,7 +4086,7 @@
       </c>
       <c r="I137" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J137" s="2">
         <v>10.0</v>
@@ -4143,7 +4140,7 @@
       </c>
       <c r="I139" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J139" s="2">
         <v>0.0</v>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="I141" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J141" s="2">
         <v>20.0</v>
@@ -4284,7 +4281,7 @@
       </c>
       <c r="I143" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J143" s="2">
         <v>20.0</v>
@@ -4320,7 +4317,7 @@
       </c>
       <c r="I144" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J144" s="2">
         <v>20.0</v>
@@ -4431,7 +4428,7 @@
       </c>
       <c r="I148" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J148" s="2">
         <v>10.0</v>
@@ -4458,7 +4455,7 @@
       </c>
       <c r="I149" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J149" s="2">
         <v>0.0</v>
@@ -4485,7 +4482,7 @@
       </c>
       <c r="I150" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J150" s="2">
         <v>0.0</v>
@@ -4539,7 +4536,7 @@
       </c>
       <c r="I152" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J152" s="2">
         <v>10.0</v>
@@ -4566,7 +4563,7 @@
       </c>
       <c r="I153" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J153" s="2">
         <v>0.0</v>
@@ -4593,7 +4590,7 @@
       </c>
       <c r="I154" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J154" s="2">
         <v>10.0</v>
@@ -4674,7 +4671,7 @@
       </c>
       <c r="I157" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J157" s="2">
         <v>0.0</v>
@@ -4701,7 +4698,7 @@
       </c>
       <c r="I158" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J158" s="2">
         <v>0.0</v>
@@ -4728,7 +4725,7 @@
       </c>
       <c r="I159" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J159" s="2">
         <v>0.0</v>
@@ -4782,7 +4779,7 @@
       </c>
       <c r="I161" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J161" s="2">
         <v>0.0</v>
@@ -4809,7 +4806,7 @@
       </c>
       <c r="I162" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J162" s="2">
         <v>0.0</v>
@@ -4836,7 +4833,7 @@
       </c>
       <c r="I163" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J163" s="2">
         <v>0.0</v>
@@ -4890,7 +4887,7 @@
       </c>
       <c r="I165" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J165" s="2">
         <v>0.0</v>
@@ -4917,7 +4914,7 @@
       </c>
       <c r="I166" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J166" s="2">
         <v>0.0</v>
@@ -4998,7 +4995,7 @@
       </c>
       <c r="I169" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J169" s="2">
         <v>0.0</v>
@@ -5025,7 +5022,7 @@
       </c>
       <c r="I170" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J170" s="2">
         <v>0.0</v>
@@ -5052,7 +5049,7 @@
       </c>
       <c r="I171" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J171" s="2">
         <v>0.0</v>
@@ -5079,7 +5076,7 @@
       </c>
       <c r="I172" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J172" s="2">
         <v>0.0</v>
@@ -5106,7 +5103,7 @@
       </c>
       <c r="I173" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J173" s="2">
         <v>0.0</v>
@@ -5133,7 +5130,7 @@
       </c>
       <c r="I174" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J174" s="2">
         <v>0.0</v>
@@ -5160,7 +5157,7 @@
       </c>
       <c r="I175" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J175" s="2">
         <v>0.0</v>
@@ -5187,7 +5184,7 @@
       </c>
       <c r="I176" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J176" s="2">
         <v>0.0</v>
@@ -5214,7 +5211,7 @@
       </c>
       <c r="I177" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J177" s="2">
         <v>20.0</v>
@@ -5241,7 +5238,7 @@
       </c>
       <c r="I178" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J178" s="2">
         <v>0.0</v>
@@ -5295,7 +5292,7 @@
       </c>
       <c r="I180" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J180" s="2">
         <v>30.0</v>
@@ -5322,7 +5319,7 @@
       </c>
       <c r="I181" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J181" s="2">
         <v>10.0</v>
@@ -5403,7 +5400,7 @@
       </c>
       <c r="I184" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J184" s="2">
         <v>0.0</v>
@@ -5430,7 +5427,7 @@
       </c>
       <c r="I185" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J185" s="2">
         <v>0.0</v>
@@ -5457,7 +5454,7 @@
       </c>
       <c r="I186" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J186" s="2">
         <v>0.0</v>
@@ -5511,7 +5508,7 @@
       </c>
       <c r="I188" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J188" s="2">
         <v>0.0</v>
@@ -5592,7 +5589,7 @@
       </c>
       <c r="I191" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J191" s="2">
         <v>0.0</v>
@@ -5673,7 +5670,7 @@
       </c>
       <c r="I194" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J194" s="2">
         <v>0.0</v>
@@ -5700,7 +5697,7 @@
       </c>
       <c r="I195" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J195" s="2">
         <v>0.0</v>
@@ -5754,7 +5751,7 @@
       </c>
       <c r="I197" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J197" s="2">
         <v>0.0</v>
@@ -5862,7 +5859,7 @@
       </c>
       <c r="I201" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J201" s="2">
         <v>0.0</v>
@@ -5889,7 +5886,7 @@
       </c>
       <c r="I202" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J202" s="2">
         <v>0.0</v>
@@ -5970,7 +5967,7 @@
       </c>
       <c r="I205" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J205" s="2">
         <v>0.0</v>
@@ -6051,7 +6048,7 @@
       </c>
       <c r="I208" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J208" s="2">
         <v>0.0</v>
@@ -6105,7 +6102,7 @@
       </c>
       <c r="I210" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J210" s="2">
         <v>0.0</v>
@@ -6159,7 +6156,7 @@
       </c>
       <c r="I212" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J212" s="2">
         <v>0.0</v>
@@ -6213,7 +6210,7 @@
       </c>
       <c r="I214" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J214" s="2">
         <v>0.0</v>
@@ -6240,7 +6237,7 @@
       </c>
       <c r="I215" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J215" s="2">
         <v>0.0</v>
@@ -6294,7 +6291,7 @@
       </c>
       <c r="I217" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J217" s="2">
         <v>0.0</v>
@@ -6321,7 +6318,7 @@
       </c>
       <c r="I218" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J218" s="2">
         <v>0.0</v>
@@ -6348,7 +6345,7 @@
       </c>
       <c r="I219" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J219" s="2">
         <v>0.0</v>
@@ -6375,7 +6372,7 @@
       </c>
       <c r="I220" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J220" s="2">
         <v>0.0</v>
@@ -6402,7 +6399,7 @@
       </c>
       <c r="I221" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J221" s="2">
         <v>0.0</v>
@@ -6429,7 +6426,7 @@
       </c>
       <c r="I222" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J222" s="2">
         <v>20.0</v>
@@ -6456,7 +6453,7 @@
       </c>
       <c r="I223" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J223" s="2">
         <v>10.0</v>
@@ -6483,7 +6480,7 @@
       </c>
       <c r="I224" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J224" s="2">
         <v>10.0</v>
@@ -6510,7 +6507,7 @@
       </c>
       <c r="I225" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J225" s="2">
         <v>10.0</v>
@@ -6618,7 +6615,7 @@
       </c>
       <c r="I229" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J229" s="2">
         <v>10.0</v>
@@ -6645,7 +6642,7 @@
       </c>
       <c r="I230" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J230" s="2">
         <v>0.0</v>
@@ -6699,7 +6696,7 @@
       </c>
       <c r="I232" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J232" s="2">
         <v>0.0</v>
@@ -6726,7 +6723,7 @@
       </c>
       <c r="I233" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J233" s="2">
         <v>0.0</v>
@@ -6753,7 +6750,7 @@
       </c>
       <c r="I234" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J234" s="2">
         <v>10.0</v>
@@ -6780,7 +6777,7 @@
       </c>
       <c r="I235" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J235" s="2">
         <v>0.0</v>
@@ -6861,7 +6858,7 @@
       </c>
       <c r="I238" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J238" s="2">
         <v>0.0</v>
@@ -6915,7 +6912,7 @@
       </c>
       <c r="I240" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J240" s="2">
         <v>0.0</v>
@@ -6942,7 +6939,7 @@
       </c>
       <c r="I241" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J241" s="2">
         <v>0.0</v>
@@ -6969,7 +6966,7 @@
       </c>
       <c r="I242" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J242" s="2">
         <v>0.0</v>
@@ -6996,7 +6993,7 @@
       </c>
       <c r="I243" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J243" s="2">
         <v>0.0</v>
@@ -7104,7 +7101,7 @@
       </c>
       <c r="I247" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J247" s="2">
         <v>0.0</v>
@@ -7158,7 +7155,7 @@
       </c>
       <c r="I249" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J249" s="2">
         <v>20.0</v>
@@ -7185,7 +7182,7 @@
       </c>
       <c r="I250" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J250" s="2">
         <v>0.0</v>
@@ -7212,7 +7209,7 @@
       </c>
       <c r="I251" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J251" s="2">
         <v>0.0</v>
@@ -7266,7 +7263,7 @@
       </c>
       <c r="I253" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J253" s="2">
         <v>0.0</v>
@@ -7293,7 +7290,7 @@
       </c>
       <c r="I254" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J254" s="2">
         <v>0.0</v>
@@ -7320,7 +7317,7 @@
       </c>
       <c r="I255" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J255" s="2">
         <v>0.0</v>
@@ -7374,7 +7371,7 @@
       </c>
       <c r="I257" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J257" s="2">
         <v>0.0</v>
@@ -7401,7 +7398,7 @@
       </c>
       <c r="I258" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J258" s="2">
         <v>10.0</v>
@@ -7428,7 +7425,7 @@
       </c>
       <c r="I259" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J259" s="2">
         <v>0.0</v>
@@ -7455,7 +7452,7 @@
       </c>
       <c r="I260" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J260" s="2">
         <v>0.0</v>
@@ -7482,7 +7479,7 @@
       </c>
       <c r="I261" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J261" s="2">
         <v>0.0</v>
@@ -7509,7 +7506,7 @@
       </c>
       <c r="I262" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J262" s="2">
         <v>0.0</v>
@@ -7536,7 +7533,7 @@
       </c>
       <c r="I263" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J263" s="2">
         <v>0.0</v>
@@ -7590,7 +7587,7 @@
       </c>
       <c r="I265" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J265" s="2">
         <v>0.0</v>
@@ -7617,7 +7614,7 @@
       </c>
       <c r="I266" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J266" s="2">
         <v>0.0</v>
@@ -7671,7 +7668,7 @@
       </c>
       <c r="I268" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J268" s="2">
         <v>0.0</v>
@@ -7698,7 +7695,7 @@
       </c>
       <c r="I269" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J269" s="2">
         <v>10.0</v>
@@ -7752,7 +7749,7 @@
       </c>
       <c r="I271" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J271" s="2">
         <v>0.0</v>
@@ -7806,7 +7803,7 @@
       </c>
       <c r="I273" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J273" s="2">
         <v>0.0</v>
@@ -7833,7 +7830,7 @@
       </c>
       <c r="I274" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J274" s="2">
         <v>0.0</v>
@@ -7860,7 +7857,7 @@
       </c>
       <c r="I275" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J275" s="2">
         <v>0.0</v>
@@ -7887,7 +7884,7 @@
       </c>
       <c r="I276" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J276" s="2">
         <v>0.0</v>
@@ -7914,7 +7911,7 @@
       </c>
       <c r="I277" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J277" s="2">
         <v>0.0</v>
@@ -7941,7 +7938,7 @@
       </c>
       <c r="I278" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J278" s="2">
         <v>0.0</v>
@@ -7968,7 +7965,7 @@
       </c>
       <c r="I279" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J279" s="2">
         <v>10.0</v>
@@ -7995,7 +7992,7 @@
       </c>
       <c r="I280" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J280" s="2">
         <v>0.0</v>
@@ -8022,7 +8019,7 @@
       </c>
       <c r="I281" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J281" s="2">
         <v>0.0</v>
@@ -8049,7 +8046,7 @@
       </c>
       <c r="I282" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J282" s="2">
         <v>0.0</v>
@@ -8103,7 +8100,7 @@
       </c>
       <c r="I284" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J284" s="2">
         <v>0.0</v>
@@ -8157,7 +8154,7 @@
       </c>
       <c r="I286" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J286" s="2">
         <v>0.0</v>
@@ -8184,7 +8181,7 @@
       </c>
       <c r="I287" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J287" s="2">
         <v>10.0</v>
@@ -8211,7 +8208,7 @@
       </c>
       <c r="I288" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J288" s="2">
         <v>0.0</v>
@@ -8238,7 +8235,7 @@
       </c>
       <c r="I289" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J289" s="2">
         <v>0.0</v>
@@ -8265,7 +8262,7 @@
       </c>
       <c r="I290" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J290" s="2">
         <v>0.0</v>
@@ -8292,7 +8289,7 @@
       </c>
       <c r="I291" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J291" s="2">
         <v>10.0</v>
@@ -8319,7 +8316,7 @@
       </c>
       <c r="I292" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J292" s="2">
         <v>10.0</v>
@@ -8346,7 +8343,7 @@
       </c>
       <c r="I293" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J293" s="2">
         <v>10.0</v>
@@ -8373,7 +8370,7 @@
       </c>
       <c r="I294" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J294" s="2">
         <v>0.0</v>
@@ -8400,7 +8397,7 @@
       </c>
       <c r="I295" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J295" s="2">
         <v>0.0</v>
@@ -8508,7 +8505,7 @@
       </c>
       <c r="I299" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J299" s="2">
         <v>0.0</v>
@@ -8562,7 +8559,7 @@
       </c>
       <c r="I301" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J301" s="2">
         <v>0.0</v>
@@ -8589,7 +8586,7 @@
       </c>
       <c r="I302" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J302" s="2">
         <v>0.0</v>
@@ -8643,7 +8640,7 @@
       </c>
       <c r="I304" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J304" s="2">
         <v>0.0</v>
@@ -8697,7 +8694,7 @@
       </c>
       <c r="I306" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J306" s="2">
         <v>0.0</v>
@@ -8724,7 +8721,7 @@
       </c>
       <c r="I307" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J307" s="2">
         <v>0.0</v>
@@ -8832,7 +8829,7 @@
       </c>
       <c r="I311" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J311" s="2">
         <v>0.0</v>
@@ -8859,7 +8856,7 @@
       </c>
       <c r="I312" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J312" s="2">
         <v>0.0</v>
@@ -8967,7 +8964,7 @@
       </c>
       <c r="I316" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J316" s="2">
         <v>0.0</v>
@@ -9021,7 +9018,7 @@
       </c>
       <c r="I318" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J318" s="2">
         <v>0.0</v>
@@ -9048,7 +9045,7 @@
       </c>
       <c r="I319" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J319" s="2">
         <v>0.0</v>
@@ -9075,7 +9072,7 @@
       </c>
       <c r="I320" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J320" s="2">
         <v>0.0</v>
@@ -9102,7 +9099,7 @@
       </c>
       <c r="I321" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J321" s="2">
         <v>0.0</v>
@@ -9183,7 +9180,7 @@
       </c>
       <c r="I324" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J324" s="2">
         <v>0.0</v>
@@ -9210,7 +9207,7 @@
       </c>
       <c r="I325" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J325" s="2">
         <v>0.0</v>
@@ -9264,7 +9261,7 @@
       </c>
       <c r="I327" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J327" s="2">
         <v>0.0</v>
@@ -9291,7 +9288,7 @@
       </c>
       <c r="I328" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J328" s="2">
         <v>0.0</v>
@@ -9318,7 +9315,7 @@
       </c>
       <c r="I329" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J329" s="2">
         <v>0.0</v>
@@ -9345,7 +9342,7 @@
       </c>
       <c r="I330" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J330" s="2">
         <v>0.0</v>
@@ -9372,7 +9369,7 @@
       </c>
       <c r="I331" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J331" s="2">
         <v>0.0</v>
@@ -9399,7 +9396,7 @@
       </c>
       <c r="I332" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J332" s="2">
         <v>0.0</v>
@@ -9426,7 +9423,7 @@
       </c>
       <c r="I333" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J333" s="2">
         <v>0.0</v>
@@ -9507,7 +9504,7 @@
       </c>
       <c r="I336" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J336" s="2">
         <v>0.0</v>
@@ -9534,7 +9531,7 @@
       </c>
       <c r="I337" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J337" s="2">
         <v>0.0</v>
@@ -9561,7 +9558,7 @@
       </c>
       <c r="I338" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J338" s="2">
         <v>0.0</v>
@@ -9588,7 +9585,7 @@
       </c>
       <c r="I339" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J339" s="2">
         <v>0.0</v>
@@ -9615,7 +9612,7 @@
       </c>
       <c r="I340" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J340" s="2">
         <v>0.0</v>
@@ -9669,7 +9666,7 @@
       </c>
       <c r="I342" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J342" s="2">
         <v>0.0</v>
@@ -9696,7 +9693,7 @@
       </c>
       <c r="I343" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J343" s="2">
         <v>0.0</v>
@@ -9723,7 +9720,7 @@
       </c>
       <c r="I344" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J344" s="2">
         <v>0.0</v>
@@ -9750,7 +9747,7 @@
       </c>
       <c r="I345" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J345" s="2">
         <v>0.0</v>
@@ -9777,7 +9774,7 @@
       </c>
       <c r="I346" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J346" s="2">
         <v>0.0</v>
@@ -9804,7 +9801,7 @@
       </c>
       <c r="I347" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J347" s="2">
         <v>0.0</v>
@@ -9912,7 +9909,7 @@
       </c>
       <c r="I351" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J351" s="2">
         <v>0.0</v>
@@ -9939,7 +9936,7 @@
       </c>
       <c r="I352" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J352" s="2">
         <v>0.0</v>
@@ -10020,7 +10017,7 @@
       </c>
       <c r="I355" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J355" s="2">
         <v>0.0</v>
@@ -10047,7 +10044,7 @@
       </c>
       <c r="I356" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J356" s="2">
         <v>0.0</v>
@@ -10074,7 +10071,7 @@
       </c>
       <c r="I357" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J357" s="2">
         <v>0.0</v>
@@ -10128,7 +10125,7 @@
       </c>
       <c r="I359" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J359" s="2">
         <v>0.0</v>
@@ -10155,7 +10152,7 @@
       </c>
       <c r="I360" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J360" s="2">
         <v>0.0</v>
@@ -10182,7 +10179,7 @@
       </c>
       <c r="I361" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J361" s="2">
         <v>0.0</v>
@@ -10236,7 +10233,7 @@
       </c>
       <c r="I363" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J363" s="2">
         <v>0.0</v>
@@ -10263,7 +10260,7 @@
       </c>
       <c r="I364" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J364" s="2">
         <v>0.0</v>
@@ -10398,7 +10395,7 @@
       </c>
       <c r="I369" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J369" s="2">
         <v>0.0</v>
@@ -10425,7 +10422,7 @@
       </c>
       <c r="I370" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J370" s="2">
         <v>0.0</v>
@@ -10452,7 +10449,7 @@
       </c>
       <c r="I371" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J371" s="2">
         <v>0.0</v>
@@ -10506,7 +10503,7 @@
       </c>
       <c r="I373" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J373" s="2">
         <v>0.0</v>
@@ -10533,7 +10530,7 @@
       </c>
       <c r="I374" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J374" s="2">
         <v>0.0</v>
@@ -10560,7 +10557,7 @@
       </c>
       <c r="I375" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J375" s="2">
         <v>0.0</v>
@@ -10641,7 +10638,7 @@
       </c>
       <c r="I378" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J378" s="2">
         <v>0.0</v>
@@ -10695,7 +10692,7 @@
       </c>
       <c r="I380" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J380" s="2">
         <v>0.0</v>
@@ -10722,7 +10719,7 @@
       </c>
       <c r="I381" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J381" s="2">
         <v>0.0</v>
@@ -10776,7 +10773,7 @@
       </c>
       <c r="I383" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J383" s="2">
         <v>0.0</v>
@@ -10803,7 +10800,7 @@
       </c>
       <c r="I384" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J384" s="2">
         <v>0.0</v>
@@ -10830,7 +10827,7 @@
       </c>
       <c r="I385" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J385" s="2">
         <v>0.0</v>
@@ -10857,7 +10854,7 @@
       </c>
       <c r="I386" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J386" s="2">
         <v>0.0</v>
@@ -10884,7 +10881,7 @@
       </c>
       <c r="I387" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J387" s="2">
         <v>0.0</v>
@@ -10938,7 +10935,7 @@
       </c>
       <c r="I389" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J389" s="2">
         <v>0.0</v>
@@ -10965,7 +10962,7 @@
       </c>
       <c r="I390" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J390" s="2">
         <v>0.0</v>
@@ -10992,7 +10989,7 @@
       </c>
       <c r="I391" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J391" s="2">
         <v>0.0</v>
@@ -11019,7 +11016,7 @@
       </c>
       <c r="I392" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J392" s="2">
         <v>0.0</v>
@@ -11046,7 +11043,7 @@
       </c>
       <c r="I393" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J393" s="2">
         <v>0.0</v>
@@ -11073,7 +11070,7 @@
       </c>
       <c r="I394" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J394" s="2">
         <v>0.0</v>
@@ -11127,7 +11124,7 @@
       </c>
       <c r="I396" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J396" s="2">
         <v>0.0</v>
@@ -11154,7 +11151,7 @@
       </c>
       <c r="I397" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J397" s="2">
         <v>0.0</v>
@@ -11181,7 +11178,7 @@
       </c>
       <c r="I398" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J398" s="2">
         <v>0.0</v>
@@ -11208,7 +11205,7 @@
       </c>
       <c r="I399" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J399" s="2">
         <v>0.0</v>
@@ -11262,7 +11259,7 @@
       </c>
       <c r="I401" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J401" s="2">
         <v>0.0</v>
@@ -11316,7 +11313,7 @@
       </c>
       <c r="I403" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J403" s="2">
         <v>0.0</v>
@@ -11370,7 +11367,7 @@
       </c>
       <c r="I405" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J405" s="2">
         <v>0.0</v>
@@ -11397,7 +11394,7 @@
       </c>
       <c r="I406" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J406" s="2">
         <v>0.0</v>
@@ -11424,7 +11421,7 @@
       </c>
       <c r="I407" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J407" s="2">
         <v>0.0</v>
@@ -11451,7 +11448,7 @@
       </c>
       <c r="I408" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J408" s="2">
         <v>0.0</v>
@@ -11478,7 +11475,7 @@
       </c>
       <c r="I409" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J409" s="2">
         <v>0.0</v>

--- a/pythonproject/src/realtime.xlsx
+++ b/pythonproject/src/realtime.xlsx
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -157,6 +157,12 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,13 +522,8 @@
       <c r="H5" s="2">
         <v>5.0</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I409" si="1">SWITCH(B5, 
- "D9", CHOOSE(RANDBETWEEN(1,3), 10,15,30),
- "D8", CHOOSE(RANDBETWEEN(1,3), 10,15,20),
- "")
-</f>
-        <v>15</v>
+      <c r="I5" s="4">
+        <v>20.0</v>
       </c>
       <c r="J5" s="2">
         <v>10.0</v>
@@ -547,9 +548,8 @@
       <c r="H6" s="2">
         <v>5.0</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I6" s="4">
+        <v>10.0</v>
       </c>
       <c r="J6" s="2">
         <v>10.0</v>
@@ -574,9 +574,8 @@
       <c r="H7" s="2">
         <v>5.0</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I7" s="4">
+        <v>15.0</v>
       </c>
       <c r="J7" s="2">
         <v>10.0</v>
@@ -601,9 +600,8 @@
       <c r="H8" s="2">
         <v>2.0</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I8" s="4">
+        <v>10.0</v>
       </c>
       <c r="J8" s="2">
         <v>10.0</v>
@@ -628,9 +626,8 @@
       <c r="H9" s="2">
         <v>2.0</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I9" s="4">
+        <v>20.0</v>
       </c>
       <c r="J9" s="2">
         <v>10.0</v>
@@ -655,9 +652,8 @@
       <c r="H10" s="2">
         <v>2.0</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I10" s="4">
+        <v>10.0</v>
       </c>
       <c r="J10" s="2">
         <v>10.0</v>
@@ -682,9 +678,8 @@
       <c r="H11" s="2">
         <v>2.0</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I11" s="4">
+        <v>20.0</v>
       </c>
       <c r="J11" s="2">
         <v>10.0</v>
@@ -709,9 +704,8 @@
       <c r="H12" s="2">
         <v>10.0</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I12" s="4">
+        <v>15.0</v>
       </c>
       <c r="J12" s="2">
         <v>0.0</v>
@@ -736,9 +730,8 @@
       <c r="H13" s="2">
         <v>3.0</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I13" s="4">
+        <v>15.0</v>
       </c>
       <c r="J13" s="2">
         <v>0.0</v>
@@ -763,9 +756,8 @@
       <c r="H14" s="2">
         <v>3.0</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I14" s="4">
+        <v>20.0</v>
       </c>
       <c r="J14" s="2">
         <v>0.0</v>
@@ -790,9 +782,8 @@
       <c r="H15" s="2">
         <v>1.0</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I15" s="4">
+        <v>10.0</v>
       </c>
       <c r="J15" s="2">
         <v>0.0</v>
@@ -817,9 +808,8 @@
       <c r="H16" s="2">
         <v>2.0</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I16" s="4">
+        <v>15.0</v>
       </c>
       <c r="J16" s="2">
         <v>0.0</v>
@@ -844,9 +834,8 @@
       <c r="H17" s="2">
         <v>3.0</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I17" s="4">
+        <v>20.0</v>
       </c>
       <c r="J17" s="2">
         <v>0.0</v>
@@ -871,9 +860,8 @@
       <c r="H18" s="2">
         <v>1.0</v>
       </c>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I18" s="4">
+        <v>10.0</v>
       </c>
       <c r="J18" s="2">
         <v>0.0</v>
@@ -898,9 +886,8 @@
       <c r="H19" s="2">
         <v>3.0</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I19" s="4">
+        <v>20.0</v>
       </c>
       <c r="J19" s="2">
         <v>0.0</v>
@@ -925,9 +912,8 @@
       <c r="H20" s="2">
         <v>2.0</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I20" s="4">
+        <v>10.0</v>
       </c>
       <c r="J20" s="2">
         <v>0.0</v>
@@ -952,9 +938,8 @@
       <c r="H21" s="2">
         <v>2.0</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I21" s="4">
+        <v>15.0</v>
       </c>
       <c r="J21" s="2">
         <v>0.0</v>
@@ -979,9 +964,8 @@
       <c r="H22" s="2">
         <v>2.0</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I22" s="4">
+        <v>10.0</v>
       </c>
       <c r="J22" s="2">
         <v>0.0</v>
@@ -1006,9 +990,8 @@
       <c r="H23" s="2">
         <v>2.0</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I23" s="4">
+        <v>15.0</v>
       </c>
       <c r="J23" s="2">
         <v>0.0</v>
@@ -1033,9 +1016,8 @@
       <c r="H24" s="2">
         <v>3.0</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I24" s="4">
+        <v>10.0</v>
       </c>
       <c r="J24" s="2">
         <v>0.0</v>
@@ -1060,9 +1042,8 @@
       <c r="H25" s="2">
         <v>1.0</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I25" s="4">
+        <v>20.0</v>
       </c>
       <c r="J25" s="2">
         <v>0.0</v>
@@ -1087,9 +1068,8 @@
       <c r="H26" s="2">
         <v>1.0</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I26" s="4">
+        <v>15.0</v>
       </c>
       <c r="J26" s="2">
         <v>0.0</v>
@@ -1114,9 +1094,8 @@
       <c r="H27" s="2">
         <v>1.0</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I27" s="4">
+        <v>10.0</v>
       </c>
       <c r="J27" s="2">
         <v>0.0</v>
@@ -1141,9 +1120,8 @@
       <c r="H28" s="2">
         <v>1.0</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I28" s="4">
+        <v>20.0</v>
       </c>
       <c r="J28" s="2">
         <v>0.0</v>
@@ -1168,9 +1146,8 @@
       <c r="H29" s="2">
         <v>1.0</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I29" s="4">
+        <v>30.0</v>
       </c>
       <c r="J29" s="2">
         <v>0.0</v>
@@ -1195,9 +1172,8 @@
       <c r="H30" s="2">
         <v>1.0</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I30" s="4">
+        <v>10.0</v>
       </c>
       <c r="J30" s="2">
         <v>0.0</v>
@@ -1222,9 +1198,8 @@
       <c r="H31" s="2">
         <v>1.0</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I31" s="4">
+        <v>30.0</v>
       </c>
       <c r="J31" s="2">
         <v>0.0</v>
@@ -1249,9 +1224,8 @@
       <c r="H32" s="2">
         <v>1.0</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I32" s="4">
+        <v>10.0</v>
       </c>
       <c r="J32" s="2">
         <v>0.0</v>
@@ -1276,9 +1250,8 @@
       <c r="H33" s="2">
         <v>1.0</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I33" s="4">
+        <v>15.0</v>
       </c>
       <c r="J33" s="2">
         <v>0.0</v>
@@ -1303,9 +1276,8 @@
       <c r="H34" s="2">
         <v>1.0</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I34" s="4">
+        <v>15.0</v>
       </c>
       <c r="J34" s="2">
         <v>0.0</v>
@@ -1330,9 +1302,8 @@
       <c r="H35" s="2">
         <v>1.0</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I35" s="4">
+        <v>20.0</v>
       </c>
       <c r="J35" s="2">
         <v>0.0</v>
@@ -1357,9 +1328,8 @@
       <c r="H36" s="2">
         <v>1.0</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I36" s="4">
+        <v>10.0</v>
       </c>
       <c r="J36" s="2">
         <v>0.0</v>
@@ -1384,9 +1354,8 @@
       <c r="H37" s="2">
         <v>1.0</v>
       </c>
-      <c r="I37" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I37" s="4">
+        <v>10.0</v>
       </c>
       <c r="J37" s="2">
         <v>0.0</v>
@@ -1411,9 +1380,8 @@
       <c r="H38" s="2">
         <v>1.0</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I38" s="4">
+        <v>20.0</v>
       </c>
       <c r="J38" s="2">
         <v>0.0</v>
@@ -1438,9 +1406,8 @@
       <c r="H39" s="2">
         <v>1.0</v>
       </c>
-      <c r="I39" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I39" s="4">
+        <v>30.0</v>
       </c>
       <c r="J39" s="2">
         <v>0.0</v>
@@ -1465,9 +1432,8 @@
       <c r="H40" s="2">
         <v>1.0</v>
       </c>
-      <c r="I40" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I40" s="4">
+        <v>10.0</v>
       </c>
       <c r="J40" s="2">
         <v>0.0</v>
@@ -1492,9 +1458,8 @@
       <c r="H41" s="2">
         <v>1.0</v>
       </c>
-      <c r="I41" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I41" s="4">
+        <v>15.0</v>
       </c>
       <c r="J41" s="2">
         <v>0.0</v>
@@ -1519,9 +1484,8 @@
       <c r="H42" s="2">
         <v>1.0</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I42" s="4">
+        <v>20.0</v>
       </c>
       <c r="J42" s="2">
         <v>0.0</v>
@@ -1546,9 +1510,8 @@
       <c r="H43" s="2">
         <v>1.0</v>
       </c>
-      <c r="I43" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I43" s="4">
+        <v>10.0</v>
       </c>
       <c r="J43" s="2">
         <v>0.0</v>
@@ -1573,9 +1536,8 @@
       <c r="H44" s="2">
         <v>1.0</v>
       </c>
-      <c r="I44" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I44" s="4">
+        <v>10.0</v>
       </c>
       <c r="J44" s="2">
         <v>0.0</v>
@@ -1600,9 +1562,8 @@
       <c r="H45" s="2">
         <v>2.0</v>
       </c>
-      <c r="I45" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I45" s="4">
+        <v>15.0</v>
       </c>
       <c r="J45" s="2">
         <v>0.0</v>
@@ -1627,9 +1588,8 @@
       <c r="H46" s="2">
         <v>1.0</v>
       </c>
-      <c r="I46" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I46" s="4">
+        <v>20.0</v>
       </c>
       <c r="J46" s="2">
         <v>0.0</v>
@@ -1654,9 +1614,8 @@
       <c r="H47" s="2">
         <v>2.0</v>
       </c>
-      <c r="I47" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I47" s="4">
+        <v>10.0</v>
       </c>
       <c r="J47" s="2">
         <v>0.0</v>
@@ -1681,9 +1640,8 @@
       <c r="H48" s="2">
         <v>1.0</v>
       </c>
-      <c r="I48" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I48" s="4">
+        <v>10.0</v>
       </c>
       <c r="J48" s="2">
         <v>0.0</v>
@@ -1708,9 +1666,8 @@
       <c r="H49" s="2">
         <v>1.0</v>
       </c>
-      <c r="I49" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I49" s="4">
+        <v>15.0</v>
       </c>
       <c r="J49" s="2">
         <v>0.0</v>
@@ -1735,9 +1692,8 @@
       <c r="H50" s="2">
         <v>1.0</v>
       </c>
-      <c r="I50" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I50" s="4">
+        <v>15.0</v>
       </c>
       <c r="J50" s="2">
         <v>0.0</v>
@@ -1762,9 +1718,8 @@
       <c r="H51" s="2">
         <v>1.0</v>
       </c>
-      <c r="I51" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I51" s="4">
+        <v>15.0</v>
       </c>
       <c r="J51" s="2">
         <v>0.0</v>
@@ -1789,9 +1744,8 @@
       <c r="H52" s="2">
         <v>1.0</v>
       </c>
-      <c r="I52" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I52" s="4">
+        <v>15.0</v>
       </c>
       <c r="J52" s="2">
         <v>0.0</v>
@@ -1816,9 +1770,8 @@
       <c r="H53" s="2">
         <v>1.0</v>
       </c>
-      <c r="I53" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I53" s="4">
+        <v>15.0</v>
       </c>
       <c r="J53" s="2">
         <v>0.0</v>
@@ -1843,9 +1796,8 @@
       <c r="H54" s="2">
         <v>1.0</v>
       </c>
-      <c r="I54" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I54" s="4">
+        <v>20.0</v>
       </c>
       <c r="J54" s="2">
         <v>0.0</v>
@@ -1870,9 +1822,8 @@
       <c r="H55" s="2">
         <v>1.0</v>
       </c>
-      <c r="I55" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I55" s="4">
+        <v>20.0</v>
       </c>
       <c r="J55" s="2">
         <v>0.0</v>
@@ -1897,9 +1848,8 @@
       <c r="H56" s="2">
         <v>1.0</v>
       </c>
-      <c r="I56" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I56" s="4">
+        <v>20.0</v>
       </c>
       <c r="J56" s="2">
         <v>0.0</v>
@@ -1924,9 +1874,8 @@
       <c r="H57" s="2">
         <v>1.0</v>
       </c>
-      <c r="I57" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I57" s="4">
+        <v>20.0</v>
       </c>
       <c r="J57" s="2">
         <v>0.0</v>
@@ -1951,9 +1900,8 @@
       <c r="H58" s="2">
         <v>1.0</v>
       </c>
-      <c r="I58" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I58" s="4">
+        <v>20.0</v>
       </c>
       <c r="J58" s="2">
         <v>0.0</v>
@@ -1978,9 +1926,8 @@
       <c r="H59" s="2">
         <v>1.0</v>
       </c>
-      <c r="I59" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I59" s="4">
+        <v>10.0</v>
       </c>
       <c r="J59" s="2">
         <v>0.0</v>
@@ -2005,9 +1952,8 @@
       <c r="H60" s="2">
         <v>1.0</v>
       </c>
-      <c r="I60" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I60" s="4">
+        <v>10.0</v>
       </c>
       <c r="J60" s="2">
         <v>0.0</v>
@@ -2032,9 +1978,8 @@
       <c r="H61" s="2">
         <v>1.0</v>
       </c>
-      <c r="I61" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I61" s="4">
+        <v>10.0</v>
       </c>
       <c r="J61" s="2">
         <v>0.0</v>
@@ -2059,9 +2004,8 @@
       <c r="H62" s="2">
         <v>1.0</v>
       </c>
-      <c r="I62" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I62" s="4">
+        <v>15.0</v>
       </c>
       <c r="J62" s="2">
         <v>0.0</v>
@@ -2086,9 +2030,8 @@
       <c r="H63" s="2">
         <v>1.0</v>
       </c>
-      <c r="I63" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I63" s="4">
+        <v>15.0</v>
       </c>
       <c r="J63" s="2">
         <v>0.0</v>
@@ -2113,9 +2056,8 @@
       <c r="H64" s="2">
         <v>1.0</v>
       </c>
-      <c r="I64" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I64" s="4">
+        <v>15.0</v>
       </c>
       <c r="J64" s="2">
         <v>0.0</v>
@@ -2140,9 +2082,8 @@
       <c r="H65" s="2">
         <v>1.0</v>
       </c>
-      <c r="I65" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I65" s="4">
+        <v>30.0</v>
       </c>
       <c r="J65" s="2">
         <v>0.0</v>
@@ -2167,9 +2108,8 @@
       <c r="H66" s="2">
         <v>1.0</v>
       </c>
-      <c r="I66" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I66" s="4">
+        <v>30.0</v>
       </c>
       <c r="J66" s="2">
         <v>0.0</v>
@@ -2194,9 +2134,8 @@
       <c r="H67" s="2">
         <v>1.0</v>
       </c>
-      <c r="I67" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I67" s="4">
+        <v>30.0</v>
       </c>
       <c r="J67" s="2">
         <v>0.0</v>
@@ -2221,9 +2160,8 @@
       <c r="H68" s="2">
         <v>1.0</v>
       </c>
-      <c r="I68" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I68" s="4">
+        <v>30.0</v>
       </c>
       <c r="J68" s="2">
         <v>0.0</v>
@@ -2248,9 +2186,8 @@
       <c r="H69" s="2">
         <v>2.0</v>
       </c>
-      <c r="I69" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I69" s="4">
+        <v>30.0</v>
       </c>
       <c r="J69" s="2">
         <v>0.0</v>
@@ -2275,9 +2212,8 @@
       <c r="H70" s="2">
         <v>1.0</v>
       </c>
-      <c r="I70" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I70" s="4">
+        <v>10.0</v>
       </c>
       <c r="J70" s="2">
         <v>0.0</v>
@@ -2302,9 +2238,8 @@
       <c r="H71" s="2">
         <v>2.0</v>
       </c>
-      <c r="I71" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I71" s="4">
+        <v>10.0</v>
       </c>
       <c r="J71" s="2">
         <v>0.0</v>
@@ -2329,9 +2264,8 @@
       <c r="H72" s="2">
         <v>1.0</v>
       </c>
-      <c r="I72" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I72" s="4">
+        <v>10.0</v>
       </c>
       <c r="J72" s="2">
         <v>0.0</v>
@@ -2356,9 +2290,8 @@
       <c r="H73" s="2">
         <v>1.0</v>
       </c>
-      <c r="I73" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I73" s="4">
+        <v>15.0</v>
       </c>
       <c r="J73" s="2">
         <v>0.0</v>
@@ -2383,9 +2316,8 @@
       <c r="H74" s="2">
         <v>1.0</v>
       </c>
-      <c r="I74" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I74" s="4">
+        <v>15.0</v>
       </c>
       <c r="J74" s="2">
         <v>0.0</v>
@@ -2410,9 +2342,8 @@
       <c r="H75" s="2">
         <v>1.0</v>
       </c>
-      <c r="I75" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I75" s="4">
+        <v>15.0</v>
       </c>
       <c r="J75" s="2">
         <v>0.0</v>
@@ -2437,9 +2368,8 @@
       <c r="H76" s="2">
         <v>1.0</v>
       </c>
-      <c r="I76" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I76" s="4">
+        <v>15.0</v>
       </c>
       <c r="J76" s="2">
         <v>0.0</v>
@@ -2464,9 +2394,8 @@
       <c r="H77" s="2">
         <v>1.0</v>
       </c>
-      <c r="I77" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I77" s="4">
+        <v>10.0</v>
       </c>
       <c r="J77" s="2">
         <v>0.0</v>
@@ -2491,9 +2420,8 @@
       <c r="H78" s="2">
         <v>1.0</v>
       </c>
-      <c r="I78" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I78" s="4">
+        <v>10.0</v>
       </c>
       <c r="J78" s="2">
         <v>0.0</v>
@@ -2518,9 +2446,8 @@
       <c r="H79" s="2">
         <v>1.0</v>
       </c>
-      <c r="I79" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I79" s="4">
+        <v>30.0</v>
       </c>
       <c r="J79" s="2">
         <v>0.0</v>
@@ -2545,9 +2472,8 @@
       <c r="H80" s="2">
         <v>1.0</v>
       </c>
-      <c r="I80" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I80" s="4">
+        <v>30.0</v>
       </c>
       <c r="J80" s="2">
         <v>0.0</v>
@@ -2572,9 +2498,8 @@
       <c r="H81" s="2">
         <v>1.0</v>
       </c>
-      <c r="I81" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I81" s="4">
+        <v>20.0</v>
       </c>
       <c r="J81" s="2">
         <v>0.0</v>
@@ -2599,9 +2524,8 @@
       <c r="H82" s="2">
         <v>1.0</v>
       </c>
-      <c r="I82" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I82" s="4">
+        <v>20.0</v>
       </c>
       <c r="J82" s="2">
         <v>0.0</v>
@@ -2626,9 +2550,8 @@
       <c r="H83" s="2">
         <v>1.0</v>
       </c>
-      <c r="I83" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I83" s="4">
+        <v>20.0</v>
       </c>
       <c r="J83" s="2">
         <v>0.0</v>
@@ -2653,9 +2576,8 @@
       <c r="H84" s="2">
         <v>1.0</v>
       </c>
-      <c r="I84" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I84" s="4">
+        <v>20.0</v>
       </c>
       <c r="J84" s="2">
         <v>0.0</v>
@@ -2680,9 +2602,8 @@
       <c r="H85" s="2">
         <v>1.0</v>
       </c>
-      <c r="I85" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I85" s="4">
+        <v>15.0</v>
       </c>
       <c r="J85" s="2">
         <v>0.0</v>
@@ -2707,9 +2628,8 @@
       <c r="H86" s="2">
         <v>1.0</v>
       </c>
-      <c r="I86" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I86" s="4">
+        <v>15.0</v>
       </c>
       <c r="J86" s="2">
         <v>0.0</v>
@@ -2734,9 +2654,8 @@
       <c r="H87" s="2">
         <v>2.0</v>
       </c>
-      <c r="I87" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I87" s="4">
+        <v>15.0</v>
       </c>
       <c r="J87" s="2">
         <v>0.0</v>
@@ -2761,9 +2680,8 @@
       <c r="H88" s="2">
         <v>1.0</v>
       </c>
-      <c r="I88" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I88" s="4">
+        <v>10.0</v>
       </c>
       <c r="J88" s="2">
         <v>0.0</v>
@@ -2788,9 +2706,8 @@
       <c r="H89" s="2">
         <v>1.0</v>
       </c>
-      <c r="I89" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I89" s="4">
+        <v>10.0</v>
       </c>
       <c r="J89" s="2">
         <v>10.0</v>
@@ -2815,9 +2732,8 @@
       <c r="H90" s="2">
         <v>1.0</v>
       </c>
-      <c r="I90" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I90" s="4">
+        <v>10.0</v>
       </c>
       <c r="J90" s="2">
         <v>0.0</v>
@@ -2842,9 +2758,8 @@
       <c r="H91" s="2">
         <v>2.0</v>
       </c>
-      <c r="I91" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I91" s="4">
+        <v>20.0</v>
       </c>
       <c r="J91" s="2">
         <v>20.0</v>
@@ -2869,9 +2784,8 @@
       <c r="H92" s="2">
         <v>1.0</v>
       </c>
-      <c r="I92" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I92" s="4">
+        <v>15.0</v>
       </c>
       <c r="J92" s="2">
         <v>20.0</v>
@@ -2896,9 +2810,8 @@
       <c r="H93" s="2">
         <v>1.0</v>
       </c>
-      <c r="I93" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I93" s="4">
+        <v>10.0</v>
       </c>
       <c r="J93" s="2">
         <v>0.0</v>
@@ -2923,12 +2836,11 @@
       <c r="H94" s="2">
         <v>1.0</v>
       </c>
-      <c r="I94" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I94" s="4">
+        <v>10.0</v>
       </c>
       <c r="J94" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -2948,11 +2860,10 @@
         <v>81.06404</v>
       </c>
       <c r="H95" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I95" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>1.0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>20.0</v>
       </c>
       <c r="J95" s="2">
         <v>0.0</v>
@@ -2977,9 +2888,8 @@
       <c r="H96" s="2">
         <v>1.0</v>
       </c>
-      <c r="I96" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I96" s="4">
+        <v>30.0</v>
       </c>
       <c r="J96" s="2">
         <v>0.0</v>
@@ -3004,9 +2914,8 @@
       <c r="H97" s="2">
         <v>1.0</v>
       </c>
-      <c r="I97" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I97" s="4">
+        <v>10.0</v>
       </c>
       <c r="J97" s="2">
         <v>0.0</v>
@@ -3031,9 +2940,8 @@
       <c r="H98" s="2">
         <v>1.0</v>
       </c>
-      <c r="I98" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I98" s="4">
+        <v>15.0</v>
       </c>
       <c r="J98" s="2">
         <v>0.0</v>
@@ -3056,11 +2964,10 @@
         <v>81.06396</v>
       </c>
       <c r="H99" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I99" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1.0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>20.0</v>
       </c>
       <c r="J99" s="2">
         <v>0.0</v>
@@ -3085,9 +2992,8 @@
       <c r="H100" s="2">
         <v>1.0</v>
       </c>
-      <c r="I100" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I100" s="4">
+        <v>10.0</v>
       </c>
       <c r="J100" s="2">
         <v>0.0</v>
@@ -3112,9 +3018,8 @@
       <c r="H101" s="2">
         <v>1.0</v>
       </c>
-      <c r="I101" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I101" s="4">
+        <v>10.0</v>
       </c>
       <c r="J101" s="2">
         <v>0.0</v>
@@ -3137,11 +3042,10 @@
         <v>81.06422</v>
       </c>
       <c r="H102" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I102" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>15.0</v>
       </c>
       <c r="J102" s="2">
         <v>0.0</v>
@@ -3164,11 +3068,10 @@
         <v>81.06422</v>
       </c>
       <c r="H103" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I103" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>1.0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>10.0</v>
       </c>
       <c r="J103" s="2">
         <v>0.0</v>
@@ -3191,14 +3094,13 @@
         <v>81.06421</v>
       </c>
       <c r="H104" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I104" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>1.0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>20.0</v>
       </c>
       <c r="J104" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -3220,9 +3122,8 @@
       <c r="H105" s="2">
         <v>1.0</v>
       </c>
-      <c r="I105" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I105" s="4">
+        <v>30.0</v>
       </c>
       <c r="J105" s="2">
         <v>0.0</v>
@@ -3247,9 +3148,8 @@
       <c r="H106" s="2">
         <v>1.0</v>
       </c>
-      <c r="I106" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I106" s="4">
+        <v>10.0</v>
       </c>
       <c r="J106" s="2">
         <v>0.0</v>
@@ -3274,12 +3174,11 @@
       <c r="H107" s="2">
         <v>1.0</v>
       </c>
-      <c r="I107" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I107" s="4">
+        <v>15.0</v>
       </c>
       <c r="J107" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
@@ -3301,9 +3200,8 @@
       <c r="H108" s="2">
         <v>1.0</v>
       </c>
-      <c r="I108" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I108" s="4">
+        <v>20.0</v>
       </c>
       <c r="J108" s="2">
         <v>0.0</v>
@@ -3328,12 +3226,11 @@
       <c r="H109" s="2">
         <v>1.0</v>
       </c>
-      <c r="I109" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I109" s="4">
+        <v>10.0</v>
       </c>
       <c r="J109" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -3355,12 +3252,11 @@
       <c r="H110" s="2">
         <v>1.0</v>
       </c>
-      <c r="I110" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I110" s="4">
+        <v>10.0</v>
       </c>
       <c r="J110" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -3380,14 +3276,13 @@
         <v>81.06559</v>
       </c>
       <c r="H111" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I111" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>15.0</v>
       </c>
       <c r="J111" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -3409,12 +3304,11 @@
       <c r="H112" s="2">
         <v>1.0</v>
       </c>
-      <c r="I112" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I112" s="4">
+        <v>20.0</v>
       </c>
       <c r="J112" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -3434,11 +3328,10 @@
         <v>81.06679</v>
       </c>
       <c r="H113" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I113" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>10.0</v>
       </c>
       <c r="J113" s="2">
         <v>0.0</v>
@@ -3461,11 +3354,10 @@
         <v>81.06697</v>
       </c>
       <c r="H114" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I114" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I114" s="4">
+        <v>15.0</v>
       </c>
       <c r="J114" s="2">
         <v>10.0</v>
@@ -3488,11 +3380,10 @@
         <v>81.06699</v>
       </c>
       <c r="H115" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I115" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3.0</v>
+      </c>
+      <c r="I115" s="4">
+        <v>20.0</v>
       </c>
       <c r="J115" s="2">
         <v>0.0</v>
@@ -3517,9 +3408,8 @@
       <c r="H116" s="2">
         <v>1.0</v>
       </c>
-      <c r="I116" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I116" s="4">
+        <v>10.0</v>
       </c>
       <c r="J116" s="2">
         <v>10.0</v>
@@ -3542,11 +3432,10 @@
         <v>81.06634</v>
       </c>
       <c r="H117" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I117" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I117" s="4">
+        <v>20.0</v>
       </c>
       <c r="J117" s="2">
         <v>10.0</v>
@@ -3569,11 +3458,10 @@
         <v>81.06628</v>
       </c>
       <c r="H118" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I118" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I118" s="4">
+        <v>10.0</v>
       </c>
       <c r="J118" s="2">
         <v>10.0</v>
@@ -3596,11 +3484,10 @@
         <v>81.06627</v>
       </c>
       <c r="H119" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I119" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I119" s="4">
+        <v>15.0</v>
       </c>
       <c r="J119" s="2">
         <v>10.0</v>
@@ -3623,11 +3510,10 @@
         <v>81.06623</v>
       </c>
       <c r="H120" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I120" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I120" s="4">
+        <v>10.0</v>
       </c>
       <c r="J120" s="2">
         <v>10.0</v>
@@ -3650,11 +3536,10 @@
         <v>81.06626</v>
       </c>
       <c r="H121" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I121" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I121" s="4">
+        <v>15.0</v>
       </c>
       <c r="J121" s="2">
         <v>10.0</v>
@@ -3677,11 +3562,10 @@
         <v>81.06625</v>
       </c>
       <c r="H122" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I122" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I122" s="4">
+        <v>10.0</v>
       </c>
       <c r="J122" s="2">
         <v>10.0</v>
@@ -3706,9 +3590,8 @@
       <c r="H123" s="2">
         <v>1.0</v>
       </c>
-      <c r="I123" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I123" s="4">
+        <v>20.0</v>
       </c>
       <c r="J123" s="2">
         <v>10.0</v>
@@ -3733,9 +3616,8 @@
       <c r="H124" s="2">
         <v>1.0</v>
       </c>
-      <c r="I124" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I124" s="4">
+        <v>15.0</v>
       </c>
       <c r="J124" s="2">
         <v>10.0</v>
@@ -3760,9 +3642,8 @@
       <c r="H125" s="2">
         <v>1.0</v>
       </c>
-      <c r="I125" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I125" s="4">
+        <v>10.0</v>
       </c>
       <c r="J125" s="2">
         <v>10.0</v>
@@ -3787,9 +3668,8 @@
       <c r="H126" s="2">
         <v>1.0</v>
       </c>
-      <c r="I126" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I126" s="4">
+        <v>20.0</v>
       </c>
       <c r="J126" s="2">
         <v>10.0</v>
@@ -3814,9 +3694,8 @@
       <c r="H127" s="2">
         <v>1.0</v>
       </c>
-      <c r="I127" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I127" s="4">
+        <v>30.0</v>
       </c>
       <c r="J127" s="2">
         <v>10.0</v>
@@ -3839,11 +3718,10 @@
         <v>81.06622</v>
       </c>
       <c r="H128" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I128" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>15.0</v>
       </c>
       <c r="J128" s="2">
         <v>10.0</v>
@@ -3866,11 +3744,10 @@
         <v>81.06621</v>
       </c>
       <c r="H129" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I129" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3.0</v>
+      </c>
+      <c r="I129" s="4">
+        <v>20.0</v>
       </c>
       <c r="J129" s="2">
         <v>10.0</v>
@@ -3895,9 +3772,8 @@
       <c r="H130" s="2">
         <v>1.0</v>
       </c>
-      <c r="I130" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I130" s="4">
+        <v>10.0</v>
       </c>
       <c r="J130" s="2">
         <v>10.0</v>
@@ -3920,11 +3796,10 @@
         <v>81.0662</v>
       </c>
       <c r="H131" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I131" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I131" s="4">
+        <v>30.0</v>
       </c>
       <c r="J131" s="2">
         <v>10.0</v>
@@ -3947,11 +3822,10 @@
         <v>81.06623</v>
       </c>
       <c r="H132" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I132" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I132" s="4">
+        <v>10.0</v>
       </c>
       <c r="J132" s="2">
         <v>10.0</v>
@@ -3974,11 +3848,10 @@
         <v>81.06625</v>
       </c>
       <c r="H133" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I133" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I133" s="4">
+        <v>15.0</v>
       </c>
       <c r="J133" s="2">
         <v>10.0</v>
@@ -4001,11 +3874,10 @@
         <v>81.06623</v>
       </c>
       <c r="H134" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I134" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I134" s="4">
+        <v>20.0</v>
       </c>
       <c r="J134" s="2">
         <v>10.0</v>
@@ -4028,11 +3900,10 @@
         <v>81.06602</v>
       </c>
       <c r="H135" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I135" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I135" s="4">
+        <v>15.0</v>
       </c>
       <c r="J135" s="2">
         <v>10.0</v>
@@ -4055,11 +3926,10 @@
         <v>81.06606</v>
       </c>
       <c r="H136" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I136" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3.0</v>
+      </c>
+      <c r="I136" s="4">
+        <v>10.0</v>
       </c>
       <c r="J136" s="2">
         <v>10.0</v>
@@ -4084,9 +3954,8 @@
       <c r="H137" s="2">
         <v>1.0</v>
       </c>
-      <c r="I137" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I137" s="4">
+        <v>20.0</v>
       </c>
       <c r="J137" s="2">
         <v>10.0</v>
@@ -4109,11 +3978,10 @@
         <v>81.06603</v>
       </c>
       <c r="H138" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I138" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1.0</v>
+      </c>
+      <c r="I138" s="4">
+        <v>15.0</v>
       </c>
       <c r="J138" s="2">
         <v>10.0</v>
@@ -4138,9 +4006,8 @@
       <c r="H139" s="2">
         <v>1.0</v>
       </c>
-      <c r="I139" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I139" s="4">
+        <v>10.0</v>
       </c>
       <c r="J139" s="2">
         <v>0.0</v>
@@ -4169,11 +4036,10 @@
         <v>14</v>
       </c>
       <c r="H140" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I140" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1.0</v>
+      </c>
+      <c r="I140" s="4">
+        <v>20.0</v>
       </c>
       <c r="J140" s="2">
         <v>20.0</v>
@@ -4205,11 +4071,10 @@
         <v>14</v>
       </c>
       <c r="H141" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="I141" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1.0</v>
+      </c>
+      <c r="I141" s="4">
+        <v>30.0</v>
       </c>
       <c r="J141" s="2">
         <v>20.0</v>
@@ -4241,11 +4106,10 @@
         <v>19</v>
       </c>
       <c r="H142" s="2">
-        <v>-3.0</v>
-      </c>
-      <c r="I142" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I142" s="4">
+        <v>15.0</v>
       </c>
       <c r="J142" s="2">
         <v>20.0</v>
@@ -4277,11 +4141,10 @@
         <v>14</v>
       </c>
       <c r="H143" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I143" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I143" s="4">
+        <v>20.0</v>
       </c>
       <c r="J143" s="2">
         <v>20.0</v>
@@ -4315,9 +4178,8 @@
       <c r="H144" s="2">
         <v>1.0</v>
       </c>
-      <c r="I144" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I144" s="4">
+        <v>10.0</v>
       </c>
       <c r="J144" s="2">
         <v>20.0</v>
@@ -4343,11 +4205,10 @@
         <v>81.06565</v>
       </c>
       <c r="H145" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I145" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I145" s="4">
+        <v>20.0</v>
       </c>
       <c r="J145" s="2">
         <v>20.0</v>
@@ -4370,11 +4231,10 @@
         <v>81.06673</v>
       </c>
       <c r="H146" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I146" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I146" s="4">
+        <v>10.0</v>
       </c>
       <c r="J146" s="2">
         <v>0.0</v>
@@ -4397,11 +4257,10 @@
         <v>81.06766</v>
       </c>
       <c r="H147" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I147" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I147" s="4">
+        <v>15.0</v>
       </c>
       <c r="J147" s="2">
         <v>0.0</v>
@@ -4424,11 +4283,10 @@
         <v>81.06784</v>
       </c>
       <c r="H148" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I148" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I148" s="4">
+        <v>10.0</v>
       </c>
       <c r="J148" s="2">
         <v>10.0</v>
@@ -4451,11 +4309,10 @@
         <v>81.06795</v>
       </c>
       <c r="H149" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I149" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I149" s="4">
+        <v>15.0</v>
       </c>
       <c r="J149" s="2">
         <v>0.0</v>
@@ -4478,11 +4335,10 @@
         <v>81.06795</v>
       </c>
       <c r="H150" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I150" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I150" s="4">
+        <v>10.0</v>
       </c>
       <c r="J150" s="2">
         <v>0.0</v>
@@ -4507,9 +4363,8 @@
       <c r="H151" s="2">
         <v>1.0</v>
       </c>
-      <c r="I151" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I151" s="4">
+        <v>20.0</v>
       </c>
       <c r="J151" s="2">
         <v>10.0</v>
@@ -4534,9 +4389,8 @@
       <c r="H152" s="2">
         <v>1.0</v>
       </c>
-      <c r="I152" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I152" s="4">
+        <v>15.0</v>
       </c>
       <c r="J152" s="2">
         <v>10.0</v>
@@ -4561,9 +4415,8 @@
       <c r="H153" s="2">
         <v>1.0</v>
       </c>
-      <c r="I153" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I153" s="4">
+        <v>10.0</v>
       </c>
       <c r="J153" s="2">
         <v>0.0</v>
@@ -4588,9 +4441,8 @@
       <c r="H154" s="2">
         <v>1.0</v>
       </c>
-      <c r="I154" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I154" s="4">
+        <v>20.0</v>
       </c>
       <c r="J154" s="2">
         <v>10.0</v>
@@ -4615,9 +4467,8 @@
       <c r="H155" s="2">
         <v>1.0</v>
       </c>
-      <c r="I155" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I155" s="4">
+        <v>30.0</v>
       </c>
       <c r="J155" s="2">
         <v>0.0</v>
@@ -4642,9 +4493,8 @@
       <c r="H156" s="2">
         <v>1.0</v>
       </c>
-      <c r="I156" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I156" s="4">
+        <v>10.0</v>
       </c>
       <c r="J156" s="2">
         <v>0.0</v>
@@ -4667,11 +4517,10 @@
         <v>81.06815</v>
       </c>
       <c r="H157" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I157" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I157" s="4">
+        <v>15.0</v>
       </c>
       <c r="J157" s="2">
         <v>0.0</v>
@@ -4696,9 +4545,8 @@
       <c r="H158" s="2">
         <v>1.0</v>
       </c>
-      <c r="I158" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I158" s="4">
+        <v>10.0</v>
       </c>
       <c r="J158" s="2">
         <v>0.0</v>
@@ -4723,9 +4571,8 @@
       <c r="H159" s="2">
         <v>1.0</v>
       </c>
-      <c r="I159" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I159" s="4">
+        <v>20.0</v>
       </c>
       <c r="J159" s="2">
         <v>0.0</v>
@@ -4750,9 +4597,8 @@
       <c r="H160" s="2">
         <v>1.0</v>
       </c>
-      <c r="I160" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I160" s="4">
+        <v>30.0</v>
       </c>
       <c r="J160" s="2">
         <v>0.0</v>
@@ -4777,9 +4623,8 @@
       <c r="H161" s="2">
         <v>1.0</v>
       </c>
-      <c r="I161" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I161" s="4">
+        <v>10.0</v>
       </c>
       <c r="J161" s="2">
         <v>0.0</v>
@@ -4804,9 +4649,8 @@
       <c r="H162" s="2">
         <v>1.0</v>
       </c>
-      <c r="I162" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I162" s="4">
+        <v>15.0</v>
       </c>
       <c r="J162" s="2">
         <v>0.0</v>
@@ -4831,9 +4675,8 @@
       <c r="H163" s="2">
         <v>1.0</v>
       </c>
-      <c r="I163" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I163" s="4">
+        <v>20.0</v>
       </c>
       <c r="J163" s="2">
         <v>0.0</v>
@@ -4858,9 +4701,8 @@
       <c r="H164" s="2">
         <v>1.0</v>
       </c>
-      <c r="I164" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I164" s="4">
+        <v>20.0</v>
       </c>
       <c r="J164" s="2">
         <v>0.0</v>
@@ -4885,9 +4727,8 @@
       <c r="H165" s="2">
         <v>1.0</v>
       </c>
-      <c r="I165" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I165" s="4">
+        <v>15.0</v>
       </c>
       <c r="J165" s="2">
         <v>0.0</v>
@@ -4912,9 +4753,8 @@
       <c r="H166" s="2">
         <v>1.0</v>
       </c>
-      <c r="I166" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I166" s="4">
+        <v>10.0</v>
       </c>
       <c r="J166" s="2">
         <v>0.0</v>
@@ -4939,9 +4779,8 @@
       <c r="H167" s="2">
         <v>1.0</v>
       </c>
-      <c r="I167" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I167" s="4">
+        <v>20.0</v>
       </c>
       <c r="J167" s="2">
         <v>0.0</v>
@@ -4966,9 +4805,8 @@
       <c r="H168" s="2">
         <v>1.0</v>
       </c>
-      <c r="I168" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I168" s="4">
+        <v>30.0</v>
       </c>
       <c r="J168" s="2">
         <v>0.0</v>
@@ -4991,11 +4829,10 @@
         <v>81.06775</v>
       </c>
       <c r="H169" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I169" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I169" s="4">
+        <v>15.0</v>
       </c>
       <c r="J169" s="2">
         <v>0.0</v>
@@ -5018,11 +4855,10 @@
         <v>81.06807</v>
       </c>
       <c r="H170" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I170" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3.0</v>
+      </c>
+      <c r="I170" s="4">
+        <v>20.0</v>
       </c>
       <c r="J170" s="2">
         <v>0.0</v>
@@ -5047,9 +4883,8 @@
       <c r="H171" s="2">
         <v>1.0</v>
       </c>
-      <c r="I171" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I171" s="4">
+        <v>10.0</v>
       </c>
       <c r="J171" s="2">
         <v>0.0</v>
@@ -5072,11 +4907,10 @@
         <v>81.06816</v>
       </c>
       <c r="H172" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I172" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I172" s="4">
+        <v>30.0</v>
       </c>
       <c r="J172" s="2">
         <v>0.0</v>
@@ -5099,11 +4933,10 @@
         <v>81.06816</v>
       </c>
       <c r="H173" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I173" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I173" s="4">
+        <v>10.0</v>
       </c>
       <c r="J173" s="2">
         <v>0.0</v>
@@ -5126,11 +4959,10 @@
         <v>81.06825</v>
       </c>
       <c r="H174" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I174" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I174" s="4">
+        <v>15.0</v>
       </c>
       <c r="J174" s="2">
         <v>0.0</v>
@@ -5153,11 +4985,10 @@
         <v>81.06815</v>
       </c>
       <c r="H175" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I175" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I175" s="4">
+        <v>20.0</v>
       </c>
       <c r="J175" s="2">
         <v>0.0</v>
@@ -5180,11 +5011,10 @@
         <v>81.0678</v>
       </c>
       <c r="H176" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I176" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I176" s="4">
+        <v>15.0</v>
       </c>
       <c r="J176" s="2">
         <v>0.0</v>
@@ -5209,9 +5039,8 @@
       <c r="H177" s="2">
         <v>1.0</v>
       </c>
-      <c r="I177" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I177" s="4">
+        <v>20.0</v>
       </c>
       <c r="J177" s="2">
         <v>20.0</v>
@@ -5236,9 +5065,8 @@
       <c r="H178" s="2">
         <v>1.0</v>
       </c>
-      <c r="I178" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I178" s="4">
+        <v>15.0</v>
       </c>
       <c r="J178" s="2">
         <v>0.0</v>
@@ -5263,9 +5091,8 @@
       <c r="H179" s="2">
         <v>1.0</v>
       </c>
-      <c r="I179" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I179" s="4">
+        <v>10.0</v>
       </c>
       <c r="J179" s="2">
         <v>10.0</v>
@@ -5290,9 +5117,8 @@
       <c r="H180" s="2">
         <v>1.0</v>
       </c>
-      <c r="I180" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I180" s="4">
+        <v>20.0</v>
       </c>
       <c r="J180" s="2">
         <v>30.0</v>
@@ -5317,9 +5143,8 @@
       <c r="H181" s="2">
         <v>1.0</v>
       </c>
-      <c r="I181" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I181" s="4">
+        <v>30.0</v>
       </c>
       <c r="J181" s="2">
         <v>10.0</v>
@@ -5342,11 +5167,10 @@
         <v>81.07021</v>
       </c>
       <c r="H182" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I182" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I182" s="4">
+        <v>15.0</v>
       </c>
       <c r="J182" s="2">
         <v>0.0</v>
@@ -5369,11 +5193,10 @@
         <v>81.07018</v>
       </c>
       <c r="H183" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I183" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3.0</v>
+      </c>
+      <c r="I183" s="4">
+        <v>20.0</v>
       </c>
       <c r="J183" s="2">
         <v>0.0</v>
@@ -5398,9 +5221,8 @@
       <c r="H184" s="2">
         <v>1.0</v>
       </c>
-      <c r="I184" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I184" s="4">
+        <v>10.0</v>
       </c>
       <c r="J184" s="2">
         <v>0.0</v>
@@ -5423,11 +5245,10 @@
         <v>81.07016</v>
       </c>
       <c r="H185" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I185" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I185" s="4">
+        <v>30.0</v>
       </c>
       <c r="J185" s="2">
         <v>0.0</v>
@@ -5450,11 +5271,10 @@
         <v>81.07017</v>
       </c>
       <c r="H186" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I186" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I186" s="4">
+        <v>10.0</v>
       </c>
       <c r="J186" s="2">
         <v>0.0</v>
@@ -5477,11 +5297,10 @@
         <v>81.07017</v>
       </c>
       <c r="H187" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I187" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I187" s="4">
+        <v>15.0</v>
       </c>
       <c r="J187" s="2">
         <v>0.0</v>
@@ -5504,11 +5323,10 @@
         <v>81.07017</v>
       </c>
       <c r="H188" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I188" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I188" s="4">
+        <v>20.0</v>
       </c>
       <c r="J188" s="2">
         <v>0.0</v>
@@ -5531,11 +5349,10 @@
         <v>81.07017</v>
       </c>
       <c r="H189" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I189" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I189" s="4">
+        <v>15.0</v>
       </c>
       <c r="J189" s="2">
         <v>0.0</v>
@@ -5560,9 +5377,8 @@
       <c r="H190" s="2">
         <v>1.0</v>
       </c>
-      <c r="I190" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I190" s="4">
+        <v>30.0</v>
       </c>
       <c r="J190" s="2">
         <v>0.0</v>
@@ -5587,9 +5403,8 @@
       <c r="H191" s="2">
         <v>1.0</v>
       </c>
-      <c r="I191" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I191" s="4">
+        <v>10.0</v>
       </c>
       <c r="J191" s="2">
         <v>0.0</v>
@@ -5614,9 +5429,8 @@
       <c r="H192" s="2">
         <v>1.0</v>
       </c>
-      <c r="I192" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I192" s="4">
+        <v>15.0</v>
       </c>
       <c r="J192" s="2">
         <v>0.0</v>
@@ -5641,9 +5455,8 @@
       <c r="H193" s="2">
         <v>1.0</v>
       </c>
-      <c r="I193" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I193" s="4">
+        <v>20.0</v>
       </c>
       <c r="J193" s="2">
         <v>0.0</v>
@@ -5668,9 +5481,8 @@
       <c r="H194" s="2">
         <v>1.0</v>
       </c>
-      <c r="I194" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I194" s="4">
+        <v>10.0</v>
       </c>
       <c r="J194" s="2">
         <v>0.0</v>
@@ -5695,9 +5507,8 @@
       <c r="H195" s="2">
         <v>1.0</v>
       </c>
-      <c r="I195" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I195" s="4">
+        <v>20.0</v>
       </c>
       <c r="J195" s="2">
         <v>0.0</v>
@@ -5722,9 +5533,8 @@
       <c r="H196" s="2">
         <v>1.0</v>
       </c>
-      <c r="I196" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I196" s="4">
+        <v>15.0</v>
       </c>
       <c r="J196" s="2">
         <v>0.0</v>
@@ -5749,9 +5559,8 @@
       <c r="H197" s="2">
         <v>1.0</v>
       </c>
-      <c r="I197" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I197" s="4">
+        <v>10.0</v>
       </c>
       <c r="J197" s="2">
         <v>0.0</v>
@@ -5776,9 +5585,8 @@
       <c r="H198" s="2">
         <v>1.0</v>
       </c>
-      <c r="I198" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I198" s="4">
+        <v>20.0</v>
       </c>
       <c r="J198" s="2">
         <v>0.0</v>
@@ -5803,9 +5611,8 @@
       <c r="H199" s="2">
         <v>1.0</v>
       </c>
-      <c r="I199" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I199" s="4">
+        <v>30.0</v>
       </c>
       <c r="J199" s="2">
         <v>0.0</v>
@@ -5828,11 +5635,10 @@
         <v>81.07014</v>
       </c>
       <c r="H200" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I200" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I200" s="4">
+        <v>15.0</v>
       </c>
       <c r="J200" s="2">
         <v>0.0</v>
@@ -5855,11 +5661,10 @@
         <v>81.07012</v>
       </c>
       <c r="H201" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I201" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I201" s="4">
+        <v>20.0</v>
       </c>
       <c r="J201" s="2">
         <v>0.0</v>
@@ -5884,9 +5689,8 @@
       <c r="H202" s="2">
         <v>1.0</v>
       </c>
-      <c r="I202" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I202" s="4">
+        <v>10.0</v>
       </c>
       <c r="J202" s="2">
         <v>0.0</v>
@@ -5909,11 +5713,10 @@
         <v>81.07012</v>
       </c>
       <c r="H203" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I203" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I203" s="4">
+        <v>30.0</v>
       </c>
       <c r="J203" s="2">
         <v>0.0</v>
@@ -5936,11 +5739,10 @@
         <v>81.07012</v>
       </c>
       <c r="H204" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I204" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I204" s="4">
+        <v>10.0</v>
       </c>
       <c r="J204" s="2">
         <v>0.0</v>
@@ -5963,11 +5765,10 @@
         <v>81.07013</v>
       </c>
       <c r="H205" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I205" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I205" s="4">
+        <v>15.0</v>
       </c>
       <c r="J205" s="2">
         <v>0.0</v>
@@ -5990,11 +5791,10 @@
         <v>81.07013</v>
       </c>
       <c r="H206" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I206" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I206" s="4">
+        <v>20.0</v>
       </c>
       <c r="J206" s="2">
         <v>0.0</v>
@@ -6017,11 +5817,10 @@
         <v>81.07012</v>
       </c>
       <c r="H207" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I207" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I207" s="4">
+        <v>15.0</v>
       </c>
       <c r="J207" s="2">
         <v>0.0</v>
@@ -6046,9 +5845,8 @@
       <c r="H208" s="2">
         <v>1.0</v>
       </c>
-      <c r="I208" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I208" s="4">
+        <v>10.0</v>
       </c>
       <c r="J208" s="2">
         <v>0.0</v>
@@ -6073,9 +5871,8 @@
       <c r="H209" s="2">
         <v>1.0</v>
       </c>
-      <c r="I209" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I209" s="4">
+        <v>10.0</v>
       </c>
       <c r="J209" s="2">
         <v>0.0</v>
@@ -6098,11 +5895,10 @@
         <v>81.07013</v>
       </c>
       <c r="H210" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I210" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I210" s="4">
+        <v>15.0</v>
       </c>
       <c r="J210" s="2">
         <v>0.0</v>
@@ -6127,9 +5923,8 @@
       <c r="H211" s="2">
         <v>1.0</v>
       </c>
-      <c r="I211" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I211" s="4">
+        <v>10.0</v>
       </c>
       <c r="J211" s="2">
         <v>0.0</v>
@@ -6154,9 +5949,8 @@
       <c r="H212" s="2">
         <v>1.0</v>
       </c>
-      <c r="I212" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I212" s="4">
+        <v>20.0</v>
       </c>
       <c r="J212" s="2">
         <v>0.0</v>
@@ -6181,9 +5975,8 @@
       <c r="H213" s="2">
         <v>1.0</v>
       </c>
-      <c r="I213" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I213" s="4">
+        <v>30.0</v>
       </c>
       <c r="J213" s="2">
         <v>0.0</v>
@@ -6208,9 +6001,8 @@
       <c r="H214" s="2">
         <v>1.0</v>
       </c>
-      <c r="I214" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I214" s="4">
+        <v>10.0</v>
       </c>
       <c r="J214" s="2">
         <v>0.0</v>
@@ -6235,9 +6027,8 @@
       <c r="H215" s="2">
         <v>1.0</v>
       </c>
-      <c r="I215" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I215" s="4">
+        <v>15.0</v>
       </c>
       <c r="J215" s="2">
         <v>0.0</v>
@@ -6262,9 +6053,8 @@
       <c r="H216" s="2">
         <v>1.0</v>
       </c>
-      <c r="I216" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I216" s="4">
+        <v>20.0</v>
       </c>
       <c r="J216" s="2">
         <v>0.0</v>
@@ -6289,9 +6079,8 @@
       <c r="H217" s="2">
         <v>1.0</v>
       </c>
-      <c r="I217" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I217" s="4">
+        <v>10.0</v>
       </c>
       <c r="J217" s="2">
         <v>0.0</v>
@@ -6316,9 +6105,8 @@
       <c r="H218" s="2">
         <v>1.0</v>
       </c>
-      <c r="I218" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I218" s="4">
+        <v>20.0</v>
       </c>
       <c r="J218" s="2">
         <v>0.0</v>
@@ -6343,9 +6131,8 @@
       <c r="H219" s="2">
         <v>1.0</v>
       </c>
-      <c r="I219" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I219" s="4">
+        <v>15.0</v>
       </c>
       <c r="J219" s="2">
         <v>0.0</v>
@@ -6370,9 +6157,8 @@
       <c r="H220" s="2">
         <v>1.0</v>
       </c>
-      <c r="I220" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I220" s="4">
+        <v>10.0</v>
       </c>
       <c r="J220" s="2">
         <v>0.0</v>
@@ -6397,9 +6183,8 @@
       <c r="H221" s="2">
         <v>1.0</v>
       </c>
-      <c r="I221" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I221" s="4">
+        <v>20.0</v>
       </c>
       <c r="J221" s="2">
         <v>0.0</v>
@@ -6424,9 +6209,8 @@
       <c r="H222" s="2">
         <v>1.0</v>
       </c>
-      <c r="I222" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I222" s="4">
+        <v>30.0</v>
       </c>
       <c r="J222" s="2">
         <v>20.0</v>
@@ -6449,11 +6233,10 @@
         <v>81.06994</v>
       </c>
       <c r="H223" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I223" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I223" s="4">
+        <v>15.0</v>
       </c>
       <c r="J223" s="2">
         <v>10.0</v>
@@ -6476,11 +6259,10 @@
         <v>81.0682</v>
       </c>
       <c r="H224" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I224" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3.0</v>
+      </c>
+      <c r="I224" s="4">
+        <v>20.0</v>
       </c>
       <c r="J224" s="2">
         <v>10.0</v>
@@ -6505,9 +6287,8 @@
       <c r="H225" s="2">
         <v>1.0</v>
       </c>
-      <c r="I225" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I225" s="4">
+        <v>10.0</v>
       </c>
       <c r="J225" s="2">
         <v>10.0</v>
@@ -6530,11 +6311,10 @@
         <v>81.06648</v>
       </c>
       <c r="H226" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I226" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I226" s="4">
+        <v>30.0</v>
       </c>
       <c r="J226" s="2">
         <v>0.0</v>
@@ -6557,11 +6337,10 @@
         <v>81.06606</v>
       </c>
       <c r="H227" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I227" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I227" s="4">
+        <v>10.0</v>
       </c>
       <c r="J227" s="2">
         <v>0.0</v>
@@ -6584,11 +6363,10 @@
         <v>81.06558</v>
       </c>
       <c r="H228" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I228" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I228" s="4">
+        <v>15.0</v>
       </c>
       <c r="J228" s="2">
         <v>20.0</v>
@@ -6611,11 +6389,10 @@
         <v>81.06539</v>
       </c>
       <c r="H229" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I229" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2.0</v>
+      </c>
+      <c r="I229" s="4">
+        <v>20.0</v>
       </c>
       <c r="J229" s="2">
         <v>10.0</v>
@@ -6638,11 +6415,10 @@
         <v>81.06773</v>
       </c>
       <c r="H230" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I230" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I230" s="4">
+        <v>15.0</v>
       </c>
       <c r="J230" s="2">
         <v>0.0</v>
@@ -6667,9 +6443,8 @@
       <c r="H231" s="2">
         <v>1.0</v>
       </c>
-      <c r="I231" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I231" s="4">
+        <v>20.0</v>
       </c>
       <c r="J231" s="2">
         <v>10.0</v>
@@ -6694,9 +6469,8 @@
       <c r="H232" s="2">
         <v>1.0</v>
       </c>
-      <c r="I232" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I232" s="4">
+        <v>30.0</v>
       </c>
       <c r="J232" s="2">
         <v>0.0</v>
@@ -6721,9 +6495,8 @@
       <c r="H233" s="2">
         <v>1.0</v>
       </c>
-      <c r="I233" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I233" s="4">
+        <v>10.0</v>
       </c>
       <c r="J233" s="2">
         <v>0.0</v>
@@ -6748,9 +6521,8 @@
       <c r="H234" s="2">
         <v>1.0</v>
       </c>
-      <c r="I234" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I234" s="4">
+        <v>15.0</v>
       </c>
       <c r="J234" s="2">
         <v>10.0</v>
@@ -6775,9 +6547,8 @@
       <c r="H235" s="2">
         <v>1.0</v>
       </c>
-      <c r="I235" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I235" s="4">
+        <v>20.0</v>
       </c>
       <c r="J235" s="2">
         <v>0.0</v>
@@ -6802,9 +6573,8 @@
       <c r="H236" s="2">
         <v>1.0</v>
       </c>
-      <c r="I236" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I236" s="4">
+        <v>20.0</v>
       </c>
       <c r="J236" s="2">
         <v>10.0</v>
@@ -6829,9 +6599,8 @@
       <c r="H237" s="2">
         <v>1.0</v>
       </c>
-      <c r="I237" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I237" s="4">
+        <v>15.0</v>
       </c>
       <c r="J237" s="2">
         <v>0.0</v>
@@ -6856,9 +6625,8 @@
       <c r="H238" s="2">
         <v>1.0</v>
       </c>
-      <c r="I238" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I238" s="4">
+        <v>10.0</v>
       </c>
       <c r="J238" s="2">
         <v>0.0</v>
@@ -6883,9 +6651,8 @@
       <c r="H239" s="2">
         <v>1.0</v>
       </c>
-      <c r="I239" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I239" s="4">
+        <v>20.0</v>
       </c>
       <c r="J239" s="2">
         <v>0.0</v>
@@ -6910,9 +6677,8 @@
       <c r="H240" s="2">
         <v>1.0</v>
       </c>
-      <c r="I240" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I240" s="4">
+        <v>30.0</v>
       </c>
       <c r="J240" s="2">
         <v>0.0</v>
@@ -6935,11 +6701,10 @@
         <v>81.06811</v>
       </c>
       <c r="H241" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I241" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I241" s="4">
+        <v>15.0</v>
       </c>
       <c r="J241" s="2">
         <v>0.0</v>
@@ -6962,11 +6727,10 @@
         <v>81.06811</v>
       </c>
       <c r="H242" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I242" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I242" s="4">
+        <v>20.0</v>
       </c>
       <c r="J242" s="2">
         <v>0.0</v>
@@ -6991,9 +6755,8 @@
       <c r="H243" s="2">
         <v>1.0</v>
       </c>
-      <c r="I243" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I243" s="4">
+        <v>10.0</v>
       </c>
       <c r="J243" s="2">
         <v>0.0</v>
@@ -7016,11 +6779,10 @@
         <v>81.068</v>
       </c>
       <c r="H244" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I244" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3.0</v>
+      </c>
+      <c r="I244" s="4">
+        <v>30.0</v>
       </c>
       <c r="J244" s="2">
         <v>10.0</v>
@@ -7043,11 +6805,10 @@
         <v>81.06661</v>
       </c>
       <c r="H245" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I245" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I245" s="4">
+        <v>10.0</v>
       </c>
       <c r="J245" s="2">
         <v>0.0</v>
@@ -7070,11 +6831,10 @@
         <v>81.06557</v>
       </c>
       <c r="H246" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I246" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I246" s="4">
+        <v>15.0</v>
       </c>
       <c r="J246" s="2">
         <v>10.0</v>
@@ -7097,11 +6857,10 @@
         <v>81.06757</v>
       </c>
       <c r="H247" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I247" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I247" s="4">
+        <v>20.0</v>
       </c>
       <c r="J247" s="2">
         <v>0.0</v>
@@ -7124,11 +6883,10 @@
         <v>81.06777</v>
       </c>
       <c r="H248" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I248" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I248" s="4">
+        <v>15.0</v>
       </c>
       <c r="J248" s="2">
         <v>0.0</v>
@@ -7153,9 +6911,8 @@
       <c r="H249" s="2">
         <v>1.0</v>
       </c>
-      <c r="I249" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I249" s="4">
+        <v>10.0</v>
       </c>
       <c r="J249" s="2">
         <v>20.0</v>
@@ -7178,11 +6935,10 @@
         <v>81.06789</v>
       </c>
       <c r="H250" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I250" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I250" s="4">
+        <v>15.0</v>
       </c>
       <c r="J250" s="2">
         <v>0.0</v>
@@ -7207,9 +6963,8 @@
       <c r="H251" s="2">
         <v>1.0</v>
       </c>
-      <c r="I251" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I251" s="4">
+        <v>10.0</v>
       </c>
       <c r="J251" s="2">
         <v>0.0</v>
@@ -7234,9 +6989,8 @@
       <c r="H252" s="2">
         <v>1.0</v>
       </c>
-      <c r="I252" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I252" s="4">
+        <v>20.0</v>
       </c>
       <c r="J252" s="2">
         <v>10.0</v>
@@ -7261,9 +7015,8 @@
       <c r="H253" s="2">
         <v>1.0</v>
       </c>
-      <c r="I253" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I253" s="4">
+        <v>30.0</v>
       </c>
       <c r="J253" s="2">
         <v>0.0</v>
@@ -7288,9 +7041,8 @@
       <c r="H254" s="2">
         <v>1.0</v>
       </c>
-      <c r="I254" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I254" s="4">
+        <v>10.0</v>
       </c>
       <c r="J254" s="2">
         <v>0.0</v>
@@ -7315,9 +7067,8 @@
       <c r="H255" s="2">
         <v>1.0</v>
       </c>
-      <c r="I255" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I255" s="4">
+        <v>15.0</v>
       </c>
       <c r="J255" s="2">
         <v>0.0</v>
@@ -7342,9 +7093,8 @@
       <c r="H256" s="2">
         <v>1.0</v>
       </c>
-      <c r="I256" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I256" s="4">
+        <v>20.0</v>
       </c>
       <c r="J256" s="2">
         <v>0.0</v>
@@ -7369,9 +7119,8 @@
       <c r="H257" s="2">
         <v>1.0</v>
       </c>
-      <c r="I257" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I257" s="4">
+        <v>10.0</v>
       </c>
       <c r="J257" s="2">
         <v>0.0</v>
@@ -7396,9 +7145,8 @@
       <c r="H258" s="2">
         <v>1.0</v>
       </c>
-      <c r="I258" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I258" s="4">
+        <v>20.0</v>
       </c>
       <c r="J258" s="2">
         <v>10.0</v>
@@ -7423,9 +7171,8 @@
       <c r="H259" s="2">
         <v>1.0</v>
       </c>
-      <c r="I259" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I259" s="4">
+        <v>15.0</v>
       </c>
       <c r="J259" s="2">
         <v>0.0</v>
@@ -7450,9 +7197,8 @@
       <c r="H260" s="2">
         <v>1.0</v>
       </c>
-      <c r="I260" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I260" s="4">
+        <v>10.0</v>
       </c>
       <c r="J260" s="2">
         <v>0.0</v>
@@ -7477,9 +7223,8 @@
       <c r="H261" s="2">
         <v>1.0</v>
       </c>
-      <c r="I261" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I261" s="4">
+        <v>20.0</v>
       </c>
       <c r="J261" s="2">
         <v>0.0</v>
@@ -7504,9 +7249,8 @@
       <c r="H262" s="2">
         <v>1.0</v>
       </c>
-      <c r="I262" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I262" s="4">
+        <v>30.0</v>
       </c>
       <c r="J262" s="2">
         <v>0.0</v>
@@ -7529,11 +7273,10 @@
         <v>81.06813</v>
       </c>
       <c r="H263" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I263" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I263" s="4">
+        <v>15.0</v>
       </c>
       <c r="J263" s="2">
         <v>0.0</v>
@@ -7556,11 +7299,10 @@
         <v>81.0678</v>
       </c>
       <c r="H264" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I264" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I264" s="4">
+        <v>20.0</v>
       </c>
       <c r="J264" s="2">
         <v>0.0</v>
@@ -7585,9 +7327,8 @@
       <c r="H265" s="2">
         <v>1.0</v>
       </c>
-      <c r="I265" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I265" s="4">
+        <v>10.0</v>
       </c>
       <c r="J265" s="2">
         <v>0.0</v>
@@ -7610,11 +7351,10 @@
         <v>81.0663</v>
       </c>
       <c r="H266" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I266" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I266" s="4">
+        <v>30.0</v>
       </c>
       <c r="J266" s="2">
         <v>0.0</v>
@@ -7637,11 +7377,10 @@
         <v>81.06483</v>
       </c>
       <c r="H267" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I267" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I267" s="4">
+        <v>10.0</v>
       </c>
       <c r="J267" s="2">
         <v>10.0</v>
@@ -7664,11 +7403,10 @@
         <v>81.0642</v>
       </c>
       <c r="H268" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I268" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I268" s="4">
+        <v>15.0</v>
       </c>
       <c r="J268" s="2">
         <v>0.0</v>
@@ -7691,11 +7429,10 @@
         <v>81.06772</v>
       </c>
       <c r="H269" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I269" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I269" s="4">
+        <v>20.0</v>
       </c>
       <c r="J269" s="2">
         <v>10.0</v>
@@ -7718,11 +7455,10 @@
         <v>81.06786</v>
       </c>
       <c r="H270" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I270" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I270" s="4">
+        <v>15.0</v>
       </c>
       <c r="J270" s="2">
         <v>20.0</v>
@@ -7747,9 +7483,8 @@
       <c r="H271" s="2">
         <v>1.0</v>
       </c>
-      <c r="I271" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I271" s="4">
+        <v>20.0</v>
       </c>
       <c r="J271" s="2">
         <v>0.0</v>
@@ -7774,9 +7509,8 @@
       <c r="H272" s="2">
         <v>1.0</v>
       </c>
-      <c r="I272" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I272" s="4">
+        <v>15.0</v>
       </c>
       <c r="J272" s="2">
         <v>0.0</v>
@@ -7801,9 +7535,8 @@
       <c r="H273" s="2">
         <v>1.0</v>
       </c>
-      <c r="I273" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I273" s="4">
+        <v>10.0</v>
       </c>
       <c r="J273" s="2">
         <v>0.0</v>
@@ -7828,9 +7561,8 @@
       <c r="H274" s="2">
         <v>1.0</v>
       </c>
-      <c r="I274" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I274" s="4">
+        <v>20.0</v>
       </c>
       <c r="J274" s="2">
         <v>0.0</v>
@@ -7855,9 +7587,8 @@
       <c r="H275" s="2">
         <v>1.0</v>
       </c>
-      <c r="I275" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I275" s="4">
+        <v>30.0</v>
       </c>
       <c r="J275" s="2">
         <v>0.0</v>
@@ -7880,11 +7611,10 @@
         <v>81.06791</v>
       </c>
       <c r="H276" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I276" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I276" s="4">
+        <v>15.0</v>
       </c>
       <c r="J276" s="2">
         <v>0.0</v>
@@ -7907,11 +7637,10 @@
         <v>81.06793</v>
       </c>
       <c r="H277" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I277" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I277" s="4">
+        <v>20.0</v>
       </c>
       <c r="J277" s="2">
         <v>0.0</v>
@@ -7936,9 +7665,8 @@
       <c r="H278" s="2">
         <v>1.0</v>
       </c>
-      <c r="I278" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I278" s="4">
+        <v>10.0</v>
       </c>
       <c r="J278" s="2">
         <v>0.0</v>
@@ -7961,11 +7689,10 @@
         <v>81.06788</v>
       </c>
       <c r="H279" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I279" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I279" s="4">
+        <v>30.0</v>
       </c>
       <c r="J279" s="2">
         <v>10.0</v>
@@ -7988,11 +7715,10 @@
         <v>81.06788</v>
       </c>
       <c r="H280" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I280" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I280" s="4">
+        <v>10.0</v>
       </c>
       <c r="J280" s="2">
         <v>0.0</v>
@@ -8015,11 +7741,10 @@
         <v>81.06778</v>
       </c>
       <c r="H281" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I281" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I281" s="4">
+        <v>15.0</v>
       </c>
       <c r="J281" s="2">
         <v>0.0</v>
@@ -8042,11 +7767,10 @@
         <v>81.06824</v>
       </c>
       <c r="H282" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I282" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I282" s="4">
+        <v>20.0</v>
       </c>
       <c r="J282" s="2">
         <v>0.0</v>
@@ -8069,11 +7793,10 @@
         <v>81.06817</v>
       </c>
       <c r="H283" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I283" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I283" s="4">
+        <v>15.0</v>
       </c>
       <c r="J283" s="2">
         <v>0.0</v>
@@ -8098,9 +7821,8 @@
       <c r="H284" s="2">
         <v>1.0</v>
       </c>
-      <c r="I284" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I284" s="4">
+        <v>20.0</v>
       </c>
       <c r="J284" s="2">
         <v>0.0</v>
@@ -8125,9 +7847,8 @@
       <c r="H285" s="2">
         <v>1.0</v>
       </c>
-      <c r="I285" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I285" s="4">
+        <v>15.0</v>
       </c>
       <c r="J285" s="2">
         <v>10.0</v>
@@ -8152,9 +7873,8 @@
       <c r="H286" s="2">
         <v>1.0</v>
       </c>
-      <c r="I286" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I286" s="4">
+        <v>10.0</v>
       </c>
       <c r="J286" s="2">
         <v>0.0</v>
@@ -8179,9 +7899,8 @@
       <c r="H287" s="2">
         <v>1.0</v>
       </c>
-      <c r="I287" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I287" s="4">
+        <v>20.0</v>
       </c>
       <c r="J287" s="2">
         <v>10.0</v>
@@ -8206,9 +7925,8 @@
       <c r="H288" s="2">
         <v>1.0</v>
       </c>
-      <c r="I288" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I288" s="4">
+        <v>30.0</v>
       </c>
       <c r="J288" s="2">
         <v>0.0</v>
@@ -8231,11 +7949,10 @@
         <v>81.06776</v>
       </c>
       <c r="H289" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I289" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I289" s="4">
+        <v>15.0</v>
       </c>
       <c r="J289" s="2">
         <v>0.0</v>
@@ -8258,11 +7975,10 @@
         <v>81.06511</v>
       </c>
       <c r="H290" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I290" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3.0</v>
+      </c>
+      <c r="I290" s="4">
+        <v>20.0</v>
       </c>
       <c r="J290" s="2">
         <v>0.0</v>
@@ -8287,9 +8003,8 @@
       <c r="H291" s="2">
         <v>1.0</v>
       </c>
-      <c r="I291" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I291" s="4">
+        <v>10.0</v>
       </c>
       <c r="J291" s="2">
         <v>10.0</v>
@@ -8312,11 +8027,10 @@
         <v>81.067</v>
       </c>
       <c r="H292" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I292" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I292" s="4">
+        <v>30.0</v>
       </c>
       <c r="J292" s="2">
         <v>10.0</v>
@@ -8339,11 +8053,10 @@
         <v>81.0665</v>
       </c>
       <c r="H293" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I293" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I293" s="4">
+        <v>10.0</v>
       </c>
       <c r="J293" s="2">
         <v>10.0</v>
@@ -8366,11 +8079,10 @@
         <v>81.06614</v>
       </c>
       <c r="H294" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I294" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I294" s="4">
+        <v>15.0</v>
       </c>
       <c r="J294" s="2">
         <v>0.0</v>
@@ -8393,11 +8105,10 @@
         <v>81.06611</v>
       </c>
       <c r="H295" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I295" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I295" s="4">
+        <v>20.0</v>
       </c>
       <c r="J295" s="2">
         <v>0.0</v>
@@ -8420,11 +8131,10 @@
         <v>81.06608</v>
       </c>
       <c r="H296" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I296" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I296" s="4">
+        <v>15.0</v>
       </c>
       <c r="J296" s="2">
         <v>0.0</v>
@@ -8447,11 +8157,10 @@
         <v>81.06606</v>
       </c>
       <c r="H297" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I297" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I297" s="4">
+        <v>15.0</v>
       </c>
       <c r="J297" s="2">
         <v>0.0</v>
@@ -8476,9 +8185,8 @@
       <c r="H298" s="2">
         <v>1.0</v>
       </c>
-      <c r="I298" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I298" s="4">
+        <v>10.0</v>
       </c>
       <c r="J298" s="2">
         <v>0.0</v>
@@ -8503,9 +8211,8 @@
       <c r="H299" s="2">
         <v>1.0</v>
       </c>
-      <c r="I299" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I299" s="4">
+        <v>20.0</v>
       </c>
       <c r="J299" s="2">
         <v>0.0</v>
@@ -8530,9 +8237,8 @@
       <c r="H300" s="2">
         <v>1.0</v>
       </c>
-      <c r="I300" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I300" s="4">
+        <v>30.0</v>
       </c>
       <c r="J300" s="2">
         <v>0.0</v>
@@ -8557,9 +8263,8 @@
       <c r="H301" s="2">
         <v>1.0</v>
       </c>
-      <c r="I301" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I301" s="4">
+        <v>10.0</v>
       </c>
       <c r="J301" s="2">
         <v>0.0</v>
@@ -8584,9 +8289,8 @@
       <c r="H302" s="2">
         <v>1.0</v>
       </c>
-      <c r="I302" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I302" s="4">
+        <v>15.0</v>
       </c>
       <c r="J302" s="2">
         <v>0.0</v>
@@ -8611,9 +8315,8 @@
       <c r="H303" s="2">
         <v>1.0</v>
       </c>
-      <c r="I303" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I303" s="4">
+        <v>20.0</v>
       </c>
       <c r="J303" s="2">
         <v>0.0</v>
@@ -8638,9 +8341,8 @@
       <c r="H304" s="2">
         <v>1.0</v>
       </c>
-      <c r="I304" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I304" s="4">
+        <v>20.0</v>
       </c>
       <c r="J304" s="2">
         <v>0.0</v>
@@ -8665,9 +8367,8 @@
       <c r="H305" s="2">
         <v>1.0</v>
       </c>
-      <c r="I305" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I305" s="4">
+        <v>15.0</v>
       </c>
       <c r="J305" s="2">
         <v>0.0</v>
@@ -8692,9 +8393,8 @@
       <c r="H306" s="2">
         <v>1.0</v>
       </c>
-      <c r="I306" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I306" s="4">
+        <v>10.0</v>
       </c>
       <c r="J306" s="2">
         <v>0.0</v>
@@ -8719,9 +8419,8 @@
       <c r="H307" s="2">
         <v>1.0</v>
       </c>
-      <c r="I307" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I307" s="4">
+        <v>20.0</v>
       </c>
       <c r="J307" s="2">
         <v>0.0</v>
@@ -8746,9 +8445,8 @@
       <c r="H308" s="2">
         <v>1.0</v>
       </c>
-      <c r="I308" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I308" s="4">
+        <v>30.0</v>
       </c>
       <c r="J308" s="2">
         <v>0.0</v>
@@ -8771,11 +8469,10 @@
         <v>81.06599</v>
       </c>
       <c r="H309" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I309" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I309" s="4">
+        <v>15.0</v>
       </c>
       <c r="J309" s="2">
         <v>0.0</v>
@@ -8798,11 +8495,10 @@
         <v>81.06599</v>
       </c>
       <c r="H310" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I310" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I310" s="4">
+        <v>20.0</v>
       </c>
       <c r="J310" s="2">
         <v>0.0</v>
@@ -8827,9 +8523,8 @@
       <c r="H311" s="2">
         <v>1.0</v>
       </c>
-      <c r="I311" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I311" s="4">
+        <v>10.0</v>
       </c>
       <c r="J311" s="2">
         <v>0.0</v>
@@ -8852,11 +8547,10 @@
         <v>81.066</v>
       </c>
       <c r="H312" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I312" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3.0</v>
+      </c>
+      <c r="I312" s="4">
+        <v>30.0</v>
       </c>
       <c r="J312" s="2">
         <v>0.0</v>
@@ -8879,11 +8573,10 @@
         <v>81.066</v>
       </c>
       <c r="H313" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I313" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I313" s="4">
+        <v>10.0</v>
       </c>
       <c r="J313" s="2">
         <v>0.0</v>
@@ -8906,11 +8599,10 @@
         <v>81.066</v>
       </c>
       <c r="H314" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I314" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I314" s="4">
+        <v>20.0</v>
       </c>
       <c r="J314" s="2">
         <v>0.0</v>
@@ -8935,9 +8627,8 @@
       <c r="H315" s="2">
         <v>1.0</v>
       </c>
-      <c r="I315" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I315" s="4">
+        <v>10.0</v>
       </c>
       <c r="J315" s="2">
         <v>0.0</v>
@@ -8960,11 +8651,10 @@
         <v>81.066</v>
       </c>
       <c r="H316" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I316" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3.0</v>
+      </c>
+      <c r="I316" s="4">
+        <v>30.0</v>
       </c>
       <c r="J316" s="2">
         <v>0.0</v>
@@ -8987,11 +8677,10 @@
         <v>81.06599</v>
       </c>
       <c r="H317" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I317" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I317" s="4">
+        <v>10.0</v>
       </c>
       <c r="J317" s="2">
         <v>0.0</v>
@@ -9014,11 +8703,10 @@
         <v>81.06599</v>
       </c>
       <c r="H318" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I318" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I318" s="4">
+        <v>15.0</v>
       </c>
       <c r="J318" s="2">
         <v>0.0</v>
@@ -9041,11 +8729,10 @@
         <v>81.066</v>
       </c>
       <c r="H319" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I319" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I319" s="4">
+        <v>20.0</v>
       </c>
       <c r="J319" s="2">
         <v>0.0</v>
@@ -9068,11 +8755,10 @@
         <v>81.066</v>
       </c>
       <c r="H320" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I320" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I320" s="4">
+        <v>15.0</v>
       </c>
       <c r="J320" s="2">
         <v>0.0</v>
@@ -9094,12 +8780,11 @@
       <c r="F321" s="2">
         <v>81.06599</v>
       </c>
-      <c r="H321" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I321" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H321" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I321" s="6">
+        <v>20.0</v>
       </c>
       <c r="J321" s="2">
         <v>0.0</v>
@@ -9121,12 +8806,11 @@
       <c r="F322" s="2">
         <v>81.06598</v>
       </c>
-      <c r="H322" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I322" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H322" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I322" s="6">
+        <v>15.0</v>
       </c>
       <c r="J322" s="2">
         <v>0.0</v>
@@ -9148,12 +8832,11 @@
       <c r="F323" s="2">
         <v>81.06596</v>
       </c>
-      <c r="H323" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I323" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H323" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I323" s="6">
+        <v>10.0</v>
       </c>
       <c r="J323" s="2">
         <v>0.0</v>
@@ -9175,12 +8858,11 @@
       <c r="F324" s="2">
         <v>81.06595</v>
       </c>
-      <c r="H324" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I324" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H324" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I324" s="6">
+        <v>20.0</v>
       </c>
       <c r="J324" s="2">
         <v>0.0</v>
@@ -9202,12 +8884,11 @@
       <c r="F325" s="2">
         <v>81.06594</v>
       </c>
-      <c r="H325" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I325" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H325" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I325" s="6">
+        <v>30.0</v>
       </c>
       <c r="J325" s="2">
         <v>0.0</v>
@@ -9229,12 +8910,11 @@
       <c r="F326" s="2">
         <v>81.06594</v>
       </c>
-      <c r="H326" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I326" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H326" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I326" s="6">
+        <v>15.0</v>
       </c>
       <c r="J326" s="2">
         <v>0.0</v>
@@ -9256,12 +8936,11 @@
       <c r="F327" s="2">
         <v>81.06595</v>
       </c>
-      <c r="H327" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I327" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H327" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I327" s="6">
+        <v>20.0</v>
       </c>
       <c r="J327" s="2">
         <v>0.0</v>
@@ -9283,12 +8962,11 @@
       <c r="F328" s="2">
         <v>81.06596</v>
       </c>
-      <c r="H328" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I328" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H328" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I328" s="6">
+        <v>10.0</v>
       </c>
       <c r="J328" s="2">
         <v>0.0</v>
@@ -9310,12 +8988,11 @@
       <c r="F329" s="2">
         <v>81.06595</v>
       </c>
-      <c r="H329" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I329" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H329" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I329" s="6">
+        <v>30.0</v>
       </c>
       <c r="J329" s="2">
         <v>0.0</v>
@@ -9337,12 +9014,11 @@
       <c r="F330" s="2">
         <v>81.06596</v>
       </c>
-      <c r="H330" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I330" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H330" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I330" s="6">
+        <v>10.0</v>
       </c>
       <c r="J330" s="2">
         <v>0.0</v>
@@ -9364,12 +9040,11 @@
       <c r="F331" s="2">
         <v>81.06597</v>
       </c>
-      <c r="H331" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I331" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H331" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I331" s="6">
+        <v>20.0</v>
       </c>
       <c r="J331" s="2">
         <v>0.0</v>
@@ -9391,12 +9066,11 @@
       <c r="F332" s="2">
         <v>81.06597</v>
       </c>
-      <c r="H332" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I332" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H332" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I332" s="6">
+        <v>15.0</v>
       </c>
       <c r="J332" s="2">
         <v>0.0</v>
@@ -9418,12 +9092,11 @@
       <c r="F333" s="2">
         <v>81.06598</v>
       </c>
-      <c r="H333" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I333" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H333" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I333" s="6">
+        <v>10.0</v>
       </c>
       <c r="J333" s="2">
         <v>0.0</v>
@@ -9445,12 +9118,11 @@
       <c r="F334" s="2">
         <v>81.06598</v>
       </c>
-      <c r="H334" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I334" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H334" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I334" s="6">
+        <v>20.0</v>
       </c>
       <c r="J334" s="2">
         <v>0.0</v>
@@ -9472,12 +9144,11 @@
       <c r="F335" s="2">
         <v>81.06598</v>
       </c>
-      <c r="H335" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I335" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H335" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I335" s="6">
+        <v>30.0</v>
       </c>
       <c r="J335" s="2">
         <v>0.0</v>
@@ -9499,12 +9170,11 @@
       <c r="F336" s="2">
         <v>81.06599</v>
       </c>
-      <c r="H336" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I336" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H336" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I336" s="6">
+        <v>15.0</v>
       </c>
       <c r="J336" s="2">
         <v>0.0</v>
@@ -9526,12 +9196,11 @@
       <c r="F337" s="2">
         <v>81.066</v>
       </c>
-      <c r="H337" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I337" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H337" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I337" s="6">
+        <v>20.0</v>
       </c>
       <c r="J337" s="2">
         <v>0.0</v>
@@ -9553,12 +9222,11 @@
       <c r="F338" s="2">
         <v>81.066</v>
       </c>
-      <c r="H338" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I338" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H338" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I338" s="6">
+        <v>10.0</v>
       </c>
       <c r="J338" s="2">
         <v>0.0</v>
@@ -9580,12 +9248,11 @@
       <c r="F339" s="2">
         <v>81.066</v>
       </c>
-      <c r="H339" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I339" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H339" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I339" s="6">
+        <v>30.0</v>
       </c>
       <c r="J339" s="2">
         <v>0.0</v>
@@ -9607,12 +9274,11 @@
       <c r="F340" s="2">
         <v>81.066</v>
       </c>
-      <c r="H340" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I340" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H340" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I340" s="6">
+        <v>10.0</v>
       </c>
       <c r="J340" s="2">
         <v>0.0</v>
@@ -9637,9 +9303,8 @@
       <c r="H341" s="2">
         <v>1.0</v>
       </c>
-      <c r="I341" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I341" s="4">
+        <v>30.0</v>
       </c>
       <c r="J341" s="2">
         <v>0.0</v>
@@ -9662,11 +9327,10 @@
         <v>81.06599</v>
       </c>
       <c r="H342" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I342" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I342" s="4">
+        <v>15.0</v>
       </c>
       <c r="J342" s="2">
         <v>0.0</v>
@@ -9689,11 +9353,10 @@
         <v>81.06599</v>
       </c>
       <c r="H343" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I343" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I343" s="4">
+        <v>20.0</v>
       </c>
       <c r="J343" s="2">
         <v>0.0</v>
@@ -9718,9 +9381,8 @@
       <c r="H344" s="2">
         <v>1.0</v>
       </c>
-      <c r="I344" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I344" s="4">
+        <v>10.0</v>
       </c>
       <c r="J344" s="2">
         <v>0.0</v>
@@ -9743,11 +9405,10 @@
         <v>81.06601</v>
       </c>
       <c r="H345" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I345" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I345" s="4">
+        <v>30.0</v>
       </c>
       <c r="J345" s="2">
         <v>0.0</v>
@@ -9770,11 +9431,10 @@
         <v>81.06602</v>
       </c>
       <c r="H346" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I346" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I346" s="4">
+        <v>10.0</v>
       </c>
       <c r="J346" s="2">
         <v>0.0</v>
@@ -9797,11 +9457,10 @@
         <v>81.06603</v>
       </c>
       <c r="H347" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I347" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.0</v>
+      </c>
+      <c r="I347" s="4">
+        <v>15.0</v>
       </c>
       <c r="J347" s="2">
         <v>0.0</v>
@@ -9824,11 +9483,10 @@
         <v>81.06602</v>
       </c>
       <c r="H348" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I348" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I348" s="4">
+        <v>20.0</v>
       </c>
       <c r="J348" s="2">
         <v>0.0</v>
@@ -9851,11 +9509,10 @@
         <v>81.06602</v>
       </c>
       <c r="H349" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I349" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I349" s="4">
+        <v>15.0</v>
       </c>
       <c r="J349" s="2">
         <v>0.0</v>
@@ -9877,12 +9534,11 @@
       <c r="F350" s="2">
         <v>81.06602</v>
       </c>
-      <c r="H350" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I350" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H350" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I350" s="6">
+        <v>20.0</v>
       </c>
       <c r="J350" s="2">
         <v>0.0</v>
@@ -9904,12 +9560,11 @@
       <c r="F351" s="2">
         <v>81.066</v>
       </c>
-      <c r="H351" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I351" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H351" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I351" s="6">
+        <v>15.0</v>
       </c>
       <c r="J351" s="2">
         <v>0.0</v>
@@ -9931,12 +9586,11 @@
       <c r="F352" s="2">
         <v>81.06599</v>
       </c>
-      <c r="H352" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I352" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H352" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I352" s="6">
+        <v>10.0</v>
       </c>
       <c r="J352" s="2">
         <v>0.0</v>
@@ -9958,12 +9612,11 @@
       <c r="F353" s="2">
         <v>81.06597</v>
       </c>
-      <c r="H353" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I353" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H353" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I353" s="6">
+        <v>20.0</v>
       </c>
       <c r="J353" s="2">
         <v>0.0</v>
@@ -9985,12 +9638,11 @@
       <c r="F354" s="2">
         <v>81.06597</v>
       </c>
-      <c r="H354" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I354" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H354" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I354" s="6">
+        <v>30.0</v>
       </c>
       <c r="J354" s="2">
         <v>0.0</v>
@@ -10012,12 +9664,11 @@
       <c r="F355" s="2">
         <v>81.06598</v>
       </c>
-      <c r="H355" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I355" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H355" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I355" s="6">
+        <v>15.0</v>
       </c>
       <c r="J355" s="2">
         <v>0.0</v>
@@ -10039,12 +9690,11 @@
       <c r="F356" s="2">
         <v>81.06598</v>
       </c>
-      <c r="H356" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I356" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H356" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I356" s="6">
+        <v>20.0</v>
       </c>
       <c r="J356" s="2">
         <v>0.0</v>
@@ -10066,12 +9716,11 @@
       <c r="F357" s="2">
         <v>81.06598</v>
       </c>
-      <c r="H357" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I357" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="H357" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I357" s="6">
+        <v>10.0</v>
       </c>
       <c r="J357" s="2">
         <v>0.0</v>
@@ -10093,12 +9742,11 @@
       <c r="F358" s="2">
         <v>81.06597</v>
       </c>
-      <c r="H358" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I358" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="H358" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I358" s="6">
+        <v>30.0</v>
       </c>
       <c r="J358" s="2">
         <v>0.0</v>
@@ -10120,12 +9768,11 @@
       <c r="F359" s="2">
         <v>81.06597</v>
       </c>
-      <c r="H359" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I359" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="H359" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I359" s="6">
+        <v>10.0</v>
       </c>
       <c r="J359" s="2">
         <v>0.0</v>
@@ -10150,9 +9797,8 @@
       <c r="H360" s="2">
         <v>1.0</v>
       </c>
-      <c r="I360" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I360" s="4">
+        <v>30.0</v>
       </c>
       <c r="J360" s="2">
         <v>0.0</v>
@@ -10177,9 +9823,8 @@
       <c r="H361" s="2">
         <v>1.0</v>
       </c>
-      <c r="I361" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I361" s="4">
+        <v>10.0</v>
       </c>
       <c r="J361" s="2">
         <v>0.0</v>
@@ -10204,9 +9849,8 @@
       <c r="H362" s="2">
         <v>1.0</v>
       </c>
-      <c r="I362" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I362" s="4">
+        <v>15.0</v>
       </c>
       <c r="J362" s="2">
         <v>0.0</v>
@@ -10231,9 +9875,8 @@
       <c r="H363" s="2">
         <v>1.0</v>
       </c>
-      <c r="I363" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I363" s="4">
+        <v>20.0</v>
       </c>
       <c r="J363" s="2">
         <v>0.0</v>
@@ -10258,9 +9901,8 @@
       <c r="H364" s="2">
         <v>1.0</v>
       </c>
-      <c r="I364" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I364" s="4">
+        <v>20.0</v>
       </c>
       <c r="J364" s="2">
         <v>0.0</v>
@@ -10285,9 +9927,8 @@
       <c r="H365" s="2">
         <v>1.0</v>
       </c>
-      <c r="I365" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I365" s="4">
+        <v>15.0</v>
       </c>
       <c r="J365" s="2">
         <v>0.0</v>
@@ -10312,9 +9953,8 @@
       <c r="H366" s="2">
         <v>1.0</v>
       </c>
-      <c r="I366" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I366" s="4">
+        <v>10.0</v>
       </c>
       <c r="J366" s="2">
         <v>0.0</v>
@@ -10339,9 +9979,8 @@
       <c r="H367" s="2">
         <v>1.0</v>
       </c>
-      <c r="I367" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I367" s="4">
+        <v>20.0</v>
       </c>
       <c r="J367" s="2">
         <v>0.0</v>
@@ -10366,9 +10005,8 @@
       <c r="H368" s="2">
         <v>1.0</v>
       </c>
-      <c r="I368" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I368" s="4">
+        <v>30.0</v>
       </c>
       <c r="J368" s="2">
         <v>0.0</v>
@@ -10391,11 +10029,10 @@
         <v>81.06597</v>
       </c>
       <c r="H369" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I369" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I369" s="4">
+        <v>15.0</v>
       </c>
       <c r="J369" s="2">
         <v>0.0</v>
@@ -10418,11 +10055,10 @@
         <v>81.06598</v>
       </c>
       <c r="H370" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I370" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3.0</v>
+      </c>
+      <c r="I370" s="4">
+        <v>20.0</v>
       </c>
       <c r="J370" s="2">
         <v>0.0</v>
@@ -10447,9 +10083,8 @@
       <c r="H371" s="2">
         <v>1.0</v>
       </c>
-      <c r="I371" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I371" s="4">
+        <v>10.0</v>
       </c>
       <c r="J371" s="2">
         <v>0.0</v>
@@ -10472,11 +10107,10 @@
         <v>81.06598</v>
       </c>
       <c r="H372" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I372" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I372" s="4">
+        <v>30.0</v>
       </c>
       <c r="J372" s="2">
         <v>0.0</v>
@@ -10501,9 +10135,8 @@
       <c r="H373" s="2">
         <v>1.0</v>
       </c>
-      <c r="I373" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I373" s="4">
+        <v>30.0</v>
       </c>
       <c r="J373" s="2">
         <v>0.0</v>
@@ -10528,9 +10161,8 @@
       <c r="H374" s="2">
         <v>1.0</v>
       </c>
-      <c r="I374" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I374" s="4">
+        <v>10.0</v>
       </c>
       <c r="J374" s="2">
         <v>0.0</v>
@@ -10555,9 +10187,8 @@
       <c r="H375" s="2">
         <v>1.0</v>
       </c>
-      <c r="I375" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I375" s="4">
+        <v>15.0</v>
       </c>
       <c r="J375" s="2">
         <v>0.0</v>
@@ -10582,9 +10213,8 @@
       <c r="H376" s="2">
         <v>1.0</v>
       </c>
-      <c r="I376" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I376" s="4">
+        <v>20.0</v>
       </c>
       <c r="J376" s="2">
         <v>0.0</v>
@@ -10609,9 +10239,8 @@
       <c r="H377" s="2">
         <v>1.0</v>
       </c>
-      <c r="I377" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I377" s="4">
+        <v>20.0</v>
       </c>
       <c r="J377" s="2">
         <v>0.0</v>
@@ -10636,9 +10265,8 @@
       <c r="H378" s="2">
         <v>1.0</v>
       </c>
-      <c r="I378" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I378" s="4">
+        <v>15.0</v>
       </c>
       <c r="J378" s="2">
         <v>0.0</v>
@@ -10663,9 +10291,8 @@
       <c r="H379" s="2">
         <v>1.0</v>
       </c>
-      <c r="I379" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I379" s="4">
+        <v>10.0</v>
       </c>
       <c r="J379" s="2">
         <v>0.0</v>
@@ -10690,9 +10317,8 @@
       <c r="H380" s="2">
         <v>1.0</v>
       </c>
-      <c r="I380" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I380" s="4">
+        <v>20.0</v>
       </c>
       <c r="J380" s="2">
         <v>0.0</v>
@@ -10717,9 +10343,8 @@
       <c r="H381" s="2">
         <v>1.0</v>
       </c>
-      <c r="I381" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I381" s="4">
+        <v>30.0</v>
       </c>
       <c r="J381" s="2">
         <v>0.0</v>
@@ -10742,11 +10367,10 @@
         <v>81.06601</v>
       </c>
       <c r="H382" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I382" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="I382" s="4">
+        <v>15.0</v>
       </c>
       <c r="J382" s="2">
         <v>0.0</v>
@@ -10769,11 +10393,10 @@
         <v>81.06601</v>
       </c>
       <c r="H383" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I383" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I383" s="4">
+        <v>20.0</v>
       </c>
       <c r="J383" s="2">
         <v>0.0</v>
@@ -10798,9 +10421,8 @@
       <c r="H384" s="2">
         <v>1.0</v>
       </c>
-      <c r="I384" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I384" s="4">
+        <v>10.0</v>
       </c>
       <c r="J384" s="2">
         <v>0.0</v>
@@ -10823,11 +10445,10 @@
         <v>81.06601</v>
       </c>
       <c r="H385" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I385" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="I385" s="4">
+        <v>30.0</v>
       </c>
       <c r="J385" s="2">
         <v>0.0</v>
@@ -10852,9 +10473,8 @@
       <c r="H386" s="2">
         <v>1.0</v>
       </c>
-      <c r="I386" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I386" s="4">
+        <v>30.0</v>
       </c>
       <c r="J386" s="2">
         <v>0.0</v>
@@ -10879,9 +10499,8 @@
       <c r="H387" s="2">
         <v>1.0</v>
       </c>
-      <c r="I387" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I387" s="4">
+        <v>10.0</v>
       </c>
       <c r="J387" s="2">
         <v>0.0</v>
@@ -10906,9 +10525,8 @@
       <c r="H388" s="2">
         <v>1.0</v>
       </c>
-      <c r="I388" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I388" s="4">
+        <v>15.0</v>
       </c>
       <c r="J388" s="2">
         <v>0.0</v>
@@ -10933,9 +10551,8 @@
       <c r="H389" s="2">
         <v>1.0</v>
       </c>
-      <c r="I389" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I389" s="4">
+        <v>20.0</v>
       </c>
       <c r="J389" s="2">
         <v>0.0</v>
@@ -10960,9 +10577,8 @@
       <c r="H390" s="2">
         <v>1.0</v>
       </c>
-      <c r="I390" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I390" s="4">
+        <v>20.0</v>
       </c>
       <c r="J390" s="2">
         <v>0.0</v>
@@ -10987,9 +10603,8 @@
       <c r="H391" s="2">
         <v>1.0</v>
       </c>
-      <c r="I391" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I391" s="4">
+        <v>15.0</v>
       </c>
       <c r="J391" s="2">
         <v>0.0</v>
@@ -11014,9 +10629,8 @@
       <c r="H392" s="2">
         <v>1.0</v>
       </c>
-      <c r="I392" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I392" s="4">
+        <v>10.0</v>
       </c>
       <c r="J392" s="2">
         <v>0.0</v>
@@ -11041,9 +10655,8 @@
       <c r="H393" s="2">
         <v>1.0</v>
       </c>
-      <c r="I393" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I393" s="4">
+        <v>20.0</v>
       </c>
       <c r="J393" s="2">
         <v>0.0</v>
@@ -11068,9 +10681,8 @@
       <c r="H394" s="2">
         <v>1.0</v>
       </c>
-      <c r="I394" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I394" s="4">
+        <v>30.0</v>
       </c>
       <c r="J394" s="2">
         <v>0.0</v>
@@ -11093,11 +10705,10 @@
         <v>81.06593</v>
       </c>
       <c r="H395" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I395" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I395" s="4">
+        <v>15.0</v>
       </c>
       <c r="J395" s="2">
         <v>0.0</v>
@@ -11120,11 +10731,10 @@
         <v>81.06593</v>
       </c>
       <c r="H396" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I396" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3.0</v>
+      </c>
+      <c r="I396" s="4">
+        <v>20.0</v>
       </c>
       <c r="J396" s="2">
         <v>0.0</v>
@@ -11149,9 +10759,8 @@
       <c r="H397" s="2">
         <v>1.0</v>
       </c>
-      <c r="I397" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I397" s="4">
+        <v>10.0</v>
       </c>
       <c r="J397" s="2">
         <v>0.0</v>
@@ -11174,11 +10783,10 @@
         <v>81.06593</v>
       </c>
       <c r="H398" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I398" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3.0</v>
+      </c>
+      <c r="I398" s="4">
+        <v>30.0</v>
       </c>
       <c r="J398" s="2">
         <v>0.0</v>
@@ -11203,9 +10811,8 @@
       <c r="H399" s="2">
         <v>1.0</v>
       </c>
-      <c r="I399" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I399" s="4">
+        <v>20.0</v>
       </c>
       <c r="J399" s="2">
         <v>0.0</v>
@@ -11230,9 +10837,8 @@
       <c r="H400" s="2">
         <v>1.0</v>
       </c>
-      <c r="I400" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I400" s="4">
+        <v>20.0</v>
       </c>
       <c r="J400" s="2">
         <v>0.0</v>
@@ -11257,9 +10863,8 @@
       <c r="H401" s="2">
         <v>1.0</v>
       </c>
-      <c r="I401" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I401" s="4">
+        <v>15.0</v>
       </c>
       <c r="J401" s="2">
         <v>0.0</v>
@@ -11284,9 +10889,8 @@
       <c r="H402" s="2">
         <v>1.0</v>
       </c>
-      <c r="I402" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I402" s="4">
+        <v>10.0</v>
       </c>
       <c r="J402" s="2">
         <v>0.0</v>
@@ -11311,9 +10915,8 @@
       <c r="H403" s="2">
         <v>1.0</v>
       </c>
-      <c r="I403" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I403" s="4">
+        <v>20.0</v>
       </c>
       <c r="J403" s="2">
         <v>0.0</v>
@@ -11338,9 +10941,8 @@
       <c r="H404" s="2">
         <v>1.0</v>
       </c>
-      <c r="I404" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I404" s="4">
+        <v>30.0</v>
       </c>
       <c r="J404" s="2">
         <v>0.0</v>
@@ -11363,11 +10965,10 @@
         <v>81.06594</v>
       </c>
       <c r="H405" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I405" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.0</v>
+      </c>
+      <c r="I405" s="4">
+        <v>15.0</v>
       </c>
       <c r="J405" s="2">
         <v>0.0</v>
@@ -11390,11 +10991,10 @@
         <v>81.06597</v>
       </c>
       <c r="H406" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I406" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3.0</v>
+      </c>
+      <c r="I406" s="4">
+        <v>20.0</v>
       </c>
       <c r="J406" s="2">
         <v>0.0</v>
@@ -11419,9 +11019,8 @@
       <c r="H407" s="2">
         <v>1.0</v>
       </c>
-      <c r="I407" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I407" s="4">
+        <v>10.0</v>
       </c>
       <c r="J407" s="2">
         <v>0.0</v>
@@ -11446,9 +11045,8 @@
       <c r="H408" s="2">
         <v>1.0</v>
       </c>
-      <c r="I408" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I408" s="4">
+        <v>30.0</v>
       </c>
       <c r="J408" s="2">
         <v>0.0</v>
@@ -11473,9 +11071,8 @@
       <c r="H409" s="2">
         <v>1.0</v>
       </c>
-      <c r="I409" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="I409" s="4">
+        <v>10.0</v>
       </c>
       <c r="J409" s="2">
         <v>0.0</v>

--- a/pythonproject/src/realtime.xlsx
+++ b/pythonproject/src/realtime.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="zzQnuJ06mwmsw9GePV9kvd4KJFDWlzmp/feYWmdJL4o="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="sWiX3032AScMvQdSUyh746xPeWNK3RJAexxvuOiT3Ec="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -55,36 +55,6 @@
   </si>
   <si>
     <t>D8</t>
-  </si>
-  <si>
-    <t>Excavator-1</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Moving</t>
-  </si>
-  <si>
-    <t>Bulldozer-2</t>
-  </si>
-  <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>Crane-3</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Stopped</t>
-  </si>
-  <si>
-    <t>Loader-4</t>
-  </si>
-  <si>
-    <t>DumpTruck-5</t>
   </si>
 </sst>
 </file>
@@ -146,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -157,12 +127,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,18 +340,16 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3.0" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="E2" sqref="E2" pane="topRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="10.57"/>
-    <col customWidth="1" min="3" max="3" width="21.14"/>
-    <col customWidth="1" min="4" max="4" width="17.14"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="3" width="17.29"/>
+    <col customWidth="1" min="4" max="4" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="15.71"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,7 +433,7 @@
         <v>3.0</v>
       </c>
       <c r="I3" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J3" s="2">
         <v>0.0</v>
@@ -481,8 +443,8 @@
       <c r="A4" s="2">
         <v>4348.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>45925.33930555556</v>
@@ -523,7 +485,7 @@
         <v>5.0</v>
       </c>
       <c r="I5" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J5" s="2">
         <v>10.0</v>
@@ -533,8 +495,8 @@
       <c r="A6" s="2">
         <v>4370.0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>45925.34835648148</v>
@@ -549,7 +511,7 @@
         <v>5.0</v>
       </c>
       <c r="I6" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J6" s="2">
         <v>10.0</v>
@@ -559,8 +521,8 @@
       <c r="A7" s="2">
         <v>4371.0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>45925.34858796297</v>
@@ -575,7 +537,7 @@
         <v>5.0</v>
       </c>
       <c r="I7" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J7" s="2">
         <v>10.0</v>
@@ -601,7 +563,7 @@
         <v>2.0</v>
       </c>
       <c r="I8" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J8" s="2">
         <v>10.0</v>
@@ -627,7 +589,7 @@
         <v>2.0</v>
       </c>
       <c r="I9" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J9" s="2">
         <v>10.0</v>
@@ -679,7 +641,7 @@
         <v>2.0</v>
       </c>
       <c r="I11" s="4">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="J11" s="2">
         <v>10.0</v>
@@ -705,7 +667,7 @@
         <v>10.0</v>
       </c>
       <c r="I12" s="4">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="J12" s="2">
         <v>0.0</v>
@@ -715,8 +677,8 @@
       <c r="A13" s="2">
         <v>4396.0</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>45925.35768518518</v>
@@ -730,8 +692,8 @@
       <c r="H13" s="2">
         <v>3.0</v>
       </c>
-      <c r="I13" s="4">
-        <v>15.0</v>
+      <c r="I13" s="2">
+        <v>10.0</v>
       </c>
       <c r="J13" s="2">
         <v>0.0</v>
@@ -741,8 +703,8 @@
       <c r="A14" s="2">
         <v>4397.0</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>45925.35791666667</v>
@@ -756,8 +718,8 @@
       <c r="H14" s="2">
         <v>3.0</v>
       </c>
-      <c r="I14" s="4">
-        <v>20.0</v>
+      <c r="I14" s="2">
+        <v>10.0</v>
       </c>
       <c r="J14" s="2">
         <v>0.0</v>
@@ -767,8 +729,8 @@
       <c r="A15" s="2">
         <v>4398.0</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="3">
         <v>45925.35814814815</v>
@@ -783,7 +745,7 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J15" s="2">
         <v>0.0</v>
@@ -809,7 +771,7 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" s="2">
         <v>0.0</v>
@@ -835,7 +797,7 @@
         <v>3.0</v>
       </c>
       <c r="I17" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J17" s="2">
         <v>0.0</v>
@@ -845,8 +807,8 @@
       <c r="A18" s="2">
         <v>4401.0</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>45925.35884259259</v>
@@ -861,7 +823,7 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J18" s="2">
         <v>0.0</v>
@@ -887,7 +849,7 @@
         <v>3.0</v>
       </c>
       <c r="I19" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J19" s="2">
         <v>0.0</v>
@@ -897,8 +859,8 @@
       <c r="A20" s="2">
         <v>4403.0</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="3">
         <v>45925.35930555555</v>
@@ -913,7 +875,7 @@
         <v>2.0</v>
       </c>
       <c r="I20" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J20" s="2">
         <v>0.0</v>
@@ -923,8 +885,8 @@
       <c r="A21" s="2">
         <v>4404.0</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>45925.35953703704</v>
@@ -964,7 +926,7 @@
       <c r="H22" s="2">
         <v>2.0</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>10.0</v>
       </c>
       <c r="J22" s="2">
@@ -975,8 +937,8 @@
       <c r="A23" s="2">
         <v>4406.0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C23" s="3">
         <v>45925.36</v>
@@ -991,7 +953,7 @@
         <v>2.0</v>
       </c>
       <c r="I23" s="4">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="J23" s="2">
         <v>0.0</v>
@@ -1016,7 +978,7 @@
       <c r="H24" s="2">
         <v>3.0</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>10.0</v>
       </c>
       <c r="J24" s="2">
@@ -1027,8 +989,8 @@
       <c r="A25" s="2">
         <v>4408.0</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C25" s="3">
         <v>45925.36046296296</v>
@@ -1042,8 +1004,8 @@
       <c r="H25" s="2">
         <v>1.0</v>
       </c>
-      <c r="I25" s="4">
-        <v>20.0</v>
+      <c r="I25" s="2">
+        <v>10.0</v>
       </c>
       <c r="J25" s="2">
         <v>0.0</v>
@@ -1053,8 +1015,8 @@
       <c r="A26" s="2">
         <v>4409.0</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="3">
         <v>45925.36069444445</v>
@@ -1069,7 +1031,7 @@
         <v>1.0</v>
       </c>
       <c r="I26" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J26" s="2">
         <v>0.0</v>
@@ -1095,7 +1057,7 @@
         <v>1.0</v>
       </c>
       <c r="I27" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J27" s="2">
         <v>0.0</v>
@@ -1121,7 +1083,7 @@
         <v>1.0</v>
       </c>
       <c r="I28" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J28" s="2">
         <v>0.0</v>
@@ -1147,7 +1109,7 @@
         <v>1.0</v>
       </c>
       <c r="I29" s="4">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="J29" s="2">
         <v>0.0</v>
@@ -1172,7 +1134,7 @@
       <c r="H30" s="2">
         <v>1.0</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>10.0</v>
       </c>
       <c r="J30" s="2">
@@ -1183,8 +1145,8 @@
       <c r="A31" s="2">
         <v>4414.0</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="3">
         <v>45925.36162037037</v>
@@ -1198,8 +1160,8 @@
       <c r="H31" s="2">
         <v>1.0</v>
       </c>
-      <c r="I31" s="4">
-        <v>30.0</v>
+      <c r="I31" s="2">
+        <v>10.0</v>
       </c>
       <c r="J31" s="2">
         <v>0.0</v>
@@ -1224,8 +1186,8 @@
       <c r="H32" s="2">
         <v>1.0</v>
       </c>
-      <c r="I32" s="4">
-        <v>10.0</v>
+      <c r="I32" s="2">
+        <v>0.0</v>
       </c>
       <c r="J32" s="2">
         <v>0.0</v>
@@ -1250,8 +1212,8 @@
       <c r="H33" s="2">
         <v>1.0</v>
       </c>
-      <c r="I33" s="4">
-        <v>15.0</v>
+      <c r="I33" s="2">
+        <v>10.0</v>
       </c>
       <c r="J33" s="2">
         <v>0.0</v>
@@ -1302,8 +1264,8 @@
       <c r="H35" s="2">
         <v>1.0</v>
       </c>
-      <c r="I35" s="4">
-        <v>20.0</v>
+      <c r="I35" s="2">
+        <v>10.0</v>
       </c>
       <c r="J35" s="2">
         <v>0.0</v>
@@ -1329,7 +1291,7 @@
         <v>1.0</v>
       </c>
       <c r="I36" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J36" s="2">
         <v>0.0</v>
@@ -1354,7 +1316,7 @@
       <c r="H37" s="2">
         <v>1.0</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="2">
         <v>10.0</v>
       </c>
       <c r="J37" s="2">
@@ -1407,7 +1369,7 @@
         <v>1.0</v>
       </c>
       <c r="I39" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J39" s="2">
         <v>0.0</v>
@@ -1433,7 +1395,7 @@
         <v>1.0</v>
       </c>
       <c r="I40" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J40" s="2">
         <v>0.0</v>
@@ -1459,7 +1421,7 @@
         <v>1.0</v>
       </c>
       <c r="I41" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J41" s="2">
         <v>0.0</v>
@@ -1485,7 +1447,7 @@
         <v>1.0</v>
       </c>
       <c r="I42" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J42" s="2">
         <v>0.0</v>
@@ -1511,7 +1473,7 @@
         <v>1.0</v>
       </c>
       <c r="I43" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J43" s="2">
         <v>0.0</v>
@@ -1537,7 +1499,7 @@
         <v>1.0</v>
       </c>
       <c r="I44" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J44" s="2">
         <v>0.0</v>
@@ -1562,8 +1524,8 @@
       <c r="H45" s="2">
         <v>2.0</v>
       </c>
-      <c r="I45" s="4">
-        <v>15.0</v>
+      <c r="I45" s="2">
+        <v>10.0</v>
       </c>
       <c r="J45" s="2">
         <v>0.0</v>
@@ -1589,7 +1551,7 @@
         <v>1.0</v>
       </c>
       <c r="I46" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J46" s="2">
         <v>0.0</v>
@@ -1614,7 +1576,7 @@
       <c r="H47" s="2">
         <v>2.0</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="2">
         <v>10.0</v>
       </c>
       <c r="J47" s="2">
@@ -1641,7 +1603,7 @@
         <v>1.0</v>
       </c>
       <c r="I48" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J48" s="2">
         <v>0.0</v>
@@ -1666,8 +1628,8 @@
       <c r="H49" s="2">
         <v>1.0</v>
       </c>
-      <c r="I49" s="4">
-        <v>15.0</v>
+      <c r="I49" s="2">
+        <v>10.0</v>
       </c>
       <c r="J49" s="2">
         <v>0.0</v>
@@ -1718,8 +1680,8 @@
       <c r="H51" s="2">
         <v>1.0</v>
       </c>
-      <c r="I51" s="4">
-        <v>15.0</v>
+      <c r="I51" s="2">
+        <v>10.0</v>
       </c>
       <c r="J51" s="2">
         <v>0.0</v>
@@ -1771,7 +1733,7 @@
         <v>1.0</v>
       </c>
       <c r="I53" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J53" s="2">
         <v>0.0</v>
@@ -1797,7 +1759,7 @@
         <v>1.0</v>
       </c>
       <c r="I54" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J54" s="2">
         <v>0.0</v>
@@ -1849,7 +1811,7 @@
         <v>1.0</v>
       </c>
       <c r="I56" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J56" s="2">
         <v>0.0</v>
@@ -1874,8 +1836,8 @@
       <c r="H57" s="2">
         <v>1.0</v>
       </c>
-      <c r="I57" s="4">
-        <v>20.0</v>
+      <c r="I57" s="2">
+        <v>10.0</v>
       </c>
       <c r="J57" s="2">
         <v>0.0</v>
@@ -1901,7 +1863,7 @@
         <v>1.0</v>
       </c>
       <c r="I58" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J58" s="2">
         <v>0.0</v>
@@ -1927,7 +1889,7 @@
         <v>1.0</v>
       </c>
       <c r="I59" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J59" s="2">
         <v>0.0</v>
@@ -1953,7 +1915,7 @@
         <v>1.0</v>
       </c>
       <c r="I60" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J60" s="2">
         <v>0.0</v>
@@ -1978,7 +1940,7 @@
       <c r="H61" s="2">
         <v>1.0</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="2">
         <v>10.0</v>
       </c>
       <c r="J61" s="2">
@@ -2005,7 +1967,7 @@
         <v>1.0</v>
       </c>
       <c r="I62" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J62" s="2">
         <v>0.0</v>
@@ -2031,7 +1993,7 @@
         <v>1.0</v>
       </c>
       <c r="I63" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J63" s="2">
         <v>0.0</v>
@@ -2057,7 +2019,7 @@
         <v>1.0</v>
       </c>
       <c r="I64" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J64" s="2">
         <v>0.0</v>
@@ -2083,7 +2045,7 @@
         <v>1.0</v>
       </c>
       <c r="I65" s="4">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J65" s="2">
         <v>0.0</v>
@@ -2109,7 +2071,7 @@
         <v>1.0</v>
       </c>
       <c r="I66" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J66" s="2">
         <v>0.0</v>
@@ -2135,7 +2097,7 @@
         <v>1.0</v>
       </c>
       <c r="I67" s="4">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J67" s="2">
         <v>0.0</v>
@@ -2161,7 +2123,7 @@
         <v>1.0</v>
       </c>
       <c r="I68" s="4">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J68" s="2">
         <v>0.0</v>
@@ -2186,8 +2148,8 @@
       <c r="H69" s="2">
         <v>2.0</v>
       </c>
-      <c r="I69" s="4">
-        <v>30.0</v>
+      <c r="I69" s="2">
+        <v>10.0</v>
       </c>
       <c r="J69" s="2">
         <v>0.0</v>
@@ -2213,7 +2175,7 @@
         <v>1.0</v>
       </c>
       <c r="I70" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J70" s="2">
         <v>0.0</v>
@@ -2239,7 +2201,7 @@
         <v>2.0</v>
       </c>
       <c r="I71" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J71" s="2">
         <v>0.0</v>
@@ -2265,7 +2227,7 @@
         <v>1.0</v>
       </c>
       <c r="I72" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J72" s="2">
         <v>0.0</v>
@@ -2291,7 +2253,7 @@
         <v>1.0</v>
       </c>
       <c r="I73" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J73" s="2">
         <v>0.0</v>
@@ -2317,7 +2279,7 @@
         <v>1.0</v>
       </c>
       <c r="I74" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J74" s="2">
         <v>0.0</v>
@@ -2343,7 +2305,7 @@
         <v>1.0</v>
       </c>
       <c r="I75" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J75" s="2">
         <v>0.0</v>
@@ -2369,7 +2331,7 @@
         <v>1.0</v>
       </c>
       <c r="I76" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J76" s="2">
         <v>0.0</v>
@@ -2395,7 +2357,7 @@
         <v>1.0</v>
       </c>
       <c r="I77" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J77" s="2">
         <v>0.0</v>
@@ -2421,7 +2383,7 @@
         <v>1.0</v>
       </c>
       <c r="I78" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J78" s="2">
         <v>0.0</v>
@@ -2447,7 +2409,7 @@
         <v>1.0</v>
       </c>
       <c r="I79" s="4">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="J79" s="2">
         <v>0.0</v>
@@ -2473,7 +2435,7 @@
         <v>1.0</v>
       </c>
       <c r="I80" s="4">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J80" s="2">
         <v>0.0</v>
@@ -2498,8 +2460,8 @@
       <c r="H81" s="2">
         <v>1.0</v>
       </c>
-      <c r="I81" s="4">
-        <v>20.0</v>
+      <c r="I81" s="2">
+        <v>10.0</v>
       </c>
       <c r="J81" s="2">
         <v>0.0</v>
@@ -2525,7 +2487,7 @@
         <v>1.0</v>
       </c>
       <c r="I82" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J82" s="2">
         <v>0.0</v>
@@ -2551,7 +2513,7 @@
         <v>1.0</v>
       </c>
       <c r="I83" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J83" s="2">
         <v>0.0</v>
@@ -2577,7 +2539,7 @@
         <v>1.0</v>
       </c>
       <c r="I84" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J84" s="2">
         <v>0.0</v>
@@ -2603,7 +2565,7 @@
         <v>1.0</v>
       </c>
       <c r="I85" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J85" s="2">
         <v>0.0</v>
@@ -2733,7 +2695,7 @@
         <v>1.0</v>
       </c>
       <c r="I90" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J90" s="2">
         <v>0.0</v>
@@ -2759,7 +2721,7 @@
         <v>2.0</v>
       </c>
       <c r="I91" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J91" s="2">
         <v>20.0</v>
@@ -2785,7 +2747,7 @@
         <v>1.0</v>
       </c>
       <c r="I92" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J92" s="2">
         <v>20.0</v>
@@ -2795,8 +2757,8 @@
       <c r="A93" s="2">
         <v>4476.0</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>12</v>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C93" s="3">
         <v>45925.36902777778</v>
@@ -2811,7 +2773,7 @@
         <v>1.0</v>
       </c>
       <c r="I93" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J93" s="2">
         <v>0.0</v>
@@ -2840,7 +2802,7 @@
         <v>10.0</v>
       </c>
       <c r="J94" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -2860,10 +2822,10 @@
         <v>81.06404</v>
       </c>
       <c r="H95" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I95" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J95" s="2">
         <v>0.0</v>
@@ -2873,8 +2835,8 @@
       <c r="A96" s="2">
         <v>4479.0</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>12</v>
+      <c r="B96" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C96" s="3">
         <v>45925.36972222223</v>
@@ -2889,7 +2851,7 @@
         <v>1.0</v>
       </c>
       <c r="I96" s="4">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="J96" s="2">
         <v>0.0</v>
@@ -2915,7 +2877,7 @@
         <v>1.0</v>
       </c>
       <c r="I97" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J97" s="2">
         <v>0.0</v>
@@ -2941,7 +2903,7 @@
         <v>1.0</v>
       </c>
       <c r="I98" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J98" s="2">
         <v>0.0</v>
@@ -2951,8 +2913,8 @@
       <c r="A99" s="2">
         <v>4482.0</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>11</v>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C99" s="3">
         <v>45925.37041666666</v>
@@ -2964,10 +2926,10 @@
         <v>81.06396</v>
       </c>
       <c r="H99" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I99" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J99" s="2">
         <v>0.0</v>
@@ -2977,8 +2939,8 @@
       <c r="A100" s="2">
         <v>4483.0</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>12</v>
+      <c r="B100" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C100" s="3">
         <v>45925.37064814815</v>
@@ -2993,7 +2955,7 @@
         <v>1.0</v>
       </c>
       <c r="I100" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J100" s="2">
         <v>0.0</v>
@@ -3019,7 +2981,7 @@
         <v>1.0</v>
       </c>
       <c r="I101" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J101" s="2">
         <v>0.0</v>
@@ -3029,8 +2991,8 @@
       <c r="A102" s="2">
         <v>4485.0</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>12</v>
+      <c r="B102" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C102" s="3">
         <v>45925.37111111111</v>
@@ -3042,10 +3004,10 @@
         <v>81.06422</v>
       </c>
       <c r="H102" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I102" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J102" s="2">
         <v>0.0</v>
@@ -3068,10 +3030,10 @@
         <v>81.06422</v>
       </c>
       <c r="H103" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I103" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J103" s="2">
         <v>0.0</v>
@@ -3081,8 +3043,8 @@
       <c r="A104" s="2">
         <v>4487.0</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>11</v>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C104" s="3">
         <v>45925.37157407407</v>
@@ -3094,21 +3056,21 @@
         <v>81.06421</v>
       </c>
       <c r="H104" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I104" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J104" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2">
         <v>4488.0</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>12</v>
+      <c r="B105" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C105" s="3">
         <v>45925.37180555556</v>
@@ -3122,8 +3084,8 @@
       <c r="H105" s="2">
         <v>1.0</v>
       </c>
-      <c r="I105" s="4">
-        <v>30.0</v>
+      <c r="I105" s="2">
+        <v>10.0</v>
       </c>
       <c r="J105" s="2">
         <v>0.0</v>
@@ -3178,15 +3140,15 @@
         <v>15.0</v>
       </c>
       <c r="J107" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2">
         <v>4491.0</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>12</v>
+      <c r="B108" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C108" s="3">
         <v>45925.3725</v>
@@ -3227,18 +3189,18 @@
         <v>1.0</v>
       </c>
       <c r="I109" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J109" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2">
         <v>4493.0</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>12</v>
+      <c r="B110" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C110" s="3">
         <v>45925.37296296296</v>
@@ -3253,10 +3215,10 @@
         <v>1.0</v>
       </c>
       <c r="I110" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J110" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -3276,13 +3238,13 @@
         <v>81.06559</v>
       </c>
       <c r="H111" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I111" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J111" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -3305,10 +3267,10 @@
         <v>1.0</v>
       </c>
       <c r="I112" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J112" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -3328,10 +3290,10 @@
         <v>81.06679</v>
       </c>
       <c r="H113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I113" s="4">
-        <v>10.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I113" s="2">
+        <v>20.0</v>
       </c>
       <c r="J113" s="2">
         <v>0.0</v>
@@ -3341,8 +3303,8 @@
       <c r="A114" s="2">
         <v>4497.0</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>12</v>
+      <c r="B114" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C114" s="3">
         <v>45925.37388888889</v>
@@ -3354,10 +3316,10 @@
         <v>81.06697</v>
       </c>
       <c r="H114" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I114" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I114" s="2">
+        <v>10.0</v>
       </c>
       <c r="J114" s="2">
         <v>10.0</v>
@@ -3380,10 +3342,10 @@
         <v>81.06699</v>
       </c>
       <c r="H115" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I115" s="4">
-        <v>20.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I115" s="2">
+        <v>10.0</v>
       </c>
       <c r="J115" s="2">
         <v>0.0</v>
@@ -3409,7 +3371,7 @@
         <v>1.0</v>
       </c>
       <c r="I116" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J116" s="2">
         <v>10.0</v>
@@ -3432,10 +3394,10 @@
         <v>81.06634</v>
       </c>
       <c r="H117" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I117" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J117" s="2">
         <v>10.0</v>
@@ -3458,10 +3420,10 @@
         <v>81.06628</v>
       </c>
       <c r="H118" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I118" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J118" s="2">
         <v>10.0</v>
@@ -3484,10 +3446,10 @@
         <v>81.06627</v>
       </c>
       <c r="H119" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I119" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J119" s="2">
         <v>10.0</v>
@@ -3497,8 +3459,8 @@
       <c r="A120" s="2">
         <v>4503.0</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>12</v>
+      <c r="B120" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C120" s="3">
         <v>45925.37586805555</v>
@@ -3510,10 +3472,10 @@
         <v>81.06623</v>
       </c>
       <c r="H120" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I120" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J120" s="2">
         <v>10.0</v>
@@ -3536,10 +3498,10 @@
         <v>81.06626</v>
       </c>
       <c r="H121" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I121" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J121" s="2">
         <v>10.0</v>
@@ -3562,10 +3524,10 @@
         <v>81.06625</v>
       </c>
       <c r="H122" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I122" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J122" s="2">
         <v>10.0</v>
@@ -3575,8 +3537,8 @@
       <c r="A123" s="2">
         <v>4506.0</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>12</v>
+      <c r="B123" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C123" s="3">
         <v>45925.37660879629</v>
@@ -3591,7 +3553,7 @@
         <v>1.0</v>
       </c>
       <c r="I123" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J123" s="2">
         <v>10.0</v>
@@ -3617,7 +3579,7 @@
         <v>1.0</v>
       </c>
       <c r="I124" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J124" s="2">
         <v>10.0</v>
@@ -3627,8 +3589,8 @@
       <c r="A125" s="2">
         <v>4508.0</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>12</v>
+      <c r="B125" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C125" s="3">
         <v>45925.37707175926</v>
@@ -3643,7 +3605,7 @@
         <v>1.0</v>
       </c>
       <c r="I125" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J125" s="2">
         <v>10.0</v>
@@ -3653,8 +3615,8 @@
       <c r="A126" s="2">
         <v>4509.0</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>11</v>
+      <c r="B126" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C126" s="3">
         <v>45925.37730324074</v>
@@ -3669,7 +3631,7 @@
         <v>1.0</v>
       </c>
       <c r="I126" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J126" s="2">
         <v>10.0</v>
@@ -3695,7 +3657,7 @@
         <v>1.0</v>
       </c>
       <c r="I127" s="4">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J127" s="2">
         <v>10.0</v>
@@ -3705,8 +3667,8 @@
       <c r="A128" s="2">
         <v>4511.0</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>12</v>
+      <c r="B128" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C128" s="3">
         <v>45925.3777662037</v>
@@ -3718,10 +3680,10 @@
         <v>81.06622</v>
       </c>
       <c r="H128" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I128" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J128" s="2">
         <v>10.0</v>
@@ -3744,10 +3706,10 @@
         <v>81.06621</v>
       </c>
       <c r="H129" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I129" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J129" s="2">
         <v>10.0</v>
@@ -3773,7 +3735,7 @@
         <v>1.0</v>
       </c>
       <c r="I130" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J130" s="2">
         <v>10.0</v>
@@ -3783,8 +3745,8 @@
       <c r="A131" s="2">
         <v>4514.0</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>12</v>
+      <c r="B131" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C131" s="3">
         <v>45925.37846064815</v>
@@ -3796,10 +3758,10 @@
         <v>81.0662</v>
       </c>
       <c r="H131" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I131" s="4">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J131" s="2">
         <v>10.0</v>
@@ -3822,10 +3784,10 @@
         <v>81.06623</v>
       </c>
       <c r="H132" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I132" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J132" s="2">
         <v>10.0</v>
@@ -3835,8 +3797,8 @@
       <c r="A133" s="2">
         <v>4516.0</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>12</v>
+      <c r="B133" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C133" s="3">
         <v>45925.37893518519</v>
@@ -3848,7 +3810,7 @@
         <v>81.06625</v>
       </c>
       <c r="H133" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I133" s="4">
         <v>15.0</v>
@@ -3874,10 +3836,10 @@
         <v>81.06623</v>
       </c>
       <c r="H134" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I134" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J134" s="2">
         <v>10.0</v>
@@ -3887,8 +3849,8 @@
       <c r="A135" s="2">
         <v>4518.0</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>11</v>
+      <c r="B135" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C135" s="3">
         <v>45925.37980324074</v>
@@ -3900,10 +3862,10 @@
         <v>81.06602</v>
       </c>
       <c r="H135" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I135" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J135" s="2">
         <v>10.0</v>
@@ -3913,8 +3875,8 @@
       <c r="A136" s="2">
         <v>4519.0</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>12</v>
+      <c r="B136" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C136" s="3">
         <v>45925.38003472222</v>
@@ -3926,10 +3888,10 @@
         <v>81.06606</v>
       </c>
       <c r="H136" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I136" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J136" s="2">
         <v>10.0</v>
@@ -3955,7 +3917,7 @@
         <v>1.0</v>
       </c>
       <c r="I137" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J137" s="2">
         <v>10.0</v>
@@ -3978,10 +3940,10 @@
         <v>81.06603</v>
       </c>
       <c r="H138" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I138" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J138" s="2">
         <v>10.0</v>
@@ -3991,8 +3953,8 @@
       <c r="A139" s="2">
         <v>4522.0</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>12</v>
+      <c r="B139" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C139" s="3">
         <v>45925.38072916667</v>
@@ -4007,7 +3969,7 @@
         <v>1.0</v>
       </c>
       <c r="I139" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J139" s="2">
         <v>0.0</v>
@@ -4023,134 +3985,98 @@
       <c r="C140" s="3">
         <v>45925.46310185185</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E140" s="2">
         <v>12.345678</v>
       </c>
       <c r="F140" s="2">
         <v>98.765432</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H140" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I140" s="4">
         <v>20.0</v>
       </c>
       <c r="J140" s="2">
         <v>20.0</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2">
         <v>4524.0</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>12</v>
+      <c r="B141" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C141" s="3">
         <v>45925.46310185185</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E141" s="2">
         <v>13.456789</v>
       </c>
       <c r="F141" s="2">
         <v>97.654321</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H141" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I141" s="4">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J141" s="2">
         <v>20.0</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2">
         <v>4525.0</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>11</v>
+      <c r="B142" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C142" s="3">
         <v>45925.46310185185</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E142" s="2">
         <v>14.56789</v>
       </c>
       <c r="F142" s="2">
         <v>96.54321</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H142" s="2">
-        <v>2.0</v>
+        <v>-3.0</v>
       </c>
       <c r="I142" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J142" s="2">
         <v>20.0</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2">
         <v>4526.0</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>12</v>
+      <c r="B143" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C143" s="3">
         <v>45925.46310185185</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E143" s="2">
         <v>15.678901</v>
       </c>
       <c r="F143" s="2">
         <v>95.432109</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H143" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I143" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J143" s="2">
         <v>20.0</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -4163,29 +4089,20 @@
       <c r="C144" s="3">
         <v>45925.46310185185</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E144" s="2">
         <v>16.789012</v>
       </c>
       <c r="F144" s="2">
         <v>94.321098</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H144" s="2">
         <v>1.0</v>
       </c>
       <c r="I144" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J144" s="2">
         <v>20.0</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
@@ -4205,10 +4122,10 @@
         <v>81.06565</v>
       </c>
       <c r="H145" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I145" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J145" s="2">
         <v>20.0</v>
@@ -4231,13 +4148,13 @@
         <v>81.06673</v>
       </c>
       <c r="H146" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I146" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J146" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="J146" s="4">
+        <v>10.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -4257,13 +4174,13 @@
         <v>81.06766</v>
       </c>
       <c r="H147" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I147" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I147" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J147" s="4">
         <v>15.0</v>
-      </c>
-      <c r="J147" s="2">
-        <v>0.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -4283,9 +4200,9 @@
         <v>81.06784</v>
       </c>
       <c r="H148" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I148" s="2">
         <v>10.0</v>
       </c>
       <c r="J148" s="2">
@@ -4296,8 +4213,8 @@
       <c r="A149" s="2">
         <v>4532.0</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>11</v>
+      <c r="B149" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C149" s="3">
         <v>45925.408125</v>
@@ -4309,21 +4226,21 @@
         <v>81.06795</v>
       </c>
       <c r="H149" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I149" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J149" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="J149" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2">
         <v>4533.0</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>12</v>
+      <c r="B150" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C150" s="3">
         <v>45925.40835648148</v>
@@ -4335,13 +4252,13 @@
         <v>81.06795</v>
       </c>
       <c r="H150" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I150" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J150" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="J150" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
@@ -4364,10 +4281,10 @@
         <v>1.0</v>
       </c>
       <c r="I151" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J151" s="2">
-        <v>10.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="J151" s="4">
+        <v>30.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
@@ -4390,7 +4307,7 @@
         <v>1.0</v>
       </c>
       <c r="I152" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J152" s="2">
         <v>10.0</v>
@@ -4400,8 +4317,8 @@
       <c r="A153" s="2">
         <v>4536.0</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>11</v>
+      <c r="B153" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C153" s="3">
         <v>45925.40905092593</v>
@@ -4415,11 +4332,11 @@
       <c r="H153" s="2">
         <v>1.0</v>
       </c>
-      <c r="I153" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J153" s="2">
-        <v>0.0</v>
+      <c r="I153" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J153" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
@@ -4441,11 +4358,11 @@
       <c r="H154" s="2">
         <v>1.0</v>
       </c>
-      <c r="I154" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J154" s="2">
-        <v>10.0</v>
+      <c r="I154" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J154" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
@@ -4468,18 +4385,18 @@
         <v>1.0</v>
       </c>
       <c r="I155" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="J155" s="4">
         <v>30.0</v>
-      </c>
-      <c r="J155" s="2">
-        <v>0.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2">
         <v>4539.0</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>12</v>
+      <c r="B156" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C156" s="3">
         <v>45925.40979166667</v>
@@ -4494,18 +4411,18 @@
         <v>1.0</v>
       </c>
       <c r="I156" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J156" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="J156" s="4">
+        <v>30.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2">
         <v>4540.0</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>11</v>
+      <c r="B157" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C157" s="3">
         <v>45925.41002314815</v>
@@ -4517,13 +4434,13 @@
         <v>81.06815</v>
       </c>
       <c r="H157" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I157" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J157" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="J157" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -4546,18 +4463,18 @@
         <v>1.0</v>
       </c>
       <c r="I158" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J158" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="J158" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2">
         <v>4542.0</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>11</v>
+      <c r="B159" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C159" s="3">
         <v>45925.41048611111</v>
@@ -4572,10 +4489,10 @@
         <v>1.0</v>
       </c>
       <c r="I159" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J159" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="J159" s="4">
+        <v>10.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -4598,18 +4515,18 @@
         <v>1.0</v>
       </c>
       <c r="I160" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J160" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="J160" s="4">
+        <v>10.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2">
         <v>4544.0</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>12</v>
+      <c r="B161" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C161" s="3">
         <v>45925.41118055556</v>
@@ -4624,18 +4541,18 @@
         <v>1.0</v>
       </c>
       <c r="I161" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J161" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="J161" s="4">
+        <v>15.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2">
         <v>4545.0</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>11</v>
+      <c r="B162" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C162" s="3">
         <v>45925.41256944444</v>
@@ -4650,10 +4567,10 @@
         <v>1.0</v>
       </c>
       <c r="I162" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J162" s="4">
         <v>15.0</v>
-      </c>
-      <c r="J162" s="2">
-        <v>0.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
@@ -4676,7 +4593,7 @@
         <v>1.0</v>
       </c>
       <c r="I163" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J163" s="2">
         <v>0.0</v>
@@ -4702,7 +4619,7 @@
         <v>1.0</v>
       </c>
       <c r="I164" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J164" s="2">
         <v>0.0</v>
@@ -4712,8 +4629,8 @@
       <c r="A165" s="2">
         <v>4548.0</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>11</v>
+      <c r="B165" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C165" s="3">
         <v>45925.42774305555</v>
@@ -4728,7 +4645,7 @@
         <v>1.0</v>
       </c>
       <c r="I165" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J165" s="2">
         <v>0.0</v>
@@ -4780,7 +4697,7 @@
         <v>1.0</v>
       </c>
       <c r="I167" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J167" s="2">
         <v>0.0</v>
@@ -4790,8 +4707,8 @@
       <c r="A168" s="2">
         <v>4551.0</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>11</v>
+      <c r="B168" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C168" s="3">
         <v>45925.4284375</v>
@@ -4805,8 +4722,8 @@
       <c r="H168" s="2">
         <v>1.0</v>
       </c>
-      <c r="I168" s="4">
-        <v>30.0</v>
+      <c r="I168" s="2">
+        <v>10.0</v>
       </c>
       <c r="J168" s="2">
         <v>0.0</v>
@@ -4816,8 +4733,8 @@
       <c r="A169" s="2">
         <v>4552.0</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>12</v>
+      <c r="B169" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C169" s="3">
         <v>45925.42866898148</v>
@@ -4829,10 +4746,10 @@
         <v>81.06775</v>
       </c>
       <c r="H169" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I169" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>10.0</v>
       </c>
       <c r="J169" s="2">
         <v>0.0</v>
@@ -4855,7 +4772,7 @@
         <v>81.06807</v>
       </c>
       <c r="H170" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I170" s="4">
         <v>20.0</v>
@@ -4884,7 +4801,7 @@
         <v>1.0</v>
       </c>
       <c r="I171" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J171" s="2">
         <v>0.0</v>
@@ -4894,8 +4811,8 @@
       <c r="A172" s="2">
         <v>4555.0</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>11</v>
+      <c r="B172" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C172" s="3">
         <v>45925.42936342592</v>
@@ -4907,10 +4824,10 @@
         <v>81.06816</v>
       </c>
       <c r="H172" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I172" s="4">
-        <v>30.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>10.0</v>
       </c>
       <c r="J172" s="2">
         <v>0.0</v>
@@ -4933,10 +4850,10 @@
         <v>81.06816</v>
       </c>
       <c r="H173" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I173" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J173" s="2">
         <v>0.0</v>
@@ -4959,10 +4876,10 @@
         <v>81.06825</v>
       </c>
       <c r="H174" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I174" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I174" s="2">
+        <v>10.0</v>
       </c>
       <c r="J174" s="2">
         <v>0.0</v>
@@ -4972,8 +4889,8 @@
       <c r="A175" s="2">
         <v>4558.0</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>11</v>
+      <c r="B175" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C175" s="3">
         <v>45925.43005787037</v>
@@ -4985,10 +4902,10 @@
         <v>81.06815</v>
       </c>
       <c r="H175" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I175" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J175" s="2">
         <v>0.0</v>
@@ -4998,8 +4915,8 @@
       <c r="A176" s="2">
         <v>4559.0</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>12</v>
+      <c r="B176" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C176" s="3">
         <v>45925.4303125</v>
@@ -5011,10 +4928,10 @@
         <v>81.0678</v>
       </c>
       <c r="H176" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I176" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J176" s="2">
         <v>0.0</v>
@@ -5040,7 +4957,7 @@
         <v>1.0</v>
       </c>
       <c r="I177" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J177" s="2">
         <v>20.0</v>
@@ -5065,8 +4982,8 @@
       <c r="H178" s="2">
         <v>1.0</v>
       </c>
-      <c r="I178" s="4">
-        <v>15.0</v>
+      <c r="I178" s="2">
+        <v>20.0</v>
       </c>
       <c r="J178" s="2">
         <v>0.0</v>
@@ -5076,8 +4993,8 @@
       <c r="A179" s="2">
         <v>4562.0</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>11</v>
+      <c r="B179" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C179" s="3">
         <v>45925.43100694445</v>
@@ -5091,7 +5008,7 @@
       <c r="H179" s="2">
         <v>1.0</v>
       </c>
-      <c r="I179" s="4">
+      <c r="I179" s="2">
         <v>10.0</v>
       </c>
       <c r="J179" s="2">
@@ -5117,8 +5034,8 @@
       <c r="H180" s="2">
         <v>1.0</v>
       </c>
-      <c r="I180" s="4">
-        <v>20.0</v>
+      <c r="I180" s="2">
+        <v>10.0</v>
       </c>
       <c r="J180" s="2">
         <v>30.0</v>
@@ -5144,7 +5061,7 @@
         <v>1.0</v>
       </c>
       <c r="I181" s="4">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J181" s="2">
         <v>10.0</v>
@@ -5154,8 +5071,8 @@
       <c r="A182" s="2">
         <v>4565.0</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>11</v>
+      <c r="B182" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C182" s="3">
         <v>45925.43171296296</v>
@@ -5167,10 +5084,10 @@
         <v>81.07021</v>
       </c>
       <c r="H182" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I182" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J182" s="2">
         <v>0.0</v>
@@ -5193,10 +5110,10 @@
         <v>81.07018</v>
       </c>
       <c r="H183" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I183" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J183" s="2">
         <v>0.0</v>
@@ -5206,8 +5123,8 @@
       <c r="A184" s="2">
         <v>4567.0</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>12</v>
+      <c r="B184" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C184" s="3">
         <v>45925.43217592593</v>
@@ -5222,7 +5139,7 @@
         <v>1.0</v>
       </c>
       <c r="I184" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J184" s="2">
         <v>0.0</v>
@@ -5245,10 +5162,10 @@
         <v>81.07016</v>
       </c>
       <c r="H185" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I185" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J185" s="2">
         <v>0.0</v>
@@ -5258,8 +5175,8 @@
       <c r="A186" s="2">
         <v>4569.0</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>11</v>
+      <c r="B186" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C186" s="3">
         <v>45925.43263888889</v>
@@ -5271,10 +5188,10 @@
         <v>81.07017</v>
       </c>
       <c r="H186" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I186" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J186" s="2">
         <v>0.0</v>
@@ -5297,10 +5214,10 @@
         <v>81.07017</v>
       </c>
       <c r="H187" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I187" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J187" s="2">
         <v>0.0</v>
@@ -5310,8 +5227,8 @@
       <c r="A188" s="2">
         <v>4571.0</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>11</v>
+      <c r="B188" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C188" s="3">
         <v>45925.43310185185</v>
@@ -5323,10 +5240,10 @@
         <v>81.07017</v>
       </c>
       <c r="H188" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I188" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J188" s="2">
         <v>0.0</v>
@@ -5349,7 +5266,7 @@
         <v>81.07017</v>
       </c>
       <c r="H189" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I189" s="4">
         <v>15.0</v>
@@ -5378,7 +5295,7 @@
         <v>1.0</v>
       </c>
       <c r="I190" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J190" s="2">
         <v>0.0</v>
@@ -5388,8 +5305,8 @@
       <c r="A191" s="2">
         <v>4574.0</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>11</v>
+      <c r="B191" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C191" s="3">
         <v>45925.4337962963</v>
@@ -5404,7 +5321,7 @@
         <v>1.0</v>
       </c>
       <c r="I191" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J191" s="2">
         <v>0.0</v>
@@ -5430,7 +5347,7 @@
         <v>1.0</v>
       </c>
       <c r="I192" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J192" s="2">
         <v>0.0</v>
@@ -5508,7 +5425,7 @@
         <v>1.0</v>
       </c>
       <c r="I195" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J195" s="2">
         <v>0.0</v>
@@ -5518,8 +5435,8 @@
       <c r="A196" s="2">
         <v>4579.0</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>11</v>
+      <c r="B196" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C196" s="3">
         <v>45925.43495370371</v>
@@ -5560,7 +5477,7 @@
         <v>1.0</v>
       </c>
       <c r="I197" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J197" s="2">
         <v>0.0</v>
@@ -5570,8 +5487,8 @@
       <c r="A198" s="2">
         <v>4581.0</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>11</v>
+      <c r="B198" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C198" s="3">
         <v>45925.43541666667</v>
@@ -5612,7 +5529,7 @@
         <v>1.0</v>
       </c>
       <c r="I199" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J199" s="2">
         <v>0.0</v>
@@ -5635,10 +5552,10 @@
         <v>81.07014</v>
       </c>
       <c r="H200" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I200" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J200" s="2">
         <v>0.0</v>
@@ -5661,10 +5578,10 @@
         <v>81.07012</v>
       </c>
       <c r="H201" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I201" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J201" s="2">
         <v>0.0</v>
@@ -5674,8 +5591,8 @@
       <c r="A202" s="2">
         <v>4585.0</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>11</v>
+      <c r="B202" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C202" s="3">
         <v>45925.43634259259</v>
@@ -5690,7 +5607,7 @@
         <v>1.0</v>
       </c>
       <c r="I202" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J202" s="2">
         <v>0.0</v>
@@ -5713,10 +5630,10 @@
         <v>81.07012</v>
       </c>
       <c r="H203" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I203" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J203" s="2">
         <v>0.0</v>
@@ -5739,10 +5656,10 @@
         <v>81.07012</v>
       </c>
       <c r="H204" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I204" s="4">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="J204" s="2">
         <v>0.0</v>
@@ -5765,10 +5682,10 @@
         <v>81.07013</v>
       </c>
       <c r="H205" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I205" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J205" s="2">
         <v>0.0</v>
@@ -5778,8 +5695,8 @@
       <c r="A206" s="2">
         <v>4589.0</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>11</v>
+      <c r="B206" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C206" s="3">
         <v>45925.43726851852</v>
@@ -5791,10 +5708,10 @@
         <v>81.07013</v>
       </c>
       <c r="H206" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I206" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J206" s="2">
         <v>0.0</v>
@@ -5817,10 +5734,10 @@
         <v>81.07012</v>
       </c>
       <c r="H207" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I207" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0.0</v>
       </c>
       <c r="J207" s="2">
         <v>0.0</v>
@@ -5846,7 +5763,7 @@
         <v>1.0</v>
       </c>
       <c r="I208" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J208" s="2">
         <v>0.0</v>
@@ -5872,7 +5789,7 @@
         <v>1.0</v>
       </c>
       <c r="I209" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J209" s="2">
         <v>0.0</v>
@@ -5882,8 +5799,8 @@
       <c r="A210" s="2">
         <v>4593.0</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>11</v>
+      <c r="B210" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C210" s="3">
         <v>45925.43819444445</v>
@@ -5895,10 +5812,10 @@
         <v>81.07013</v>
       </c>
       <c r="H210" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I210" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J210" s="2">
         <v>0.0</v>
@@ -5924,7 +5841,7 @@
         <v>1.0</v>
       </c>
       <c r="I211" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J211" s="2">
         <v>0.0</v>
@@ -5950,7 +5867,7 @@
         <v>1.0</v>
       </c>
       <c r="I212" s="4">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J212" s="2">
         <v>0.0</v>
@@ -5976,7 +5893,7 @@
         <v>1.0</v>
       </c>
       <c r="I213" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J213" s="2">
         <v>0.0</v>
@@ -5986,8 +5903,8 @@
       <c r="A214" s="2">
         <v>4597.0</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>11</v>
+      <c r="B214" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C214" s="3">
         <v>45925.43912037037</v>
@@ -6002,7 +5919,7 @@
         <v>1.0</v>
       </c>
       <c r="I214" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J214" s="2">
         <v>0.0</v>
@@ -6028,7 +5945,7 @@
         <v>1.0</v>
       </c>
       <c r="I215" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J215" s="2">
         <v>0.0</v>
@@ -6054,7 +5971,7 @@
         <v>1.0</v>
       </c>
       <c r="I216" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J216" s="2">
         <v>0.0</v>
@@ -6080,7 +5997,7 @@
         <v>1.0</v>
       </c>
       <c r="I217" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J217" s="2">
         <v>0.0</v>
@@ -6106,7 +6023,7 @@
         <v>1.0</v>
       </c>
       <c r="I218" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J218" s="2">
         <v>0.0</v>
@@ -6116,8 +6033,8 @@
       <c r="A219" s="2">
         <v>4602.0</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>11</v>
+      <c r="B219" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C219" s="3">
         <v>45925.44027777778</v>
@@ -6132,7 +6049,7 @@
         <v>1.0</v>
       </c>
       <c r="I219" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J219" s="2">
         <v>0.0</v>
@@ -6158,7 +6075,7 @@
         <v>1.0</v>
       </c>
       <c r="I220" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J220" s="2">
         <v>0.0</v>
@@ -6168,8 +6085,8 @@
       <c r="A221" s="2">
         <v>4604.0</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>11</v>
+      <c r="B221" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C221" s="3">
         <v>45925.44074074074</v>
@@ -6184,7 +6101,7 @@
         <v>1.0</v>
       </c>
       <c r="I221" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J221" s="2">
         <v>0.0</v>
@@ -6194,8 +6111,8 @@
       <c r="A222" s="2">
         <v>4605.0</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>12</v>
+      <c r="B222" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C222" s="3">
         <v>45925.44097222222</v>
@@ -6210,7 +6127,7 @@
         <v>1.0</v>
       </c>
       <c r="I222" s="4">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="J222" s="2">
         <v>20.0</v>
@@ -6220,8 +6137,8 @@
       <c r="A223" s="2">
         <v>4606.0</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>11</v>
+      <c r="B223" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C223" s="3">
         <v>45925.4412037037</v>
@@ -6233,10 +6150,10 @@
         <v>81.06994</v>
       </c>
       <c r="H223" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I223" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J223" s="2">
         <v>10.0</v>
@@ -6259,10 +6176,10 @@
         <v>81.0682</v>
       </c>
       <c r="H224" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I224" s="4">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="J224" s="2">
         <v>10.0</v>
@@ -6287,7 +6204,7 @@
       <c r="H225" s="2">
         <v>1.0</v>
       </c>
-      <c r="I225" s="4">
+      <c r="I225" s="2">
         <v>10.0</v>
       </c>
       <c r="J225" s="2">
@@ -6298,8 +6215,8 @@
       <c r="A226" s="2">
         <v>4609.0</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>11</v>
+      <c r="B226" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C226" s="3">
         <v>45925.44366898148</v>
@@ -6311,10 +6228,10 @@
         <v>81.06648</v>
       </c>
       <c r="H226" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I226" s="4">
-        <v>30.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I226" s="2">
+        <v>0.0</v>
       </c>
       <c r="J226" s="2">
         <v>0.0</v>
@@ -6337,9 +6254,9 @@
         <v>81.06606</v>
       </c>
       <c r="H227" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I227" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I227" s="2">
         <v>10.0</v>
       </c>
       <c r="J227" s="2">
@@ -6363,10 +6280,10 @@
         <v>81.06558</v>
       </c>
       <c r="H228" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I228" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I228" s="2">
+        <v>10.0</v>
       </c>
       <c r="J228" s="2">
         <v>20.0</v>
@@ -6389,10 +6306,10 @@
         <v>81.06539</v>
       </c>
       <c r="H229" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I229" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J229" s="2">
         <v>10.0</v>
@@ -6415,10 +6332,10 @@
         <v>81.06773</v>
       </c>
       <c r="H230" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I230" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I230" s="2">
+        <v>10.0</v>
       </c>
       <c r="J230" s="2">
         <v>0.0</v>
@@ -6470,7 +6387,7 @@
         <v>1.0</v>
       </c>
       <c r="I232" s="4">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J232" s="2">
         <v>0.0</v>
@@ -6496,7 +6413,7 @@
         <v>1.0</v>
       </c>
       <c r="I233" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J233" s="2">
         <v>0.0</v>
@@ -6506,8 +6423,8 @@
       <c r="A234" s="2">
         <v>4617.0</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>11</v>
+      <c r="B234" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C234" s="3">
         <v>45925.5194212963</v>
@@ -6522,7 +6439,7 @@
         <v>1.0</v>
       </c>
       <c r="I234" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J234" s="2">
         <v>10.0</v>
@@ -6532,8 +6449,8 @@
       <c r="A235" s="2">
         <v>4618.0</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>12</v>
+      <c r="B235" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C235" s="3">
         <v>45925.51965277778</v>
@@ -6547,8 +6464,8 @@
       <c r="H235" s="2">
         <v>1.0</v>
       </c>
-      <c r="I235" s="4">
-        <v>20.0</v>
+      <c r="I235" s="2">
+        <v>10.0</v>
       </c>
       <c r="J235" s="2">
         <v>0.0</v>
@@ -6558,8 +6475,8 @@
       <c r="A236" s="2">
         <v>4619.0</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>11</v>
+      <c r="B236" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C236" s="3">
         <v>45925.51988425926</v>
@@ -6573,8 +6490,8 @@
       <c r="H236" s="2">
         <v>1.0</v>
       </c>
-      <c r="I236" s="4">
-        <v>20.0</v>
+      <c r="I236" s="2">
+        <v>0.0</v>
       </c>
       <c r="J236" s="2">
         <v>10.0</v>
@@ -6625,7 +6542,7 @@
       <c r="H238" s="2">
         <v>1.0</v>
       </c>
-      <c r="I238" s="4">
+      <c r="I238" s="2">
         <v>10.0</v>
       </c>
       <c r="J238" s="2">
@@ -6652,7 +6569,7 @@
         <v>1.0</v>
       </c>
       <c r="I239" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J239" s="2">
         <v>0.0</v>
@@ -6662,8 +6579,8 @@
       <c r="A240" s="2">
         <v>4623.0</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>11</v>
+      <c r="B240" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C240" s="3">
         <v>45925.52127314815</v>
@@ -6678,7 +6595,7 @@
         <v>1.0</v>
       </c>
       <c r="I240" s="4">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J240" s="2">
         <v>0.0</v>
@@ -6701,10 +6618,10 @@
         <v>81.06811</v>
       </c>
       <c r="H241" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I241" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I241" s="2">
+        <v>10.0</v>
       </c>
       <c r="J241" s="2">
         <v>0.0</v>
@@ -6714,8 +6631,8 @@
       <c r="A242" s="2">
         <v>4625.0</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>12</v>
+      <c r="B242" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C242" s="3">
         <v>45925.52196759259</v>
@@ -6727,10 +6644,10 @@
         <v>81.06811</v>
       </c>
       <c r="H242" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I242" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J242" s="2">
         <v>0.0</v>
@@ -6755,7 +6672,7 @@
       <c r="H243" s="2">
         <v>1.0</v>
       </c>
-      <c r="I243" s="4">
+      <c r="I243" s="2">
         <v>10.0</v>
       </c>
       <c r="J243" s="2">
@@ -6779,10 +6696,10 @@
         <v>81.068</v>
       </c>
       <c r="H244" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I244" s="4">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="J244" s="2">
         <v>10.0</v>
@@ -6792,8 +6709,8 @@
       <c r="A245" s="2">
         <v>4628.0</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>11</v>
+      <c r="B245" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C245" s="3">
         <v>45925.52443287037</v>
@@ -6805,10 +6722,10 @@
         <v>81.06661</v>
       </c>
       <c r="H245" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I245" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J245" s="2">
         <v>0.0</v>
@@ -6818,8 +6735,8 @@
       <c r="A246" s="2">
         <v>4629.0</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>11</v>
+      <c r="B246" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C246" s="3">
         <v>45925.52466435185</v>
@@ -6831,10 +6748,10 @@
         <v>81.06557</v>
       </c>
       <c r="H246" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I246" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="J246" s="2">
         <v>10.0</v>
@@ -6857,7 +6774,7 @@
         <v>81.06757</v>
       </c>
       <c r="H247" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I247" s="4">
         <v>20.0</v>
@@ -6883,10 +6800,10 @@
         <v>81.06777</v>
       </c>
       <c r="H248" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I248" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J248" s="2">
         <v>0.0</v>
@@ -6912,7 +6829,7 @@
         <v>1.0</v>
       </c>
       <c r="I249" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J249" s="2">
         <v>20.0</v>
@@ -6935,10 +6852,10 @@
         <v>81.06789</v>
       </c>
       <c r="H250" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I250" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J250" s="2">
         <v>0.0</v>
@@ -6963,7 +6880,7 @@
       <c r="H251" s="2">
         <v>1.0</v>
       </c>
-      <c r="I251" s="4">
+      <c r="I251" s="2">
         <v>10.0</v>
       </c>
       <c r="J251" s="2">
@@ -6989,8 +6906,8 @@
       <c r="H252" s="2">
         <v>1.0</v>
       </c>
-      <c r="I252" s="4">
-        <v>20.0</v>
+      <c r="I252" s="2">
+        <v>10.0</v>
       </c>
       <c r="J252" s="2">
         <v>10.0</v>
@@ -7000,8 +6917,8 @@
       <c r="A253" s="2">
         <v>4636.0</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>11</v>
+      <c r="B253" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C253" s="3">
         <v>45925.54138888889</v>
@@ -7016,7 +6933,7 @@
         <v>1.0</v>
       </c>
       <c r="I253" s="4">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J253" s="2">
         <v>0.0</v>
@@ -7042,7 +6959,7 @@
         <v>1.0</v>
       </c>
       <c r="I254" s="4">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J254" s="2">
         <v>0.0</v>
@@ -7068,7 +6985,7 @@
         <v>1.0</v>
       </c>
       <c r="I255" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J255" s="2">
         <v>0.0</v>
@@ -7078,8 +6995,8 @@
       <c r="A256" s="2">
         <v>4639.0</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>11</v>
+      <c r="B256" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C256" s="3">
         <v>45925.54208333333</v>
@@ -7104,8 +7021,8 @@
       <c r="A257" s="2">
         <v>4640.0</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>12</v>
+      <c r="B257" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C257" s="3">
         <v>45925.54231481482</v>
@@ -7119,7 +7036,7 @@
       <c r="H257" s="2">
         <v>1.0</v>
       </c>
-      <c r="I257" s="4">
+      <c r="I257" s="2">
         <v>10.0</v>
       </c>
       <c r="J257" s="2">
@@ -7130,8 +7047,8 @@
       <c r="A258" s="2">
         <v>4641.0</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>11</v>
+      <c r="B258" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C258" s="3">
         <v>45925.5425462963</v>
@@ -7146,7 +7063,7 @@
         <v>1.0</v>
       </c>
       <c r="I258" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J258" s="2">
         <v>10.0</v>
@@ -7182,8 +7099,8 @@
       <c r="A260" s="2">
         <v>4643.0</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>11</v>
+      <c r="B260" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C260" s="3">
         <v>45925.54300925926</v>
@@ -7260,8 +7177,8 @@
       <c r="A263" s="2">
         <v>4646.0</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>11</v>
+      <c r="B263" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C263" s="3">
         <v>45925.5437037037</v>
@@ -7273,10 +7190,10 @@
         <v>81.06813</v>
       </c>
       <c r="H263" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I263" s="4">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="J263" s="2">
         <v>0.0</v>
@@ -7286,8 +7203,8 @@
       <c r="A264" s="2">
         <v>4647.0</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>12</v>
+      <c r="B264" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C264" s="3">
         <v>45925.54416666667</v>
@@ -7299,7 +7216,7 @@
         <v>81.0678</v>
       </c>
       <c r="H264" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I264" s="4">
         <v>20.0</v>
@@ -7351,10 +7268,10 @@
         <v>81.0663</v>
       </c>
       <c r="H266" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I266" s="4">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J266" s="2">
         <v>0.0</v>
@@ -7364,8 +7281,8 @@
       <c r="A267" s="2">
         <v>4650.0</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>11</v>
+      <c r="B267" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C267" s="3">
         <v>45925.54650462963</v>
@@ -7377,10 +7294,10 @@
         <v>81.06483</v>
       </c>
       <c r="H267" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I267" s="4">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J267" s="2">
         <v>10.0</v>
@@ -7403,10 +7320,10 @@
         <v>81.0642</v>
       </c>
       <c r="H268" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I268" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I268" s="2">
+        <v>10.0</v>
       </c>
       <c r="J268" s="2">
         <v>0.0</v>
@@ -7416,8 +7333,8 @@
       <c r="A269" s="2">
         <v>4652.0</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>12</v>
+      <c r="B269" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C269" s="3">
         <v>45925.56018518518</v>
@@ -7429,10 +7346,10 @@
         <v>81.06772</v>
       </c>
       <c r="H269" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I269" s="4">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J269" s="2">
         <v>10.0</v>
@@ -7442,8 +7359,8 @@
       <c r="A270" s="2">
         <v>4653.0</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>11</v>
+      <c r="B270" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C270" s="3">
         <v>45925.56041666667</v>
@@ -7455,10 +7372,10 @@
         <v>81.06786</v>
       </c>
       <c r="H270" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I270" s="4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J270" s="2">
         <v>20.0</v>
@@ -7510,7 +7427,7 @@
         <v>1.0</v>
       </c>
       <c r="I272" s="4">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J272" s="2">
         <v>0.0</v>
@@ -7536,7 +7453,7 @@
         <v>1.0</v>
       </c>
       <c r="I273" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J273" s="2">
         <v>0.0</v>
@@ -7546,8 +7463,8 @@
       <c r="A274" s="2">
         <v>4657.0</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>11</v>
+      <c r="B274" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C274" s="3">
         <v>45925.56134259259</v>
@@ -7561,8 +7478,8 @@
       <c r="H274" s="2">
         <v>1.0</v>
       </c>
-      <c r="I274" s="4">
-        <v>20.0</v>
+      <c r="I274" s="2">
+        <v>10.0</v>
       </c>
       <c r="J274" s="2">
         <v>0.0</v>
@@ -7587,8 +7504,8 @@
       <c r="H275" s="2">
         <v>1.0</v>
       </c>
-      <c r="I275" s="4">
-        <v>30.0</v>
+      <c r="I275" s="2">
+        <v>0.0</v>
       </c>
       <c r="J275" s="2">
         <v>0.0</v>
@@ -7598,8 +7515,8 @@
       <c r="A276" s="2">
         <v>4659.0</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>11</v>
+      <c r="B276" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C276" s="3">
         <v>45925.56182870371</v>
@@ -7611,10 +7528,10 @@
         <v>81.06791</v>
       </c>
       <c r="H276" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I276" s="4">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="I276" s="2">
+        <v>10.0</v>
       </c>
       <c r="J276" s="2">
         <v>0.0</v>
@@ -7624,8 +7541,8 @@
       <c r="A277" s="2">
         <v>4660.0</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>11</v>
+      <c r="B277" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C277" s="3">
         <v>45925.56206018518</v>
@@ -7637,7 +7554,7 @@
         <v>81.06793</v>
       </c>
       <c r="H277" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I277" s="4">
         <v>20.0</v>
@@ -7665,7 +7582,7 @@
       <c r="H278" s="2">
         <v>1.0</v>
       </c>
-      <c r="I278" s="4">
+      <c r="I278" s="2">
         <v>10.0</v>
       </c>
       <c r="J278" s="2">
@@ -7689,10 +7606,10 @@
         <v>81.06788</v>
       </c>
       <c r="H279" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I279" s="4">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="J279" s="2">
         <v>10.0</v>
@@ -7715,3369 +7632,144 @@
         <v>81.06788</v>
       </c>
       <c r="H280" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I280" s="4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J280" s="2">
         <v>0.0</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="2">
-        <v>4664.0</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C281" s="3">
-        <v>45925.56298611111</v>
-      </c>
-      <c r="E281" s="2">
-        <v>20.40927</v>
-      </c>
-      <c r="F281" s="2">
-        <v>81.06778</v>
-      </c>
-      <c r="H281" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I281" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J281" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="2">
-        <v>4665.0</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C282" s="3">
-        <v>45925.56357638889</v>
-      </c>
-      <c r="E282" s="2">
-        <v>20.40963</v>
-      </c>
-      <c r="F282" s="2">
-        <v>81.06824</v>
-      </c>
-      <c r="H282" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I282" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J282" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="2">
-        <v>4666.0</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C283" s="3">
-        <v>45925.56380787037</v>
-      </c>
-      <c r="E283" s="2">
-        <v>20.40963</v>
-      </c>
-      <c r="F283" s="2">
-        <v>81.06817</v>
-      </c>
-      <c r="H283" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I283" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J283" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="2">
-        <v>4667.0</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C284" s="3">
-        <v>45925.56403935186</v>
-      </c>
-      <c r="E284" s="2">
-        <v>20.40964</v>
-      </c>
-      <c r="F284" s="2">
-        <v>81.06817</v>
-      </c>
-      <c r="H284" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I284" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J284" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="2">
-        <v>4668.0</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C285" s="3">
-        <v>45925.56427083333</v>
-      </c>
-      <c r="E285" s="2">
-        <v>20.40964</v>
-      </c>
-      <c r="F285" s="2">
-        <v>81.06816</v>
-      </c>
-      <c r="H285" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I285" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J285" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="2">
-        <v>4669.0</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C286" s="3">
-        <v>45925.56450231482</v>
-      </c>
-      <c r="E286" s="2">
-        <v>20.40972</v>
-      </c>
-      <c r="F286" s="2">
-        <v>81.06819</v>
-      </c>
-      <c r="H286" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I286" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J286" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="2">
-        <v>4670.0</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C287" s="3">
-        <v>45925.56473379629</v>
-      </c>
-      <c r="E287" s="2">
-        <v>20.40971</v>
-      </c>
-      <c r="F287" s="2">
-        <v>81.06816</v>
-      </c>
-      <c r="H287" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I287" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J287" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="2">
-        <v>4671.0</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C288" s="3">
-        <v>45925.56496527778</v>
-      </c>
-      <c r="E288" s="2">
-        <v>20.40977</v>
-      </c>
-      <c r="F288" s="2">
-        <v>81.06799</v>
-      </c>
-      <c r="H288" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I288" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J288" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="2">
-        <v>4672.0</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C289" s="3">
-        <v>45925.5660300926</v>
-      </c>
-      <c r="E289" s="2">
-        <v>20.40924</v>
-      </c>
-      <c r="F289" s="2">
-        <v>81.06776</v>
-      </c>
-      <c r="H289" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I289" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J289" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="2">
-        <v>4673.0</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C290" s="3">
-        <v>45925.56847222222</v>
-      </c>
-      <c r="E290" s="2">
-        <v>20.40418</v>
-      </c>
-      <c r="F290" s="2">
-        <v>81.06511</v>
-      </c>
-      <c r="H290" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I290" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J290" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="2">
-        <v>4674.0</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C291" s="3">
-        <v>45925.56870370371</v>
-      </c>
-      <c r="E291" s="2">
-        <v>20.40447</v>
-      </c>
-      <c r="F291" s="2">
-        <v>81.0643</v>
-      </c>
-      <c r="H291" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I291" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J291" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="2">
-        <v>4675.0</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C292" s="3">
-        <v>45925.58091435185</v>
-      </c>
-      <c r="E292" s="2">
-        <v>20.40501</v>
-      </c>
-      <c r="F292" s="2">
-        <v>81.067</v>
-      </c>
-      <c r="H292" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I292" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J292" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="2">
-        <v>4676.0</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C293" s="3">
-        <v>45925.58137731482</v>
-      </c>
-      <c r="E293" s="2">
-        <v>20.40467</v>
-      </c>
-      <c r="F293" s="2">
-        <v>81.0665</v>
-      </c>
-      <c r="H293" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I293" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J293" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="2">
-        <v>4677.0</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C294" s="3">
-        <v>45925.5816087963</v>
-      </c>
-      <c r="E294" s="2">
-        <v>20.40469</v>
-      </c>
-      <c r="F294" s="2">
-        <v>81.06614</v>
-      </c>
-      <c r="H294" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I294" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J294" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="2">
-        <v>4678.0</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C295" s="3">
-        <v>45925.58184027778</v>
-      </c>
-      <c r="E295" s="2">
-        <v>20.40471</v>
-      </c>
-      <c r="F295" s="2">
-        <v>81.06611</v>
-      </c>
-      <c r="H295" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I295" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J295" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="2">
-        <v>4679.0</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C296" s="3">
-        <v>45925.58207175926</v>
-      </c>
-      <c r="E296" s="2">
-        <v>20.40472</v>
-      </c>
-      <c r="F296" s="2">
-        <v>81.06608</v>
-      </c>
-      <c r="H296" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I296" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J296" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="2">
-        <v>4680.0</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C297" s="3">
-        <v>45925.58230324074</v>
-      </c>
-      <c r="E297" s="2">
-        <v>20.40472</v>
-      </c>
-      <c r="F297" s="2">
-        <v>81.06606</v>
-      </c>
-      <c r="H297" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I297" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J297" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="2">
-        <v>4681.0</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C298" s="3">
-        <v>45925.58253472222</v>
-      </c>
-      <c r="E298" s="2">
-        <v>20.40472</v>
-      </c>
-      <c r="F298" s="2">
-        <v>81.06606</v>
-      </c>
-      <c r="H298" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I298" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J298" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="2">
-        <v>4682.0</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C299" s="3">
-        <v>45925.5827662037</v>
-      </c>
-      <c r="E299" s="2">
-        <v>20.40474</v>
-      </c>
-      <c r="F299" s="2">
-        <v>81.06603</v>
-      </c>
-      <c r="H299" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I299" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J299" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="2">
-        <v>4683.0</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C300" s="3">
-        <v>45925.58299768518</v>
-      </c>
-      <c r="E300" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F300" s="2">
-        <v>81.06602</v>
-      </c>
-      <c r="H300" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I300" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J300" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="2">
-        <v>4684.0</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C301" s="3">
-        <v>45925.58322916667</v>
-      </c>
-      <c r="E301" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F301" s="2">
-        <v>81.06603</v>
-      </c>
-      <c r="H301" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I301" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J301" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="2">
-        <v>4685.0</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C302" s="3">
-        <v>45925.58346064815</v>
-      </c>
-      <c r="E302" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F302" s="2">
-        <v>81.06603</v>
-      </c>
-      <c r="H302" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I302" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J302" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="2">
-        <v>4686.0</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C303" s="3">
-        <v>45925.58369212963</v>
-      </c>
-      <c r="E303" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F303" s="2">
-        <v>81.06602</v>
-      </c>
-      <c r="H303" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I303" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J303" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="2">
-        <v>4687.0</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C304" s="3">
-        <v>45925.58392361111</v>
-      </c>
-      <c r="E304" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F304" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H304" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I304" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J304" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="2">
-        <v>4688.0</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C305" s="3">
-        <v>45925.58415509259</v>
-      </c>
-      <c r="E305" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F305" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H305" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I305" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J305" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="2">
-        <v>4689.0</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C306" s="3">
-        <v>45925.58438657408</v>
-      </c>
-      <c r="E306" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F306" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H306" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I306" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J306" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="2">
-        <v>4690.0</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C307" s="3">
-        <v>45925.58461805555</v>
-      </c>
-      <c r="E307" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F307" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H307" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I307" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J307" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="2">
-        <v>4691.0</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C308" s="3">
-        <v>45925.58484953704</v>
-      </c>
-      <c r="E308" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F308" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H308" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I308" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J308" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="2">
-        <v>4692.0</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C309" s="3">
-        <v>45925.58508101852</v>
-      </c>
-      <c r="E309" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F309" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H309" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I309" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J309" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="2">
-        <v>4693.0</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C310" s="3">
-        <v>45925.5853125</v>
-      </c>
-      <c r="E310" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F310" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H310" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I310" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J310" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="2">
-        <v>4694.0</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C311" s="3">
-        <v>45925.58577546296</v>
-      </c>
-      <c r="E311" s="2">
-        <v>20.40473</v>
-      </c>
-      <c r="F311" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H311" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I311" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J311" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="2">
-        <v>4695.0</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C312" s="3">
-        <v>45925.58600694445</v>
-      </c>
-      <c r="E312" s="2">
-        <v>20.40473</v>
-      </c>
-      <c r="F312" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H312" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I312" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J312" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="2">
-        <v>4696.0</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C313" s="3">
-        <v>45925.58623842592</v>
-      </c>
-      <c r="E313" s="2">
-        <v>20.40474</v>
-      </c>
-      <c r="F313" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H313" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I313" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J313" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="2">
-        <v>4697.0</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C314" s="3">
-        <v>45925.58646990741</v>
-      </c>
-      <c r="E314" s="2">
-        <v>20.40474</v>
-      </c>
-      <c r="F314" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H314" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I314" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J314" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="2">
-        <v>4698.0</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C315" s="3">
-        <v>45925.58670138889</v>
-      </c>
-      <c r="E315" s="2">
-        <v>20.40474</v>
-      </c>
-      <c r="F315" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H315" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I315" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J315" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="2">
-        <v>4699.0</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C316" s="3">
-        <v>45925.58693287037</v>
-      </c>
-      <c r="E316" s="2">
-        <v>20.40474</v>
-      </c>
-      <c r="F316" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H316" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I316" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J316" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="2">
-        <v>4700.0</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C317" s="3">
-        <v>45925.58716435185</v>
-      </c>
-      <c r="E317" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F317" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H317" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I317" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J317" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="2">
-        <v>4701.0</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C318" s="3">
-        <v>45925.58739583333</v>
-      </c>
-      <c r="E318" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F318" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H318" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I318" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J318" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="2">
-        <v>4702.0</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C319" s="3">
-        <v>45925.58762731482</v>
-      </c>
-      <c r="E319" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F319" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H319" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I319" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J319" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="2">
-        <v>4703.0</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C320" s="3">
-        <v>45925.58785879629</v>
-      </c>
-      <c r="E320" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F320" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H320" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I320" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J320" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="2">
-        <v>4704.0</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C321" s="3">
-        <v>45925.58809027778</v>
-      </c>
-      <c r="E321" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F321" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H321" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I321" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J321" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="2">
-        <v>4705.0</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C322" s="3">
-        <v>45925.58832175926</v>
-      </c>
-      <c r="E322" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F322" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H322" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I322" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J322" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="2">
-        <v>4706.0</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C323" s="3">
-        <v>45925.58855324074</v>
-      </c>
-      <c r="E323" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F323" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H323" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I323" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J323" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="2">
-        <v>4707.0</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C324" s="3">
-        <v>45925.58878472223</v>
-      </c>
-      <c r="E324" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F324" s="2">
-        <v>81.06595</v>
-      </c>
-      <c r="H324" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I324" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J324" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="2">
-        <v>4708.0</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C325" s="3">
-        <v>45925.5890162037</v>
-      </c>
-      <c r="E325" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F325" s="2">
-        <v>81.06594</v>
-      </c>
-      <c r="H325" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I325" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J325" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="2">
-        <v>4709.0</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C326" s="3">
-        <v>45925.58924768519</v>
-      </c>
-      <c r="E326" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F326" s="2">
-        <v>81.06594</v>
-      </c>
-      <c r="H326" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I326" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J326" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="2">
-        <v>4710.0</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C327" s="3">
-        <v>45925.58947916667</v>
-      </c>
-      <c r="E327" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F327" s="2">
-        <v>81.06595</v>
-      </c>
-      <c r="H327" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="I327" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J327" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="2">
-        <v>4711.0</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C328" s="3">
-        <v>45925.58971064815</v>
-      </c>
-      <c r="E328" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F328" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H328" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I328" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J328" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="2">
-        <v>4712.0</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C329" s="3">
-        <v>45925.5899537037</v>
-      </c>
-      <c r="E329" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F329" s="2">
-        <v>81.06595</v>
-      </c>
-      <c r="H329" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="I329" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J329" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="2">
-        <v>4713.0</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C330" s="3">
-        <v>45925.59018518519</v>
-      </c>
-      <c r="E330" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F330" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H330" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I330" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J330" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="2">
-        <v>4714.0</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C331" s="3">
-        <v>45925.59041666667</v>
-      </c>
-      <c r="E331" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F331" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H331" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I331" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J331" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="2">
-        <v>4715.0</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C332" s="3">
-        <v>45925.59064814815</v>
-      </c>
-      <c r="E332" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F332" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H332" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I332" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J332" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="2">
-        <v>4716.0</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C333" s="3">
-        <v>45925.59087962963</v>
-      </c>
-      <c r="E333" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F333" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H333" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I333" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J333" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="2">
-        <v>4717.0</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C334" s="3">
-        <v>45925.59111111111</v>
-      </c>
-      <c r="E334" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F334" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H334" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I334" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J334" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="2">
-        <v>4718.0</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C335" s="3">
-        <v>45925.59134259259</v>
-      </c>
-      <c r="E335" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F335" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H335" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I335" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J335" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="2">
-        <v>4719.0</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C336" s="3">
-        <v>45925.59157407407</v>
-      </c>
-      <c r="E336" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F336" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H336" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I336" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J336" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="2">
-        <v>4720.0</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C337" s="3">
-        <v>45925.59180555555</v>
-      </c>
-      <c r="E337" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F337" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H337" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="I337" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J337" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="2">
-        <v>4721.0</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C338" s="3">
-        <v>45925.59203703704</v>
-      </c>
-      <c r="E338" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F338" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H338" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I338" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J338" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="2">
-        <v>4722.0</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C339" s="3">
-        <v>45925.59226851852</v>
-      </c>
-      <c r="E339" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F339" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H339" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="I339" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J339" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="2">
-        <v>4723.0</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C340" s="3">
-        <v>45925.5925</v>
-      </c>
-      <c r="E340" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F340" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H340" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I340" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J340" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="2">
-        <v>4724.0</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C341" s="3">
-        <v>45925.59273148148</v>
-      </c>
-      <c r="E341" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F341" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H341" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I341" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J341" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="2">
-        <v>4725.0</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C342" s="3">
-        <v>45925.59296296296</v>
-      </c>
-      <c r="E342" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F342" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H342" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I342" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J342" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="2">
-        <v>4726.0</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C343" s="3">
-        <v>45925.59319444445</v>
-      </c>
-      <c r="E343" s="2">
-        <v>20.40474</v>
-      </c>
-      <c r="F343" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H343" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I343" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J343" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="2">
-        <v>4727.0</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C344" s="3">
-        <v>45925.59342592592</v>
-      </c>
-      <c r="E344" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F344" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H344" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I344" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J344" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="2">
-        <v>4728.0</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C345" s="3">
-        <v>45925.59365740741</v>
-      </c>
-      <c r="E345" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F345" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H345" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I345" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J345" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="2">
-        <v>4729.0</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C346" s="3">
-        <v>45925.59388888889</v>
-      </c>
-      <c r="E346" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F346" s="2">
-        <v>81.06602</v>
-      </c>
-      <c r="H346" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I346" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J346" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="2">
-        <v>4730.0</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C347" s="3">
-        <v>45925.59412037037</v>
-      </c>
-      <c r="E347" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F347" s="2">
-        <v>81.06603</v>
-      </c>
-      <c r="H347" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I347" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J347" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="2">
-        <v>4731.0</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C348" s="3">
-        <v>45925.59435185185</v>
-      </c>
-      <c r="E348" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F348" s="2">
-        <v>81.06602</v>
-      </c>
-      <c r="H348" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I348" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J348" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="2">
-        <v>4732.0</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C349" s="3">
-        <v>45925.59458333333</v>
-      </c>
-      <c r="E349" s="2">
-        <v>20.40474</v>
-      </c>
-      <c r="F349" s="2">
-        <v>81.06602</v>
-      </c>
-      <c r="H349" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I349" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J349" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="2">
-        <v>4733.0</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C350" s="3">
-        <v>45925.59481481482</v>
-      </c>
-      <c r="E350" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F350" s="2">
-        <v>81.06602</v>
-      </c>
-      <c r="H350" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I350" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J350" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="2">
-        <v>4734.0</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C351" s="3">
-        <v>45925.59504629629</v>
-      </c>
-      <c r="E351" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F351" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H351" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I351" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J351" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="2">
-        <v>4735.0</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C352" s="3">
-        <v>45925.59527777778</v>
-      </c>
-      <c r="E352" s="2">
-        <v>20.40475</v>
-      </c>
-      <c r="F352" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H352" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I352" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J352" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="2">
-        <v>4736.0</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C353" s="3">
-        <v>45925.59550925926</v>
-      </c>
-      <c r="E353" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F353" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H353" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I353" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J353" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="2">
-        <v>4737.0</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C354" s="3">
-        <v>45925.59574074074</v>
-      </c>
-      <c r="E354" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F354" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H354" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I354" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J354" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="2">
-        <v>4738.0</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C355" s="3">
-        <v>45925.59597222223</v>
-      </c>
-      <c r="E355" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F355" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H355" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I355" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J355" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="2">
-        <v>4739.0</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C356" s="3">
-        <v>45925.5962037037</v>
-      </c>
-      <c r="E356" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F356" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H356" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="I356" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="J356" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="2">
-        <v>4740.0</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C357" s="3">
-        <v>45925.59643518519</v>
-      </c>
-      <c r="E357" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F357" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H357" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I357" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J357" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="2">
-        <v>4741.0</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C358" s="3">
-        <v>45925.59666666666</v>
-      </c>
-      <c r="E358" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F358" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H358" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="I358" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J358" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="2">
-        <v>4742.0</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C359" s="3">
-        <v>45925.59689814815</v>
-      </c>
-      <c r="E359" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F359" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H359" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I359" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J359" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="2">
-        <v>4743.0</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C360" s="3">
-        <v>45925.59712962963</v>
-      </c>
-      <c r="E360" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F360" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H360" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I360" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J360" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="2">
-        <v>4744.0</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C361" s="3">
-        <v>45925.59736111111</v>
-      </c>
-      <c r="E361" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F361" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H361" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I361" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J361" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="2">
-        <v>4745.0</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C362" s="3">
-        <v>45925.5975925926</v>
-      </c>
-      <c r="E362" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F362" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H362" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I362" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J362" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="2">
-        <v>4746.0</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C363" s="3">
-        <v>45925.59782407407</v>
-      </c>
-      <c r="E363" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F363" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H363" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I363" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J363" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="2">
-        <v>4747.0</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C364" s="3">
-        <v>45925.59805555556</v>
-      </c>
-      <c r="E364" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F364" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H364" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I364" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J364" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="2">
-        <v>4748.0</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C365" s="3">
-        <v>45925.59828703704</v>
-      </c>
-      <c r="E365" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F365" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H365" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I365" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J365" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="2">
-        <v>4749.0</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C366" s="3">
-        <v>45925.59851851852</v>
-      </c>
-      <c r="E366" s="2">
-        <v>20.40479</v>
-      </c>
-      <c r="F366" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H366" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I366" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J366" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="2">
-        <v>4750.0</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C367" s="3">
-        <v>45925.59875</v>
-      </c>
-      <c r="E367" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F367" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H367" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I367" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J367" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="2">
-        <v>4751.0</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C368" s="3">
-        <v>45925.59898148148</v>
-      </c>
-      <c r="E368" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F368" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H368" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I368" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J368" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="2">
-        <v>4752.0</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C369" s="3">
-        <v>45925.59921296296</v>
-      </c>
-      <c r="E369" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F369" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H369" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I369" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J369" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="2">
-        <v>4753.0</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C370" s="3">
-        <v>45925.59944444444</v>
-      </c>
-      <c r="E370" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F370" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H370" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I370" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J370" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="2">
-        <v>4754.0</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C371" s="3">
-        <v>45925.59967592593</v>
-      </c>
-      <c r="E371" s="2">
-        <v>20.40479</v>
-      </c>
-      <c r="F371" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H371" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I371" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J371" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="2">
-        <v>4755.0</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C372" s="3">
-        <v>45925.59990740741</v>
-      </c>
-      <c r="E372" s="2">
-        <v>20.40479</v>
-      </c>
-      <c r="F372" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H372" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I372" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J372" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="2">
-        <v>4756.0</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C373" s="3">
-        <v>45925.60013888889</v>
-      </c>
-      <c r="E373" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F373" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H373" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I373" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J373" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="2">
-        <v>4757.0</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C374" s="3">
-        <v>45925.60037037037</v>
-      </c>
-      <c r="E374" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F374" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H374" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I374" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J374" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="2">
-        <v>4758.0</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C375" s="3">
-        <v>45925.60060185185</v>
-      </c>
-      <c r="E375" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F375" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H375" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I375" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J375" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="2">
-        <v>4759.0</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C376" s="3">
-        <v>45925.60083333333</v>
-      </c>
-      <c r="E376" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F376" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H376" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I376" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J376" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="2">
-        <v>4760.0</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C377" s="3">
-        <v>45925.60106481481</v>
-      </c>
-      <c r="E377" s="2">
-        <v>20.40479</v>
-      </c>
-      <c r="F377" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H377" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I377" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J377" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="2">
-        <v>4761.0</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C378" s="3">
-        <v>45925.6012962963</v>
-      </c>
-      <c r="E378" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F378" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H378" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I378" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J378" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="2">
-        <v>4762.0</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C379" s="3">
-        <v>45925.60152777778</v>
-      </c>
-      <c r="E379" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F379" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H379" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I379" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J379" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="2">
-        <v>4763.0</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C380" s="3">
-        <v>45925.60175925926</v>
-      </c>
-      <c r="E380" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F380" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H380" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I380" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J380" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="2">
-        <v>4765.0</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C381" s="3">
-        <v>45925.60199074074</v>
-      </c>
-      <c r="E381" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F381" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H381" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I381" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J381" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="2">
-        <v>4766.0</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C382" s="3">
-        <v>45925.60222222222</v>
-      </c>
-      <c r="E382" s="2">
-        <v>20.40476</v>
-      </c>
-      <c r="F382" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H382" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I382" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J382" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="2">
-        <v>4768.0</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C383" s="3">
-        <v>45925.6024537037</v>
-      </c>
-      <c r="E383" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F383" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H383" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I383" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J383" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="2">
-        <v>4769.0</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C384" s="3">
-        <v>45925.60268518519</v>
-      </c>
-      <c r="E384" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F384" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H384" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I384" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J384" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="2">
-        <v>4771.0</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C385" s="3">
-        <v>45925.60291666666</v>
-      </c>
-      <c r="E385" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F385" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H385" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I385" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J385" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="2">
-        <v>4773.0</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C386" s="3">
-        <v>45925.60314814815</v>
-      </c>
-      <c r="E386" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F386" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H386" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I386" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J386" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="2">
-        <v>4774.0</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C387" s="3">
-        <v>45925.60337962963</v>
-      </c>
-      <c r="E387" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F387" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H387" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I387" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J387" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="2">
-        <v>4776.0</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C388" s="3">
-        <v>45925.60361111111</v>
-      </c>
-      <c r="E388" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F388" s="2">
-        <v>81.066</v>
-      </c>
-      <c r="H388" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I388" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J388" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="2">
-        <v>4778.0</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C389" s="3">
-        <v>45925.60384259259</v>
-      </c>
-      <c r="E389" s="2">
-        <v>20.40477</v>
-      </c>
-      <c r="F389" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H389" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I389" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J389" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="2">
-        <v>4779.0</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C390" s="3">
-        <v>45925.60407407407</v>
-      </c>
-      <c r="E390" s="2">
-        <v>20.40478</v>
-      </c>
-      <c r="F390" s="2">
-        <v>81.06601</v>
-      </c>
-      <c r="H390" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I390" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J390" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="2">
-        <v>4781.0</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C391" s="3">
-        <v>45925.60430555556</v>
-      </c>
-      <c r="E391" s="2">
-        <v>20.40479</v>
-      </c>
-      <c r="F391" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H391" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I391" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J391" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="2">
-        <v>4782.0</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C392" s="3">
-        <v>45925.60453703703</v>
-      </c>
-      <c r="E392" s="2">
-        <v>20.40479</v>
-      </c>
-      <c r="F392" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H392" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I392" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J392" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="2">
-        <v>4784.0</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C393" s="3">
-        <v>45925.60476851852</v>
-      </c>
-      <c r="E393" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F393" s="2">
-        <v>81.06596</v>
-      </c>
-      <c r="H393" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I393" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J393" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="2">
-        <v>4785.0</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C394" s="3">
-        <v>45925.605</v>
-      </c>
-      <c r="E394" s="2">
-        <v>20.40482</v>
-      </c>
-      <c r="F394" s="2">
-        <v>81.06595</v>
-      </c>
-      <c r="H394" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I394" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J394" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="2">
-        <v>4786.0</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C395" s="3">
-        <v>45925.60523148148</v>
-      </c>
-      <c r="E395" s="2">
-        <v>20.40483</v>
-      </c>
-      <c r="F395" s="2">
-        <v>81.06593</v>
-      </c>
-      <c r="H395" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I395" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J395" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="2">
-        <v>4787.0</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C396" s="3">
-        <v>45925.60546296297</v>
-      </c>
-      <c r="E396" s="2">
-        <v>20.40482</v>
-      </c>
-      <c r="F396" s="2">
-        <v>81.06593</v>
-      </c>
-      <c r="H396" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I396" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J396" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="2">
-        <v>4789.0</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C397" s="3">
-        <v>45925.60569444444</v>
-      </c>
-      <c r="E397" s="2">
-        <v>20.40482</v>
-      </c>
-      <c r="F397" s="2">
-        <v>81.06593</v>
-      </c>
-      <c r="H397" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I397" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J397" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="2">
-        <v>4790.0</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C398" s="3">
-        <v>45925.60592592593</v>
-      </c>
-      <c r="E398" s="2">
-        <v>20.40482</v>
-      </c>
-      <c r="F398" s="2">
-        <v>81.06593</v>
-      </c>
-      <c r="H398" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I398" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J398" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="2">
-        <v>4791.0</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C399" s="3">
-        <v>45925.6061574074</v>
-      </c>
-      <c r="E399" s="2">
-        <v>20.40482</v>
-      </c>
-      <c r="F399" s="2">
-        <v>81.06594</v>
-      </c>
-      <c r="H399" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I399" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J399" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="2">
-        <v>4792.0</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C400" s="3">
-        <v>45925.60638888889</v>
-      </c>
-      <c r="E400" s="2">
-        <v>20.40482</v>
-      </c>
-      <c r="F400" s="2">
-        <v>81.06593</v>
-      </c>
-      <c r="H400" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I400" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J400" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="2">
-        <v>4793.0</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C401" s="3">
-        <v>45925.60662037037</v>
-      </c>
-      <c r="E401" s="2">
-        <v>20.40482</v>
-      </c>
-      <c r="F401" s="2">
-        <v>81.06593</v>
-      </c>
-      <c r="H401" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I401" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J401" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="2">
-        <v>4795.0</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C402" s="3">
-        <v>45925.60685185185</v>
-      </c>
-      <c r="E402" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F402" s="2">
-        <v>81.06594</v>
-      </c>
-      <c r="H402" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I402" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J402" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="2">
-        <v>4796.0</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C403" s="3">
-        <v>45925.60708333334</v>
-      </c>
-      <c r="E403" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F403" s="2">
-        <v>81.06593</v>
-      </c>
-      <c r="H403" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I403" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J403" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="2">
-        <v>4798.0</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C404" s="3">
-        <v>45925.60731481481</v>
-      </c>
-      <c r="E404" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F404" s="2">
-        <v>81.06594</v>
-      </c>
-      <c r="H404" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I404" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J404" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="2">
-        <v>4800.0</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C405" s="3">
-        <v>45925.6075462963</v>
-      </c>
-      <c r="E405" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F405" s="2">
-        <v>81.06594</v>
-      </c>
-      <c r="H405" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I405" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J405" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="2">
-        <v>4801.0</v>
-      </c>
-      <c r="B406" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C406" s="3">
-        <v>45925.60777777778</v>
-      </c>
-      <c r="E406" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F406" s="2">
-        <v>81.06597</v>
-      </c>
-      <c r="H406" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I406" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="J406" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="2">
-        <v>4803.0</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C407" s="3">
-        <v>45925.60800925926</v>
-      </c>
-      <c r="E407" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F407" s="2">
-        <v>81.06598</v>
-      </c>
-      <c r="H407" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I407" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J407" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="2">
-        <v>4804.0</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C408" s="3">
-        <v>45925.60824074074</v>
-      </c>
-      <c r="E408" s="2">
-        <v>20.4048</v>
-      </c>
-      <c r="F408" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H408" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I408" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="J408" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="2">
-        <v>4805.0</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C409" s="3">
-        <v>45925.60847222222</v>
-      </c>
-      <c r="E409" s="2">
-        <v>20.40481</v>
-      </c>
-      <c r="F409" s="2">
-        <v>81.06599</v>
-      </c>
-      <c r="H409" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I409" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J409" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
     <row r="410" ht="15.75" customHeight="1"/>
     <row r="411" ht="15.75" customHeight="1"/>
     <row r="412" ht="15.75" customHeight="1"/>
@@ -11427,248 +8119,6 @@
     <row r="756" ht="15.75" customHeight="1"/>
     <row r="757" ht="15.75" customHeight="1"/>
     <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
